--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\OneDrive - E2open, Inc\Desktop\premilafolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AEE1B7-797E-4B21-B874-E376C5103571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2002F4F-BBF2-4EA6-B2F6-F720B8438FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="177">
   <si>
     <t>Day</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>in trading waiting is the art of winning</t>
+  </si>
+  <si>
+    <t>always try to measure trade loss and profit or elese you will end up loosing in big trade like today</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,7 +1046,7 @@
     <col min="2" max="2" width="19.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="59.33203125" customWidth="1"/>
+    <col min="5" max="5" width="85.77734375" customWidth="1"/>
     <col min="6" max="6" width="133.44140625" customWidth="1"/>
     <col min="7" max="7" width="23.5546875" customWidth="1"/>
   </cols>
@@ -2085,6 +2088,20 @@
       </c>
       <c r="F59" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B60">
+        <v>500</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2002F4F-BBF2-4EA6-B2F6-F720B8438FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7DBEEB-B575-42CA-881B-DC0B9C56E8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="180">
   <si>
     <t>Day</t>
   </si>
@@ -572,6 +572,15 @@
   </si>
   <si>
     <t>always try to measure trade loss and profit or elese you will end up loosing in big trade like today</t>
+  </si>
+  <si>
+    <t>some miss entry so observer the trade on Sunday</t>
+  </si>
+  <si>
+    <t>I knew there was strong selling pressure as per oi but I went against the data so I boooked loss in 1 trade</t>
+  </si>
+  <si>
+    <t>it was a good trade indeed</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2102,6 +2111,48 @@
       </c>
       <c r="E60" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B61">
+        <v>361</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B62">
+        <v>393</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B63">
+        <v>512</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7DBEEB-B575-42CA-881B-DC0B9C56E8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AFF27-100B-499A-9CE7-50720D4103DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="181">
   <si>
     <t>Day</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>it was a good trade indeed</t>
+  </si>
+  <si>
+    <t>again stupid and emotional trading I know that there is no move but I didn't folloe my price action</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2153,6 +2156,20 @@
       </c>
       <c r="E63" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45632</v>
+      </c>
+      <c r="C64">
+        <v>855</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AFF27-100B-499A-9CE7-50720D4103DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE91146C-7CE3-4D63-A281-DCB945718B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,7 +583,7 @@
     <t>it was a good trade indeed</t>
   </si>
   <si>
-    <t>again stupid and emotional trading I know that there is no move but I didn't folloe my price action</t>
+    <t>again stupid and emotional trading I know that there is no move but I didn't folloe my price action/over trading is the biggest problem with me/overtrading overtrading and overtrading I promised that I won't trade more than 2 from today</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,7 +1058,7 @@
     <col min="2" max="2" width="19.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="85.77734375" customWidth="1"/>
+    <col min="5" max="5" width="194.44140625" customWidth="1"/>
     <col min="6" max="6" width="133.44140625" customWidth="1"/>
     <col min="7" max="7" width="23.5546875" customWidth="1"/>
   </cols>
@@ -2163,10 +2163,10 @@
         <v>45632</v>
       </c>
       <c r="C64">
-        <v>855</v>
+        <v>1830</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E64" t="s">
         <v>180</v>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE91146C-7CE3-4D63-A281-DCB945718B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E91F66F-CDAE-4E53-9302-53E17BA0E335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="183">
   <si>
     <t>Day</t>
   </si>
@@ -584,6 +584,12 @@
   </si>
   <si>
     <t>again stupid and emotional trading I know that there is no move but I didn't folloe my price action/over trading is the biggest problem with me/overtrading overtrading and overtrading I promised that I won't trade more than 2 from today</t>
+  </si>
+  <si>
+    <t>again early exit I should have patience to reach that target price</t>
+  </si>
+  <si>
+    <t>again due to small sl I missed big profit so never ever fear to take other trade with abit big sl</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="E48" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2170,6 +2176,34 @@
       </c>
       <c r="E64" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B65">
+        <v>220</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45636</v>
+      </c>
+      <c r="C66">
+        <v>558</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E91F66F-CDAE-4E53-9302-53E17BA0E335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CC72AC-DAF8-4FC9-9DE0-15FA476DAEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="184">
   <si>
     <t>Day</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>again due to small sl I missed big profit so never ever fear to take other trade with abit big sl</t>
+  </si>
+  <si>
+    <t>again due to modification of SL I regret a big loss even though I knew market will go down again trading is not about knowing but controlling your psycology</t>
   </si>
 </sst>
 </file>
@@ -1052,24 +1055,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E48" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="E59" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="194.44140625" customWidth="1"/>
-    <col min="6" max="6" width="133.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="194.453125" customWidth="1"/>
+    <col min="6" max="6" width="133.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45454</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45455</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45456</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45457</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45461</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45461</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45461</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45462</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45462</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45462</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45462</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45463</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45463</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45463</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45469</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45470</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45470</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45470</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45475</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45475</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45476</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45476</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45477</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45488</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45489</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45489</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45491</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45491</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45492</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45495</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45496</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45496</v>
       </c>
@@ -1737,7 +1740,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45496</v>
       </c>
@@ -1757,7 +1760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45497</v>
       </c>
@@ -1774,7 +1777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45498</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45499</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45502</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>0.41041666666666665</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45502</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45503</v>
       </c>
@@ -1853,7 +1856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45503</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45504</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45505</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45506</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45509</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45510</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45511</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45512</v>
       </c>
@@ -1979,7 +1982,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45512</v>
       </c>
@@ -1993,7 +1996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45516</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45517</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45518</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45520</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45523</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45621</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45622</v>
       </c>
@@ -2091,7 +2094,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45623</v>
       </c>
@@ -2108,7 +2111,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45628</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45629</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45630</v>
       </c>
@@ -2150,7 +2153,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45631</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45632</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45635</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45636</v>
       </c>
@@ -2204,6 +2207,20 @@
       </c>
       <c r="E66" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>45642</v>
+      </c>
+      <c r="C67">
+        <v>510</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2219,17 +2236,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="146.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" customWidth="1"/>
-    <col min="3" max="3" width="79.21875" customWidth="1"/>
-    <col min="4" max="4" width="65.21875" customWidth="1"/>
-    <col min="5" max="5" width="156.44140625" customWidth="1"/>
-    <col min="6" max="6" width="64.6640625" customWidth="1"/>
+    <col min="1" max="1" width="146.54296875" customWidth="1"/>
+    <col min="2" max="2" width="40.08984375" customWidth="1"/>
+    <col min="3" max="3" width="79.1796875" customWidth="1"/>
+    <col min="4" max="4" width="65.1796875" customWidth="1"/>
+    <col min="5" max="5" width="156.453125" customWidth="1"/>
+    <col min="6" max="6" width="64.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2243,7 +2260,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2254,7 +2271,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2265,7 +2282,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -2273,12 +2290,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -2286,7 +2303,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2297,7 +2314,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -2305,12 +2322,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -2318,7 +2335,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2332,7 +2349,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -2343,7 +2360,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -2354,7 +2371,7 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2371,7 +2388,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -2388,7 +2405,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -2405,7 +2422,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -2422,7 +2439,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -2436,7 +2453,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -2450,7 +2467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>813</v>
       </c>
@@ -2461,7 +2478,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -2475,7 +2492,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -2492,7 +2509,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -2506,7 +2523,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -2520,7 +2537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -2531,7 +2548,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -2542,7 +2559,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2553,7 +2570,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -2567,7 +2584,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -2581,7 +2598,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C31">
         <v>1793</v>
       </c>
@@ -2592,7 +2609,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -2606,7 +2623,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -2620,7 +2637,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -2634,7 +2651,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -2648,7 +2665,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C36">
         <v>1046</v>
       </c>
@@ -2656,7 +2673,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -2670,7 +2687,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -2687,7 +2704,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -2701,7 +2718,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -2715,7 +2732,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -2729,7 +2746,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -2743,7 +2760,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -2757,7 +2774,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -2768,7 +2785,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -2779,7 +2796,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -2790,7 +2807,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -2801,7 +2818,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C48">
         <v>514</v>
       </c>
@@ -2809,7 +2826,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -2820,7 +2837,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -2834,7 +2851,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -2848,7 +2865,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -2862,7 +2879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -2873,7 +2890,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -2884,7 +2901,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -2895,7 +2912,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -2906,7 +2923,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -2917,7 +2934,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -2931,7 +2948,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -2948,7 +2965,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -2965,7 +2982,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -2979,7 +2996,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -2990,7 +3007,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -3004,7 +3021,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -3015,7 +3032,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -3026,7 +3043,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>715</v>
       </c>
@@ -3037,7 +3054,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C67">
         <v>171</v>
       </c>
@@ -3045,7 +3062,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C68">
         <v>250</v>
       </c>
@@ -3069,14 +3086,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="98.77734375" customWidth="1"/>
-    <col min="3" max="3" width="85.88671875" customWidth="1"/>
+    <col min="2" max="2" width="98.81640625" customWidth="1"/>
+    <col min="3" max="3" width="85.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3087,7 +3104,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45462</v>
       </c>
@@ -3095,7 +3112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45463</v>
       </c>
@@ -3103,7 +3120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45470</v>
       </c>
@@ -3111,7 +3128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45491</v>
       </c>
@@ -3119,7 +3136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45499</v>
       </c>
@@ -3127,7 +3144,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45502</v>
       </c>
@@ -3135,7 +3152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45513</v>
       </c>
@@ -3156,13 +3173,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.5546875" customWidth="1"/>
-    <col min="2" max="2" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="70.54296875" customWidth="1"/>
+    <col min="2" max="2" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -3170,17 +3187,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -3199,14 +3216,14 @@
       <selection activeCell="B35" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="119.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
-    <col min="3" max="3" width="38.109375" customWidth="1"/>
+    <col min="1" max="1" width="119.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.90625" customWidth="1"/>
+    <col min="3" max="3" width="38.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3217,7 +3234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3228,18 +3245,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="232.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="232.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3250,7 +3267,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -3269,13 +3286,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
-    <col min="2" max="2" width="63.77734375" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="63.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -3283,7 +3300,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45555</v>
       </c>
@@ -3291,7 +3308,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45568</v>
       </c>
@@ -3299,7 +3316,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45572</v>
       </c>
@@ -3307,7 +3324,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45573</v>
       </c>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CC72AC-DAF8-4FC9-9DE0-15FA476DAEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24944DF-BB3A-4A62-923C-ABA19822758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="186">
   <si>
     <t>Day</t>
   </si>
@@ -593,6 +593,12 @@
   </si>
   <si>
     <t>again due to modification of SL I regret a big loss even though I knew market will go down again trading is not about knowing but controlling your psycology</t>
+  </si>
+  <si>
+    <t>traded using OI data and got good result</t>
+  </si>
+  <si>
+    <t>traded using OI data but not sure about market trend so exited early</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E59" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2221,6 +2227,48 @@
       </c>
       <c r="E67" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B68">
+        <v>597</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B69">
+        <v>600</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B70">
+        <v>370</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24944DF-BB3A-4A62-923C-ABA19822758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084F95A6-494B-47D2-8ABC-A6DD9E2ABB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="188">
   <si>
     <t>Day</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>traded using OI data but not sure about market trend so exited early</t>
+  </si>
+  <si>
+    <t>traded seeing market trend</t>
+  </si>
+  <si>
+    <t>The first trade was not good as I saw some opp so entere but second trade was perfect</t>
   </si>
 </sst>
 </file>
@@ -1061,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2269,6 +2275,34 @@
       </c>
       <c r="E70" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B71">
+        <v>621</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B72">
+        <v>292</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084F95A6-494B-47D2-8ABC-A6DD9E2ABB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A193A428-3AF2-4BB2-AE03-0158E7E84127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="190">
   <si>
     <t>Day</t>
   </si>
@@ -605,6 +605,12 @@
   </si>
   <si>
     <t>The first trade was not good as I saw some opp so entere but second trade was perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from Today onwards try to be little bit patience as you may get good profit if wait at least 1:3 </t>
+  </si>
+  <si>
+    <t>I got good profit but I stayed for bigger reward that's good approach but market seems abit down as per OI</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2303,6 +2309,34 @@
       </c>
       <c r="E72" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B73">
+        <v>482</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>45652</v>
+      </c>
+      <c r="C74">
+        <v>791</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A193A428-3AF2-4BB2-AE03-0158E7E84127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9EF601-8BC6-43AA-8917-3C714EC2B1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,7 +610,7 @@
     <t xml:space="preserve">from Today onwards try to be little bit patience as you may get good profit if wait at least 1:3 </t>
   </si>
   <si>
-    <t>I got good profit but I stayed for bigger reward that's good approach but market seems abit down as per OI</t>
+    <t>I got good profit but I stayed for bigger reward that's good approach but market seems abit down as per OI/// from roday onwards always trade second trade after at least soemtime//again discipline discipline and discipline biken no more than 2 trade bear in mind</t>
   </si>
 </sst>
 </file>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="E57" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2330,10 +2330,10 @@
         <v>45652</v>
       </c>
       <c r="C74">
-        <v>791</v>
+        <v>1200</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74" t="s">
         <v>189</v>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9EF601-8BC6-43AA-8917-3C714EC2B1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0270468-4564-4F6E-A328-ED41BE09551D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="191">
   <si>
     <t>Day</t>
   </si>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>I got good profit but I stayed for bigger reward that's good approach but market seems abit down as per OI/// from roday onwards always trade second trade after at least soemtime//again discipline discipline and discipline biken no more than 2 trade bear in mind</t>
+  </si>
+  <si>
+    <t>I didn't notice the change in log size so booked loss again always try to trade second trade after 12 PM keep in mind</t>
   </si>
 </sst>
 </file>
@@ -1073,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E57" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1085,7 +1088,7 @@
     <col min="2" max="2" width="19.81640625" customWidth="1"/>
     <col min="3" max="3" width="16.36328125" customWidth="1"/>
     <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="194.453125" customWidth="1"/>
+    <col min="5" max="5" width="223.6328125" customWidth="1"/>
     <col min="6" max="6" width="133.453125" customWidth="1"/>
     <col min="7" max="7" width="23.54296875" customWidth="1"/>
   </cols>
@@ -2337,6 +2340,20 @@
       </c>
       <c r="E74" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>45653</v>
+      </c>
+      <c r="C75">
+        <v>1600</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0270468-4564-4F6E-A328-ED41BE09551D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F9D963-74F9-4D41-AA77-C51BF733971C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="learnings" sheetId="2" r:id="rId3"/>
     <sheet name="market_psyco" sheetId="6" r:id="rId4"/>
     <sheet name="Technicals_learning" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
+    <sheet name="index tracking" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="194">
   <si>
     <t>Day</t>
   </si>
@@ -613,7 +613,16 @@
     <t>I got good profit but I stayed for bigger reward that's good approach but market seems abit down as per OI/// from roday onwards always trade second trade after at least soemtime//again discipline discipline and discipline biken no more than 2 trade bear in mind</t>
   </si>
   <si>
-    <t>I didn't notice the change in log size so booked loss again always try to trade second trade after 12 PM keep in mind</t>
+    <t>I didn't notice the change in lot size so booked loss again always try to trade second trade after 12 PM keep in mind so that you will know market trend if early trade goes against your process</t>
+  </si>
+  <si>
+    <t>In Trading risk management is the biggest and biggest capital and learning ever you will know till the end career so never ever forget</t>
+  </si>
+  <si>
+    <t>market was in a compressed zone so day after it there was a breakout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">market was In a bit breakout in the morning session but again was consolidating in day time no move/wait and watch for next day </t>
   </si>
 </sst>
 </file>
@@ -1076,19 +1085,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="E73" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.1796875" customWidth="1"/>
     <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="223.6328125" customWidth="1"/>
+    <col min="5" max="5" width="223.54296875" customWidth="1"/>
     <col min="6" max="6" width="133.453125" customWidth="1"/>
     <col min="7" max="7" width="23.54296875" customWidth="1"/>
   </cols>
@@ -2354,6 +2363,11 @@
       </c>
       <c r="E75" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E76" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2372,11 +2386,11 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="146.54296875" customWidth="1"/>
-    <col min="2" max="2" width="40.08984375" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" customWidth="1"/>
     <col min="3" max="3" width="79.1796875" customWidth="1"/>
     <col min="4" max="4" width="65.1796875" customWidth="1"/>
     <col min="5" max="5" width="156.453125" customWidth="1"/>
-    <col min="6" max="6" width="64.6328125" customWidth="1"/>
+    <col min="6" max="6" width="64.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3223,7 +3237,7 @@
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="98.81640625" customWidth="1"/>
-    <col min="3" max="3" width="85.90625" customWidth="1"/>
+    <col min="3" max="3" width="85.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -3312,7 +3326,7 @@
     <col min="2" max="2" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -3352,8 +3366,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="119.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.90625" customWidth="1"/>
-    <col min="3" max="3" width="38.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -3378,7 +3392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="232.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="232.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
@@ -3413,16 +3427,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8CB6FB-2336-466F-BD38-F2C1925A24AA}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="63.81640625" customWidth="1"/>
+    <col min="2" max="2" width="108.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -3465,6 +3479,22 @@
         <v>130</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45652</v>
+      </c>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B7" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F9D963-74F9-4D41-AA77-C51BF733971C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30C2077-6DB6-478A-816B-65C7FCE09F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="market_psyco" sheetId="6" r:id="rId4"/>
     <sheet name="Technicals_learning" sheetId="3" r:id="rId5"/>
     <sheet name="index tracking" sheetId="5" r:id="rId6"/>
+    <sheet name="market_sR" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="198">
   <si>
     <t>Day</t>
   </si>
@@ -623,6 +624,18 @@
   </si>
   <si>
     <t xml:space="preserve">market was In a bit breakout in the morning session but again was consolidating in day time no move/wait and watch for next day </t>
+  </si>
+  <si>
+    <t>Day-time frame</t>
+  </si>
+  <si>
+    <t>week-timeframe</t>
+  </si>
+  <si>
+    <t>23600 as per three days support and 23800 as per 1 day support</t>
+  </si>
+  <si>
+    <t>try to hold your trade for at least 1:3 reward and plan accordingly as this time I booked 1:1.8 profit</t>
   </si>
 </sst>
 </file>
@@ -1085,24 +1098,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView topLeftCell="E73" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="223.54296875" customWidth="1"/>
-    <col min="6" max="6" width="133.453125" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="223.5703125" customWidth="1"/>
+    <col min="6" max="6" width="133.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1145,7 +1158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45454</v>
       </c>
@@ -1165,7 +1178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45455</v>
       </c>
@@ -1185,7 +1198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45456</v>
       </c>
@@ -1205,7 +1218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45457</v>
       </c>
@@ -1225,7 +1238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45461</v>
       </c>
@@ -1245,7 +1258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45461</v>
       </c>
@@ -1265,7 +1278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45461</v>
       </c>
@@ -1285,7 +1298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45462</v>
       </c>
@@ -1305,7 +1318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45462</v>
       </c>
@@ -1325,7 +1338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45462</v>
       </c>
@@ -1345,7 +1358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45462</v>
       </c>
@@ -1365,7 +1378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45463</v>
       </c>
@@ -1385,7 +1398,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45463</v>
       </c>
@@ -1405,7 +1418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45463</v>
       </c>
@@ -1425,7 +1438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45469</v>
       </c>
@@ -1445,7 +1458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45470</v>
       </c>
@@ -1465,7 +1478,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45470</v>
       </c>
@@ -1485,7 +1498,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45470</v>
       </c>
@@ -1505,7 +1518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45475</v>
       </c>
@@ -1522,7 +1535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45475</v>
       </c>
@@ -1539,7 +1552,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45476</v>
       </c>
@@ -1559,7 +1572,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45476</v>
       </c>
@@ -1576,7 +1589,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45477</v>
       </c>
@@ -1593,7 +1606,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45488</v>
       </c>
@@ -1613,7 +1626,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45489</v>
       </c>
@@ -1633,7 +1646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45489</v>
       </c>
@@ -1653,7 +1666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45491</v>
       </c>
@@ -1673,7 +1686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45491</v>
       </c>
@@ -1693,7 +1706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45492</v>
       </c>
@@ -1710,7 +1723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45495</v>
       </c>
@@ -1730,7 +1743,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45496</v>
       </c>
@@ -1750,7 +1763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45496</v>
       </c>
@@ -1770,7 +1783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45496</v>
       </c>
@@ -1790,7 +1803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45497</v>
       </c>
@@ -1807,7 +1820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45498</v>
       </c>
@@ -1824,7 +1837,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45499</v>
       </c>
@@ -1838,7 +1851,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45502</v>
       </c>
@@ -1855,7 +1868,7 @@
         <v>0.41041666666666665</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45502</v>
       </c>
@@ -1872,7 +1885,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45503</v>
       </c>
@@ -1886,7 +1899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45503</v>
       </c>
@@ -1900,7 +1913,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45504</v>
       </c>
@@ -1914,7 +1927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -1928,7 +1941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45505</v>
       </c>
@@ -1942,7 +1955,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45506</v>
       </c>
@@ -1956,7 +1969,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45509</v>
       </c>
@@ -1970,7 +1983,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45510</v>
       </c>
@@ -1984,7 +1997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45511</v>
       </c>
@@ -1998,7 +2011,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45512</v>
       </c>
@@ -2012,7 +2025,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45512</v>
       </c>
@@ -2026,7 +2039,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45516</v>
       </c>
@@ -2040,7 +2053,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45517</v>
       </c>
@@ -2054,7 +2067,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45518</v>
       </c>
@@ -2068,7 +2081,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45520</v>
       </c>
@@ -2082,7 +2095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45523</v>
       </c>
@@ -2099,7 +2112,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45621</v>
       </c>
@@ -2110,7 +2123,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45622</v>
       </c>
@@ -2124,7 +2137,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45623</v>
       </c>
@@ -2141,7 +2154,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45628</v>
       </c>
@@ -2155,7 +2168,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45629</v>
       </c>
@@ -2169,7 +2182,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45630</v>
       </c>
@@ -2183,7 +2196,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45631</v>
       </c>
@@ -2197,7 +2210,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45632</v>
       </c>
@@ -2211,7 +2224,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45635</v>
       </c>
@@ -2225,7 +2238,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45636</v>
       </c>
@@ -2239,7 +2252,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45642</v>
       </c>
@@ -2253,7 +2266,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45643</v>
       </c>
@@ -2267,7 +2280,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45644</v>
       </c>
@@ -2281,7 +2294,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45645</v>
       </c>
@@ -2295,7 +2308,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45646</v>
       </c>
@@ -2309,7 +2322,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45649</v>
       </c>
@@ -2323,7 +2336,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45650</v>
       </c>
@@ -2337,7 +2350,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45652</v>
       </c>
@@ -2351,7 +2364,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45653</v>
       </c>
@@ -2365,9 +2378,23 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B77">
+        <v>288</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2379,21 +2406,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A1189A-AAD9-4480-B183-C0C4055E5D27}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="146.54296875" customWidth="1"/>
-    <col min="2" max="2" width="40.1796875" customWidth="1"/>
-    <col min="3" max="3" width="79.1796875" customWidth="1"/>
-    <col min="4" max="4" width="65.1796875" customWidth="1"/>
-    <col min="5" max="5" width="156.453125" customWidth="1"/>
-    <col min="6" max="6" width="64.54296875" customWidth="1"/>
+    <col min="1" max="1" width="146.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" customWidth="1"/>
+    <col min="5" max="5" width="156.42578125" customWidth="1"/>
+    <col min="6" max="6" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2407,7 +2434,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2418,7 +2445,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2429,7 +2456,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -2437,12 +2464,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -2450,7 +2477,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2461,7 +2488,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -2469,12 +2496,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -2482,7 +2509,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2496,7 +2523,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -2507,7 +2534,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -2518,7 +2545,7 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2535,7 +2562,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -2552,7 +2579,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -2569,7 +2596,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -2586,7 +2613,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -2600,7 +2627,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -2614,7 +2641,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>813</v>
       </c>
@@ -2625,7 +2652,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -2639,7 +2666,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -2656,7 +2683,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -2670,7 +2697,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -2684,7 +2711,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -2695,7 +2722,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -2706,7 +2733,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2717,7 +2744,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -2731,7 +2758,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -2745,7 +2772,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>1793</v>
       </c>
@@ -2756,7 +2783,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -2770,7 +2797,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -2784,7 +2811,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -2798,7 +2825,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -2812,7 +2839,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>1046</v>
       </c>
@@ -2820,7 +2847,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -2834,7 +2861,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -2851,7 +2878,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -2865,7 +2892,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -2879,7 +2906,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -2893,7 +2920,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -2907,7 +2934,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -2921,7 +2948,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -2932,7 +2959,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -2943,7 +2970,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -2954,7 +2981,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -2965,7 +2992,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>514</v>
       </c>
@@ -2973,7 +3000,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -2984,7 +3011,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -2998,7 +3025,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -3012,7 +3039,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -3026,7 +3053,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -3037,7 +3064,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -3048,7 +3075,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -3059,7 +3086,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -3070,7 +3097,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -3081,7 +3108,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -3095,7 +3122,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -3112,7 +3139,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -3129,7 +3156,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -3143,7 +3170,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -3154,7 +3181,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -3168,7 +3195,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -3179,7 +3206,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -3190,7 +3217,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>715</v>
       </c>
@@ -3201,7 +3228,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>171</v>
       </c>
@@ -3209,7 +3236,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>250</v>
       </c>
@@ -3233,14 +3260,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="98.81640625" customWidth="1"/>
-    <col min="3" max="3" width="85.81640625" customWidth="1"/>
+    <col min="2" max="2" width="98.85546875" customWidth="1"/>
+    <col min="3" max="3" width="85.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3251,7 +3278,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45462</v>
       </c>
@@ -3259,7 +3286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45463</v>
       </c>
@@ -3267,7 +3294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45470</v>
       </c>
@@ -3275,7 +3302,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45491</v>
       </c>
@@ -3283,7 +3310,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45499</v>
       </c>
@@ -3291,7 +3318,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45502</v>
       </c>
@@ -3299,7 +3326,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45513</v>
       </c>
@@ -3320,13 +3347,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.54296875" customWidth="1"/>
-    <col min="2" max="2" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -3334,17 +3361,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -3363,14 +3390,14 @@
       <selection activeCell="B35" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="119.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" customWidth="1"/>
+    <col min="1" max="1" width="119.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3381,7 +3408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3392,18 +3419,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="232.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="232.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3414,7 +3441,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -3429,17 +3456,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8CB6FB-2336-466F-BD38-F2C1925A24AA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="108.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="108.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -3447,7 +3474,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45555</v>
       </c>
@@ -3455,7 +3482,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45568</v>
       </c>
@@ -3463,7 +3490,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45572</v>
       </c>
@@ -3471,7 +3498,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45573</v>
       </c>
@@ -3479,7 +3506,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45652</v>
       </c>
@@ -3487,12 +3514,46 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45653</v>
       </c>
       <c r="B7" t="s">
         <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53559BB9-016E-4ABB-B04F-8399F5CB9506}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="73.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45654</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30C2077-6DB6-478A-816B-65C7FCE09F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8787FB1-8CF1-4152-B745-D7F215607F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="199">
   <si>
     <t>Day</t>
   </si>
@@ -636,6 +636,9 @@
   </si>
   <si>
     <t>try to hold your trade for at least 1:3 reward and plan accordingly as this time I booked 1:1.8 profit</t>
+  </si>
+  <si>
+    <t>was a perfect trade but due to small SL in second trade I ended up in loss/first trade was good and has given good 1:1 reward as well/one last trade was overtrading meaningless if I could have taken this much risk before I would have gained 100 points ///i promised that i will only trade maximuing two trade or else i will never succeed in trading ever in my life</t>
   </si>
 </sst>
 </file>
@@ -1098,24 +1101,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="E65" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="223.5703125" customWidth="1"/>
-    <col min="6" max="6" width="133.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="255.54296875" customWidth="1"/>
+    <col min="6" max="6" width="133.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45454</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45455</v>
       </c>
@@ -1198,7 +1201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45456</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45457</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45461</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45461</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45461</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45462</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45462</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45462</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45462</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45463</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45463</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45463</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45469</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45470</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45470</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45470</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45475</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45475</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45476</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45476</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45477</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45488</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45489</v>
       </c>
@@ -1646,7 +1649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45489</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45491</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45491</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45492</v>
       </c>
@@ -1723,7 +1726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45495</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45496</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45496</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45496</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45497</v>
       </c>
@@ -1820,7 +1823,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45498</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45499</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45502</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>0.41041666666666665</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45502</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45503</v>
       </c>
@@ -1899,7 +1902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45503</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45504</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45505</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45506</v>
       </c>
@@ -1969,7 +1972,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45509</v>
       </c>
@@ -1983,7 +1986,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45510</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45511</v>
       </c>
@@ -2011,7 +2014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45512</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45512</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45516</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45517</v>
       </c>
@@ -2067,7 +2070,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45518</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45520</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45523</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45621</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45622</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45623</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45628</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45629</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45630</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45631</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45632</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45635</v>
       </c>
@@ -2238,7 +2241,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45636</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45642</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45643</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>45644</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45645</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>45646</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>45649</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>45650</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>45652</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>45653</v>
       </c>
@@ -2378,12 +2381,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>45656</v>
       </c>
@@ -2395,6 +2398,20 @@
       </c>
       <c r="E77" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>45657</v>
+      </c>
+      <c r="C78">
+        <v>1055</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2410,17 +2427,17 @@
       <selection activeCell="A80" sqref="A80:A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="146.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="79.140625" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" customWidth="1"/>
-    <col min="5" max="5" width="156.42578125" customWidth="1"/>
-    <col min="6" max="6" width="64.5703125" customWidth="1"/>
+    <col min="1" max="1" width="146.54296875" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" customWidth="1"/>
+    <col min="3" max="3" width="79.1796875" customWidth="1"/>
+    <col min="4" max="4" width="65.1796875" customWidth="1"/>
+    <col min="5" max="5" width="156.453125" customWidth="1"/>
+    <col min="6" max="6" width="64.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2434,7 +2451,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2445,7 +2462,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2456,7 +2473,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -2464,12 +2481,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -2477,7 +2494,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2488,7 +2505,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -2496,12 +2513,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -2509,7 +2526,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2523,7 +2540,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -2534,7 +2551,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -2545,7 +2562,7 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2562,7 +2579,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -2579,7 +2596,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -2596,7 +2613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -2613,7 +2630,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -2627,7 +2644,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -2641,7 +2658,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>813</v>
       </c>
@@ -2652,7 +2669,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -2666,7 +2683,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -2683,7 +2700,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -2697,7 +2714,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -2711,7 +2728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -2722,7 +2739,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -2733,7 +2750,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2744,7 +2761,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -2758,7 +2775,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -2772,7 +2789,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C31">
         <v>1793</v>
       </c>
@@ -2783,7 +2800,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -2797,7 +2814,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -2811,7 +2828,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -2825,7 +2842,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -2839,7 +2856,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C36">
         <v>1046</v>
       </c>
@@ -2847,7 +2864,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -2861,7 +2878,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -2878,7 +2895,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -2892,7 +2909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -2906,7 +2923,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -2920,7 +2937,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -2934,7 +2951,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -2948,7 +2965,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -2959,7 +2976,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -2970,7 +2987,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -2981,7 +2998,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -2992,7 +3009,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C48">
         <v>514</v>
       </c>
@@ -3000,7 +3017,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -3011,7 +3028,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -3025,7 +3042,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -3039,7 +3056,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -3053,7 +3070,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -3064,7 +3081,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -3075,7 +3092,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -3086,7 +3103,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -3097,7 +3114,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -3108,7 +3125,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -3122,7 +3139,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -3139,7 +3156,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -3156,7 +3173,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -3170,7 +3187,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -3181,7 +3198,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -3195,7 +3212,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -3206,7 +3223,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -3217,7 +3234,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>715</v>
       </c>
@@ -3228,7 +3245,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C67">
         <v>171</v>
       </c>
@@ -3236,7 +3253,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C68">
         <v>250</v>
       </c>
@@ -3260,14 +3277,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="98.85546875" customWidth="1"/>
-    <col min="3" max="3" width="85.85546875" customWidth="1"/>
+    <col min="2" max="2" width="98.81640625" customWidth="1"/>
+    <col min="3" max="3" width="85.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3278,7 +3295,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45462</v>
       </c>
@@ -3286,7 +3303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45463</v>
       </c>
@@ -3294,7 +3311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45470</v>
       </c>
@@ -3302,7 +3319,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45491</v>
       </c>
@@ -3310,7 +3327,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45499</v>
       </c>
@@ -3318,7 +3335,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45502</v>
       </c>
@@ -3326,7 +3343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45513</v>
       </c>
@@ -3347,13 +3364,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.5703125" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="70.54296875" customWidth="1"/>
+    <col min="2" max="2" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -3361,17 +3378,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -3390,14 +3407,14 @@
       <selection activeCell="B35" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="119.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="119.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3408,7 +3425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3419,18 +3436,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="232.35" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="232.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3441,7 +3458,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -3460,13 +3477,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="108.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="108.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -3474,7 +3491,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45555</v>
       </c>
@@ -3482,7 +3499,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45568</v>
       </c>
@@ -3490,7 +3507,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45572</v>
       </c>
@@ -3498,7 +3515,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45573</v>
       </c>
@@ -3506,7 +3523,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45652</v>
       </c>
@@ -3514,7 +3531,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45653</v>
       </c>
@@ -3535,9 +3552,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="73.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="73.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3548,7 +3565,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45654</v>
       </c>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8787FB1-8CF1-4152-B745-D7F215607F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1481DE47-1738-48D8-93C4-36C872925B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="intraday" sheetId="1" r:id="rId1"/>
     <sheet name="swing_strategy" sheetId="4" r:id="rId2"/>
     <sheet name="learnings" sheetId="2" r:id="rId3"/>
     <sheet name="market_psyco" sheetId="6" r:id="rId4"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="200">
   <si>
     <t>Day</t>
   </si>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>was a perfect trade but due to small SL in second trade I ended up in loss/first trade was good and has given good 1:1 reward as well/one last trade was overtrading meaningless if I could have taken this much risk before I would have gained 100 points ///i promised that i will only trade maximuing two trade or else i will never succeed in trading ever in my life</t>
+  </si>
+  <si>
+    <t>This 2024 year is a bad year because of not managing my risk to reward and I should have control in my trading that is maximum 2 trade per day</t>
   </si>
 </sst>
 </file>
@@ -660,12 +663,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -680,10 +689,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,17 +1111,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E65" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="68" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="123.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
     <col min="4" max="4" width="21.81640625" customWidth="1"/>
     <col min="5" max="5" width="255.54296875" customWidth="1"/>
     <col min="6" max="6" width="133.453125" customWidth="1"/>
@@ -2412,6 +2422,11 @@
       </c>
       <c r="E78" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2423,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A1189A-AAD9-4480-B183-C0C4055E5D27}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:A82"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1481DE47-1738-48D8-93C4-36C872925B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E0B6C5-C5A4-41FA-9143-A0712AA51235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="201">
   <si>
     <t>Day</t>
   </si>
@@ -642,6 +642,9 @@
   </si>
   <si>
     <t>This 2024 year is a bad year because of not managing my risk to reward and I should have control in my trading that is maximum 2 trade per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I saw clear down pattern today so I have booked 1.3 today </t>
   </si>
 </sst>
 </file>
@@ -1111,24 +1114,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="C66" zoomScale="68" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="2" width="123.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="255.54296875" customWidth="1"/>
-    <col min="6" max="6" width="133.453125" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="123.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="255.5703125" customWidth="1"/>
+    <col min="6" max="6" width="133.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45454</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45455</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45456</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45457</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45461</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45461</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45461</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45462</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45462</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45462</v>
       </c>
@@ -1371,7 +1374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45462</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45463</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45463</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45463</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45469</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45470</v>
       </c>
@@ -1491,7 +1494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45470</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45470</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45475</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45475</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45476</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45476</v>
       </c>
@@ -1602,7 +1605,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45477</v>
       </c>
@@ -1619,7 +1622,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45488</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45489</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45489</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45491</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45491</v>
       </c>
@@ -1719,7 +1722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45492</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45495</v>
       </c>
@@ -1756,7 +1759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45496</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45496</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45496</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45497</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45498</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45499</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45502</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>0.41041666666666665</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45502</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45503</v>
       </c>
@@ -1912,7 +1915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45503</v>
       </c>
@@ -1926,7 +1929,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45504</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -1954,7 +1957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45505</v>
       </c>
@@ -1968,7 +1971,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45506</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45509</v>
       </c>
@@ -1996,7 +1999,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45510</v>
       </c>
@@ -2010,7 +2013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45511</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45512</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45512</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45516</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45517</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45518</v>
       </c>
@@ -2094,7 +2097,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45520</v>
       </c>
@@ -2108,7 +2111,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45523</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45621</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45622</v>
       </c>
@@ -2150,7 +2153,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45623</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45628</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45629</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45630</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45631</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45632</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45635</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45636</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45642</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45643</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45644</v>
       </c>
@@ -2307,7 +2310,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45645</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45646</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45649</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45650</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45652</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45653</v>
       </c>
@@ -2391,12 +2394,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45656</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45657</v>
       </c>
@@ -2424,9 +2427,23 @@
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B80">
+        <v>844</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2442,17 +2459,17 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="146.54296875" customWidth="1"/>
-    <col min="2" max="2" width="40.1796875" customWidth="1"/>
-    <col min="3" max="3" width="79.1796875" customWidth="1"/>
-    <col min="4" max="4" width="65.1796875" customWidth="1"/>
-    <col min="5" max="5" width="156.453125" customWidth="1"/>
-    <col min="6" max="6" width="64.54296875" customWidth="1"/>
+    <col min="1" max="1" width="146.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" customWidth="1"/>
+    <col min="5" max="5" width="156.42578125" customWidth="1"/>
+    <col min="6" max="6" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2466,7 +2483,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2477,7 +2494,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2488,7 +2505,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -2496,12 +2513,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -2509,7 +2526,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2520,7 +2537,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -2528,12 +2545,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -2541,7 +2558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2555,7 +2572,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -2566,7 +2583,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -2577,7 +2594,7 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2594,7 +2611,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -2611,7 +2628,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -2628,7 +2645,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -2645,7 +2662,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -2659,7 +2676,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -2673,7 +2690,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>813</v>
       </c>
@@ -2684,7 +2701,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -2698,7 +2715,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -2715,7 +2732,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -2729,7 +2746,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -2743,7 +2760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -2754,7 +2771,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -2765,7 +2782,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2776,7 +2793,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -2790,7 +2807,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -2804,7 +2821,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>1793</v>
       </c>
@@ -2815,7 +2832,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -2829,7 +2846,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -2843,7 +2860,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -2857,7 +2874,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -2871,7 +2888,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>1046</v>
       </c>
@@ -2879,7 +2896,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -2893,7 +2910,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -2910,7 +2927,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -2924,7 +2941,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -2938,7 +2955,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -2952,7 +2969,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -2966,7 +2983,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -2980,7 +2997,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -2991,7 +3008,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -3002,7 +3019,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -3013,7 +3030,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -3024,7 +3041,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>514</v>
       </c>
@@ -3032,7 +3049,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -3043,7 +3060,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -3057,7 +3074,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -3071,7 +3088,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -3085,7 +3102,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -3096,7 +3113,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -3107,7 +3124,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -3118,7 +3135,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -3129,7 +3146,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -3140,7 +3157,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -3154,7 +3171,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -3171,7 +3188,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -3188,7 +3205,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -3202,7 +3219,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -3213,7 +3230,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -3227,7 +3244,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -3238,7 +3255,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -3249,7 +3266,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>715</v>
       </c>
@@ -3260,7 +3277,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>171</v>
       </c>
@@ -3268,7 +3285,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>250</v>
       </c>
@@ -3292,14 +3309,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="98.81640625" customWidth="1"/>
-    <col min="3" max="3" width="85.81640625" customWidth="1"/>
+    <col min="2" max="2" width="98.85546875" customWidth="1"/>
+    <col min="3" max="3" width="85.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3310,7 +3327,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45462</v>
       </c>
@@ -3318,7 +3335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45463</v>
       </c>
@@ -3326,7 +3343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45470</v>
       </c>
@@ -3334,7 +3351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45491</v>
       </c>
@@ -3342,7 +3359,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45499</v>
       </c>
@@ -3350,7 +3367,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45502</v>
       </c>
@@ -3358,7 +3375,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45513</v>
       </c>
@@ -3379,13 +3396,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.54296875" customWidth="1"/>
-    <col min="2" max="2" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -3393,17 +3410,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -3422,14 +3439,14 @@
       <selection activeCell="B35" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="119.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" customWidth="1"/>
+    <col min="1" max="1" width="119.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3440,7 +3457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3451,18 +3468,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="232.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="232.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3473,7 +3490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -3492,13 +3509,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="108.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="108.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -3506,7 +3523,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45555</v>
       </c>
@@ -3514,7 +3531,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45568</v>
       </c>
@@ -3522,7 +3539,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45572</v>
       </c>
@@ -3530,7 +3547,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45573</v>
       </c>
@@ -3538,7 +3555,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45652</v>
       </c>
@@ -3546,7 +3563,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45653</v>
       </c>
@@ -3567,9 +3584,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="73.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="73.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3580,7 +3597,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45654</v>
       </c>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E0B6C5-C5A4-41FA-9143-A0712AA51235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669DBB8F-011F-4AD7-9EA2-ACABF7A9A454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="202">
   <si>
     <t>Day</t>
   </si>
@@ -645,6 +645,9 @@
   </si>
   <si>
     <t xml:space="preserve">I saw clear down pattern today so I have booked 1.3 today </t>
+  </si>
+  <si>
+    <t>I missed a big target because of lunch time so made entry in 1st trade booked loss and again I made 2nd entry but this time I knew market won't go up so perfect entry so always be patience</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C66" zoomScale="68" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,6 +2447,23 @@
       </c>
       <c r="E80" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B81">
+        <v>510</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669DBB8F-011F-4AD7-9EA2-ACABF7A9A454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA5C8AF-2553-458D-B4D2-316AA9C6CB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="219">
   <si>
     <t>Day</t>
   </si>
@@ -647,7 +647,58 @@
     <t xml:space="preserve">I saw clear down pattern today so I have booked 1.3 today </t>
   </si>
   <si>
-    <t>I missed a big target because of lunch time so made entry in 1st trade booked loss and again I made 2nd entry but this time I knew market won't go up so perfect entry so always be patience</t>
+    <t>I missed a big target because of lunch time so made entry in 1st trade booked loss and again I made 2nd entry but this time I knew market won't go up so perfect entry so always be patience/if I would have waited today I would have made 18k plus profit in single lot</t>
+  </si>
+  <si>
+    <t>don't trade emotionally Man always plot some resistance and support/// always wait for trade  I knew there was down trade but my entry was abit fast</t>
+  </si>
+  <si>
+    <t>Because of groww SL mistake I booked abit big loss today and market seems not in my favour/// Market tried to move up but there were three candles in 5 min frame where they didn't break that so my entry should be threre</t>
+  </si>
+  <si>
+    <t>I broke my rule that is if I would have been patinece then it would be good/ learn to be patience always in trading and wait for the setup to break</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Two Trade from 01/09/2025 for at least 6months and see the performance// and I will follow my rule and I will earn as well</t>
+  </si>
+  <si>
+    <t>first trade was an emotional trade and second trade was perfect and I booked 47 poiunt which was good  but always track your trade don’t panic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after taking a trade always try to engage with trade not with fear </t>
+  </si>
+  <si>
+    <t>first rade was ok if that was good I would have booked good profit but second trade was based on other opinion try to lean and earn in market</t>
+  </si>
+  <si>
+    <t>I prmosed that I will trade only 1 and 1 but one in morning and one in eveing after knowing market trend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never ever be in hurry to take trade as per your thinking alwasys wait for setup and support and resistence to break </t>
+  </si>
+  <si>
+    <t xml:space="preserve">market opened gap down and it moved abit up and again fell down later </t>
+  </si>
+  <si>
+    <t xml:space="preserve">market opened gap up and moved abit up and down again </t>
+  </si>
+  <si>
+    <t>it was perfect setup as per my thinking</t>
+  </si>
+  <si>
+    <t>both trade were against my trade so entry was ok but market didn't move as per my logic///but again the previous logic which I marked worked perfectly but I didn’t trade // always my last trade goes well so I need to wait again  but learn to wait abit more seeing the price action</t>
+  </si>
+  <si>
+    <t>I placed SL perfectly but I always missed to book big profit so try to hold trade abit longer                                                    165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maket opengap up and went abit up and moved down again </t>
+  </si>
+  <si>
+    <t xml:space="preserve">market open gap up and went abit up and moved down again </t>
+  </si>
+  <si>
+    <t>patience is the key and level of support and resistence is also important</t>
   </si>
 </sst>
 </file>
@@ -669,7 +720,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,6 +730,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,11 +764,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1117,24 +1189,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="68" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="123.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="255.5703125" customWidth="1"/>
-    <col min="6" max="6" width="133.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="123.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="255.54296875" customWidth="1"/>
+    <col min="6" max="6" width="133.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1177,7 +1249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45454</v>
       </c>
@@ -1197,7 +1269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45455</v>
       </c>
@@ -1217,7 +1289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45456</v>
       </c>
@@ -1237,7 +1309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45457</v>
       </c>
@@ -1257,7 +1329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45461</v>
       </c>
@@ -1277,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45461</v>
       </c>
@@ -1297,7 +1369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45461</v>
       </c>
@@ -1317,7 +1389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45462</v>
       </c>
@@ -1337,7 +1409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45462</v>
       </c>
@@ -1357,7 +1429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45462</v>
       </c>
@@ -1377,7 +1449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45462</v>
       </c>
@@ -1397,7 +1469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45463</v>
       </c>
@@ -1417,7 +1489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45463</v>
       </c>
@@ -1437,7 +1509,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45463</v>
       </c>
@@ -1457,7 +1529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45469</v>
       </c>
@@ -1477,7 +1549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45470</v>
       </c>
@@ -1497,7 +1569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45470</v>
       </c>
@@ -1517,7 +1589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45470</v>
       </c>
@@ -1537,7 +1609,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45475</v>
       </c>
@@ -1554,7 +1626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45475</v>
       </c>
@@ -1571,7 +1643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45476</v>
       </c>
@@ -1591,7 +1663,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45476</v>
       </c>
@@ -1608,7 +1680,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45477</v>
       </c>
@@ -1625,7 +1697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45488</v>
       </c>
@@ -1645,7 +1717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45489</v>
       </c>
@@ -1665,7 +1737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45489</v>
       </c>
@@ -1685,7 +1757,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45491</v>
       </c>
@@ -1705,7 +1777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45491</v>
       </c>
@@ -1725,7 +1797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45492</v>
       </c>
@@ -1742,7 +1814,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45495</v>
       </c>
@@ -1762,7 +1834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45496</v>
       </c>
@@ -1782,7 +1854,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45496</v>
       </c>
@@ -1802,7 +1874,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45496</v>
       </c>
@@ -1822,7 +1894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45497</v>
       </c>
@@ -1839,7 +1911,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45498</v>
       </c>
@@ -1856,7 +1928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45499</v>
       </c>
@@ -1870,7 +1942,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45502</v>
       </c>
@@ -1887,7 +1959,7 @@
         <v>0.41041666666666665</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45502</v>
       </c>
@@ -1904,7 +1976,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45503</v>
       </c>
@@ -1918,7 +1990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45503</v>
       </c>
@@ -1932,7 +2004,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45504</v>
       </c>
@@ -1946,7 +2018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -1960,7 +2032,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45505</v>
       </c>
@@ -1974,7 +2046,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45506</v>
       </c>
@@ -1988,7 +2060,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45509</v>
       </c>
@@ -2002,7 +2074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45510</v>
       </c>
@@ -2016,7 +2088,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45511</v>
       </c>
@@ -2030,7 +2102,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45512</v>
       </c>
@@ -2044,7 +2116,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45512</v>
       </c>
@@ -2058,7 +2130,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45516</v>
       </c>
@@ -2072,7 +2144,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45517</v>
       </c>
@@ -2086,7 +2158,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45518</v>
       </c>
@@ -2100,7 +2172,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45520</v>
       </c>
@@ -2114,7 +2186,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45523</v>
       </c>
@@ -2131,7 +2203,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45621</v>
       </c>
@@ -2142,7 +2214,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45622</v>
       </c>
@@ -2156,7 +2228,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45623</v>
       </c>
@@ -2173,7 +2245,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45628</v>
       </c>
@@ -2187,7 +2259,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45629</v>
       </c>
@@ -2201,7 +2273,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45630</v>
       </c>
@@ -2215,7 +2287,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45631</v>
       </c>
@@ -2229,7 +2301,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45632</v>
       </c>
@@ -2243,7 +2315,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45635</v>
       </c>
@@ -2257,7 +2329,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45636</v>
       </c>
@@ -2271,7 +2343,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45642</v>
       </c>
@@ -2285,7 +2357,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45643</v>
       </c>
@@ -2299,7 +2371,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>45644</v>
       </c>
@@ -2313,7 +2385,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45645</v>
       </c>
@@ -2327,7 +2399,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>45646</v>
       </c>
@@ -2341,7 +2413,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>45649</v>
       </c>
@@ -2355,7 +2427,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>45650</v>
       </c>
@@ -2369,7 +2441,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>45652</v>
       </c>
@@ -2383,7 +2455,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>45653</v>
       </c>
@@ -2397,12 +2469,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>45656</v>
       </c>
@@ -2416,7 +2488,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>45657</v>
       </c>
@@ -2430,12 +2502,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>45658</v>
       </c>
@@ -2449,7 +2521,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>45663</v>
       </c>
@@ -2464,6 +2536,140 @@
       </c>
       <c r="E81" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B82">
+        <v>1317</v>
+      </c>
+      <c r="C82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>45665</v>
+      </c>
+      <c r="C83">
+        <v>1365</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>45666</v>
+      </c>
+      <c r="C84">
+        <v>1438</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B87">
+        <v>556</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+      <c r="C88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B89" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E89" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B90">
+        <v>814</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>1262</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2479,17 +2685,17 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="146.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="79.140625" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" customWidth="1"/>
-    <col min="5" max="5" width="156.42578125" customWidth="1"/>
-    <col min="6" max="6" width="64.5703125" customWidth="1"/>
+    <col min="1" max="1" width="146.54296875" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" customWidth="1"/>
+    <col min="3" max="3" width="79.1796875" customWidth="1"/>
+    <col min="4" max="4" width="65.1796875" customWidth="1"/>
+    <col min="5" max="5" width="156.453125" customWidth="1"/>
+    <col min="6" max="6" width="64.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2503,7 +2709,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2514,7 +2720,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2525,7 +2731,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -2533,12 +2739,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -2546,7 +2752,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2557,7 +2763,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -2565,12 +2771,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -2578,7 +2784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2592,7 +2798,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -2603,7 +2809,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -2614,7 +2820,7 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2631,7 +2837,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -2648,7 +2854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -2665,7 +2871,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -2682,7 +2888,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -2696,7 +2902,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -2710,7 +2916,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>813</v>
       </c>
@@ -2721,7 +2927,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -2735,7 +2941,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -2752,7 +2958,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -2766,7 +2972,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -2780,7 +2986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -2791,7 +2997,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -2802,7 +3008,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2813,7 +3019,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -2827,7 +3033,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -2841,7 +3047,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C31">
         <v>1793</v>
       </c>
@@ -2852,7 +3058,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -2866,7 +3072,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -2880,7 +3086,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -2894,7 +3100,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -2908,7 +3114,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C36">
         <v>1046</v>
       </c>
@@ -2916,7 +3122,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -2930,7 +3136,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -2947,7 +3153,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -2961,7 +3167,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -2975,7 +3181,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -2989,7 +3195,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -3003,7 +3209,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -3017,7 +3223,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -3028,7 +3234,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -3039,7 +3245,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -3050,7 +3256,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -3061,7 +3267,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C48">
         <v>514</v>
       </c>
@@ -3069,7 +3275,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -3080,7 +3286,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -3094,7 +3300,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -3108,7 +3314,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -3122,7 +3328,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -3133,7 +3339,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -3144,7 +3350,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -3155,7 +3361,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -3166,7 +3372,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -3177,7 +3383,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -3191,7 +3397,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -3208,7 +3414,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -3225,7 +3431,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -3239,7 +3445,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -3250,7 +3456,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -3264,7 +3470,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -3275,7 +3481,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -3286,7 +3492,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>715</v>
       </c>
@@ -3297,7 +3503,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C67">
         <v>171</v>
       </c>
@@ -3305,7 +3511,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C68">
         <v>250</v>
       </c>
@@ -3323,20 +3529,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF633CDF-D15F-4F5C-A64D-BD056690D8FA}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="98.85546875" customWidth="1"/>
-    <col min="3" max="3" width="85.85546875" customWidth="1"/>
+    <col min="2" max="2" width="98.81640625" customWidth="1"/>
+    <col min="3" max="3" width="85.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3347,7 +3553,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45462</v>
       </c>
@@ -3355,7 +3561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45463</v>
       </c>
@@ -3363,7 +3569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45470</v>
       </c>
@@ -3371,7 +3577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45491</v>
       </c>
@@ -3379,7 +3585,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45499</v>
       </c>
@@ -3387,7 +3593,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45502</v>
       </c>
@@ -3395,12 +3601,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45513</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B9" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3416,13 +3630,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.5703125" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="70.54296875" customWidth="1"/>
+    <col min="2" max="2" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -3430,17 +3644,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -3459,14 +3673,14 @@
       <selection activeCell="B35" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="119.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="119.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3477,7 +3691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3488,18 +3702,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="232.35" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="232.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3510,7 +3724,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -3529,13 +3743,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="108.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="108.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -3543,7 +3757,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45555</v>
       </c>
@@ -3551,7 +3765,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45568</v>
       </c>
@@ -3559,7 +3773,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45572</v>
       </c>
@@ -3567,7 +3781,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45573</v>
       </c>
@@ -3575,7 +3789,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45652</v>
       </c>
@@ -3583,7 +3797,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45653</v>
       </c>
@@ -3598,15 +3812,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53559BB9-016E-4ABB-B04F-8399F5CB9506}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="73.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="73.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3617,12 +3831,44 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45654</v>
       </c>
       <c r="B2" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA5C8AF-2553-458D-B4D2-316AA9C6CB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2443BDE6-C046-418F-96D3-8A9B33407EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="228">
   <si>
     <t>Day</t>
   </si>
@@ -629,9 +629,6 @@
     <t>Day-time frame</t>
   </si>
   <si>
-    <t>week-timeframe</t>
-  </si>
-  <si>
     <t>23600 as per three days support and 23800 as per 1 day support</t>
   </si>
   <si>
@@ -699,6 +696,36 @@
   </si>
   <si>
     <t>patience is the key and level of support and resistence is also important</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patience is the key and level of support and resistence is also important/always mark market support and resistence well ahead of market </t>
+  </si>
+  <si>
+    <t>market open gap down and went abit up and went down again</t>
+  </si>
+  <si>
+    <t>future support and resistent</t>
+  </si>
+  <si>
+    <t>20/01/2025</t>
+  </si>
+  <si>
+    <t>Nifty</t>
+  </si>
+  <si>
+    <t>sensex</t>
+  </si>
+  <si>
+    <t>BankNifty</t>
+  </si>
+  <si>
+    <t>if you see this end patter keep in mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you will feel guilty after two trade so don't rade after 2 trade  this is life time lesson and learn to wait </t>
+  </si>
+  <si>
+    <t>first trade was base on some trigger which I place wrongly and second trade is based on price action but still trade was good but I waited for big move I did recovered from loss but decided to hold the trade and the last two trade were emotional trade fuck you bkn</t>
   </si>
 </sst>
 </file>
@@ -720,7 +747,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,6 +778,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -764,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -772,6 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,6 +824,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4096322</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCF10AD-78DA-FDFB-BC90-B3B6694B3903}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="3238500"/>
+          <a:ext cx="4096322" cy="2057687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1189,24 +1272,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="68" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="2" width="123.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="255.54296875" customWidth="1"/>
-    <col min="6" max="6" width="133.453125" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="123.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="255.5703125" customWidth="1"/>
+    <col min="6" max="6" width="133.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1249,7 +1332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45454</v>
       </c>
@@ -1269,7 +1352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45455</v>
       </c>
@@ -1289,7 +1372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45456</v>
       </c>
@@ -1309,7 +1392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45457</v>
       </c>
@@ -1329,7 +1412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45461</v>
       </c>
@@ -1349,7 +1432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45461</v>
       </c>
@@ -1369,7 +1452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45461</v>
       </c>
@@ -1389,7 +1472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45462</v>
       </c>
@@ -1409,7 +1492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45462</v>
       </c>
@@ -1429,7 +1512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45462</v>
       </c>
@@ -1449,7 +1532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45462</v>
       </c>
@@ -1469,7 +1552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45463</v>
       </c>
@@ -1489,7 +1572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45463</v>
       </c>
@@ -1509,7 +1592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45463</v>
       </c>
@@ -1529,7 +1612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45469</v>
       </c>
@@ -1549,7 +1632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45470</v>
       </c>
@@ -1569,7 +1652,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45470</v>
       </c>
@@ -1589,7 +1672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45470</v>
       </c>
@@ -1609,7 +1692,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45475</v>
       </c>
@@ -1626,7 +1709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45475</v>
       </c>
@@ -1643,7 +1726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45476</v>
       </c>
@@ -1663,7 +1746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45476</v>
       </c>
@@ -1680,7 +1763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45477</v>
       </c>
@@ -1697,7 +1780,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45488</v>
       </c>
@@ -1717,7 +1800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45489</v>
       </c>
@@ -1737,7 +1820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45489</v>
       </c>
@@ -1757,7 +1840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45491</v>
       </c>
@@ -1777,7 +1860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45491</v>
       </c>
@@ -1797,7 +1880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45492</v>
       </c>
@@ -1814,7 +1897,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45495</v>
       </c>
@@ -1834,7 +1917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45496</v>
       </c>
@@ -1854,7 +1937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45496</v>
       </c>
@@ -1874,7 +1957,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45496</v>
       </c>
@@ -1894,7 +1977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45497</v>
       </c>
@@ -1911,7 +1994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45498</v>
       </c>
@@ -1928,7 +2011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45499</v>
       </c>
@@ -1942,7 +2025,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45502</v>
       </c>
@@ -1959,7 +2042,7 @@
         <v>0.41041666666666665</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45502</v>
       </c>
@@ -1976,7 +2059,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45503</v>
       </c>
@@ -1990,7 +2073,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45503</v>
       </c>
@@ -2004,7 +2087,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45504</v>
       </c>
@@ -2018,7 +2101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -2032,7 +2115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45505</v>
       </c>
@@ -2046,7 +2129,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45506</v>
       </c>
@@ -2060,7 +2143,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45509</v>
       </c>
@@ -2074,7 +2157,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45510</v>
       </c>
@@ -2088,7 +2171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45511</v>
       </c>
@@ -2102,7 +2185,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45512</v>
       </c>
@@ -2116,7 +2199,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45512</v>
       </c>
@@ -2130,7 +2213,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45516</v>
       </c>
@@ -2144,7 +2227,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45517</v>
       </c>
@@ -2158,7 +2241,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45518</v>
       </c>
@@ -2172,7 +2255,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45520</v>
       </c>
@@ -2186,7 +2269,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45523</v>
       </c>
@@ -2203,7 +2286,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45621</v>
       </c>
@@ -2214,7 +2297,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45622</v>
       </c>
@@ -2228,7 +2311,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45623</v>
       </c>
@@ -2245,7 +2328,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45628</v>
       </c>
@@ -2259,7 +2342,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45629</v>
       </c>
@@ -2273,7 +2356,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45630</v>
       </c>
@@ -2287,7 +2370,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45631</v>
       </c>
@@ -2301,7 +2384,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45632</v>
       </c>
@@ -2315,7 +2398,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45635</v>
       </c>
@@ -2329,7 +2412,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45636</v>
       </c>
@@ -2343,7 +2426,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45642</v>
       </c>
@@ -2357,7 +2440,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45643</v>
       </c>
@@ -2371,7 +2454,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45644</v>
       </c>
@@ -2385,7 +2468,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45645</v>
       </c>
@@ -2399,7 +2482,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45646</v>
       </c>
@@ -2413,7 +2496,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45649</v>
       </c>
@@ -2427,7 +2510,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45650</v>
       </c>
@@ -2441,7 +2524,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45652</v>
       </c>
@@ -2455,7 +2538,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45653</v>
       </c>
@@ -2469,12 +2552,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45656</v>
       </c>
@@ -2485,10 +2568,10 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45657</v>
       </c>
@@ -2499,15 +2582,15 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45658</v>
       </c>
@@ -2518,10 +2601,10 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45663</v>
       </c>
@@ -2535,10 +2618,10 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45664</v>
       </c>
@@ -2552,10 +2635,10 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45665</v>
       </c>
@@ -2566,10 +2649,10 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45666</v>
       </c>
@@ -2580,18 +2663,18 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45667</v>
       </c>
@@ -2602,10 +2685,10 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45670</v>
       </c>
@@ -2619,18 +2702,18 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B89" s="5" t="s">
+      <c r="E89" t="s">
         <v>209</v>
       </c>
-      <c r="E89" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45671</v>
       </c>
@@ -2641,15 +2724,15 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45672</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C91" t="s">
         <v>57</v>
@@ -2658,10 +2741,10 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>1262</v>
       </c>
@@ -2669,7 +2752,40 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B93">
+        <v>667</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C94">
+        <v>1239</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2685,17 +2801,17 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="146.54296875" customWidth="1"/>
-    <col min="2" max="2" width="40.1796875" customWidth="1"/>
-    <col min="3" max="3" width="79.1796875" customWidth="1"/>
-    <col min="4" max="4" width="65.1796875" customWidth="1"/>
-    <col min="5" max="5" width="156.453125" customWidth="1"/>
-    <col min="6" max="6" width="64.54296875" customWidth="1"/>
+    <col min="1" max="1" width="146.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" customWidth="1"/>
+    <col min="5" max="5" width="156.42578125" customWidth="1"/>
+    <col min="6" max="6" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2709,7 +2825,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2720,7 +2836,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2731,7 +2847,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -2739,12 +2855,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -2752,7 +2868,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2763,7 +2879,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -2771,12 +2887,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -2784,7 +2900,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2798,7 +2914,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -2809,7 +2925,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -2820,7 +2936,7 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2837,7 +2953,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -2854,7 +2970,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -2871,7 +2987,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -2888,7 +3004,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -2902,7 +3018,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -2916,7 +3032,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>813</v>
       </c>
@@ -2927,7 +3043,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -2941,7 +3057,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -2958,7 +3074,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -2972,7 +3088,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -2986,7 +3102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -2997,7 +3113,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -3008,7 +3124,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -3019,7 +3135,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -3033,7 +3149,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -3047,7 +3163,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>1793</v>
       </c>
@@ -3058,7 +3174,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -3072,7 +3188,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -3086,7 +3202,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -3100,7 +3216,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -3114,7 +3230,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>1046</v>
       </c>
@@ -3122,7 +3238,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -3136,7 +3252,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -3153,7 +3269,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -3167,7 +3283,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -3181,7 +3297,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -3195,7 +3311,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -3209,7 +3325,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -3223,7 +3339,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -3234,7 +3350,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -3245,7 +3361,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -3256,7 +3372,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -3267,7 +3383,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>514</v>
       </c>
@@ -3275,7 +3391,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -3286,7 +3402,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -3300,7 +3416,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -3314,7 +3430,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -3328,7 +3444,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -3339,7 +3455,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -3350,7 +3466,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -3361,7 +3477,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -3372,7 +3488,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -3383,7 +3499,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -3397,7 +3513,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -3414,7 +3530,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -3431,7 +3547,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -3445,7 +3561,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -3456,7 +3572,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -3470,7 +3586,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -3481,7 +3597,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -3492,7 +3608,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>715</v>
       </c>
@@ -3503,7 +3619,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>171</v>
       </c>
@@ -3511,7 +3627,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>250</v>
       </c>
@@ -3529,20 +3645,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF633CDF-D15F-4F5C-A64D-BD056690D8FA}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="98.81640625" customWidth="1"/>
-    <col min="3" max="3" width="85.81640625" customWidth="1"/>
+    <col min="2" max="2" width="98.85546875" customWidth="1"/>
+    <col min="3" max="3" width="85.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3553,7 +3669,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45462</v>
       </c>
@@ -3561,7 +3677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45463</v>
       </c>
@@ -3569,7 +3685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45470</v>
       </c>
@@ -3577,7 +3693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45491</v>
       </c>
@@ -3585,7 +3701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45499</v>
       </c>
@@ -3593,7 +3709,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45502</v>
       </c>
@@ -3601,7 +3717,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45513</v>
       </c>
@@ -3609,16 +3725,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45931</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3630,13 +3752,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.54296875" customWidth="1"/>
-    <col min="2" max="2" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -3644,17 +3766,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -3673,14 +3795,14 @@
       <selection activeCell="B35" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="119.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" customWidth="1"/>
+    <col min="1" max="1" width="119.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3691,7 +3813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3702,18 +3824,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="232.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="232.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3724,7 +3846,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -3743,13 +3865,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="108.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="108.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -3757,7 +3879,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45555</v>
       </c>
@@ -3765,7 +3887,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45568</v>
       </c>
@@ -3773,7 +3895,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45572</v>
       </c>
@@ -3781,7 +3903,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45573</v>
       </c>
@@ -3789,7 +3911,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45652</v>
       </c>
@@ -3797,7 +3919,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45653</v>
       </c>
@@ -3812,15 +3934,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53559BB9-016E-4ABB-B04F-8399F5CB9506}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="73.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="73.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3828,47 +3953,67 @@
         <v>194</v>
       </c>
       <c r="C1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+      <c r="D1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45654</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45670</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45671</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45672</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45673</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B7" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2443BDE6-C046-418F-96D3-8A9B33407EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E92C09A-47A5-496A-AB95-9F58BF31F1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="230">
   <si>
     <t>Day</t>
   </si>
@@ -726,6 +726,12 @@
   </si>
   <si>
     <t>first trade was base on some trigger which I place wrongly and second trade is based on price action but still trade was good but I waited for big move I did recovered from loss but decided to hold the trade and the last two trade were emotional trade fuck you bkn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">both trade were as per price action but first trade hit my SL and moved 300 points and second trade was perfect and if I would have waited abit more would have made more profit so learn to wait and execute </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade was according to my plan well executed </t>
   </si>
 </sst>
 </file>
@@ -1272,24 +1278,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="68" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="123.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="255.5703125" customWidth="1"/>
-    <col min="6" max="6" width="133.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="123.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="255.54296875" customWidth="1"/>
+    <col min="6" max="6" width="133.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45454</v>
       </c>
@@ -1352,7 +1358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45455</v>
       </c>
@@ -1372,7 +1378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45456</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45457</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45461</v>
       </c>
@@ -1432,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45461</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45461</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45462</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45462</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45462</v>
       </c>
@@ -1532,7 +1538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45462</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45463</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45463</v>
       </c>
@@ -1592,7 +1598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45463</v>
       </c>
@@ -1612,7 +1618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45469</v>
       </c>
@@ -1632,7 +1638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45470</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45470</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45470</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45475</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45475</v>
       </c>
@@ -1726,7 +1732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45476</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45476</v>
       </c>
@@ -1763,7 +1769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45477</v>
       </c>
@@ -1780,7 +1786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45488</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45489</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45489</v>
       </c>
@@ -1840,7 +1846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45491</v>
       </c>
@@ -1860,7 +1866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45491</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45492</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45495</v>
       </c>
@@ -1917,7 +1923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45496</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45496</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45496</v>
       </c>
@@ -1977,7 +1983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45497</v>
       </c>
@@ -1994,7 +2000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45498</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45499</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45502</v>
       </c>
@@ -2042,7 +2048,7 @@
         <v>0.41041666666666665</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45502</v>
       </c>
@@ -2059,7 +2065,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45503</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45503</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45504</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -2115,7 +2121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45505</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45506</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45509</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45510</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45511</v>
       </c>
@@ -2185,7 +2191,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45512</v>
       </c>
@@ -2199,7 +2205,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45512</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45516</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45517</v>
       </c>
@@ -2241,7 +2247,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45518</v>
       </c>
@@ -2255,7 +2261,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45520</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45523</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45621</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45622</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45623</v>
       </c>
@@ -2328,7 +2334,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45628</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45629</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45630</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45631</v>
       </c>
@@ -2384,7 +2390,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45632</v>
       </c>
@@ -2398,7 +2404,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45635</v>
       </c>
@@ -2412,7 +2418,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45636</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45642</v>
       </c>
@@ -2440,7 +2446,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45643</v>
       </c>
@@ -2454,7 +2460,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>45644</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45645</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>45646</v>
       </c>
@@ -2496,7 +2502,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>45649</v>
       </c>
@@ -2510,7 +2516,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>45650</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>45652</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>45653</v>
       </c>
@@ -2552,12 +2558,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>45656</v>
       </c>
@@ -2571,7 +2577,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>45657</v>
       </c>
@@ -2585,12 +2591,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>45658</v>
       </c>
@@ -2604,7 +2610,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>45663</v>
       </c>
@@ -2621,7 +2627,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>45664</v>
       </c>
@@ -2638,7 +2644,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>45665</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>45666</v>
       </c>
@@ -2666,15 +2672,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>45667</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>45670</v>
       </c>
@@ -2705,7 +2711,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B89" s="5" t="s">
         <v>208</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>45671</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>45672</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>1262</v>
       </c>
@@ -2755,7 +2761,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>45674</v>
       </c>
@@ -2769,9 +2775,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="C94">
         <v>1239</v>
@@ -2783,9 +2789,37 @@
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B95" s="7" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B96">
+        <v>3227</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B97">
+        <v>228</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2801,17 +2835,17 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="146.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="79.140625" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" customWidth="1"/>
-    <col min="5" max="5" width="156.42578125" customWidth="1"/>
-    <col min="6" max="6" width="64.5703125" customWidth="1"/>
+    <col min="1" max="1" width="146.54296875" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" customWidth="1"/>
+    <col min="3" max="3" width="79.1796875" customWidth="1"/>
+    <col min="4" max="4" width="65.1796875" customWidth="1"/>
+    <col min="5" max="5" width="156.453125" customWidth="1"/>
+    <col min="6" max="6" width="64.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2825,7 +2859,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2836,7 +2870,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2847,7 +2881,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -2855,12 +2889,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -2868,7 +2902,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2879,7 +2913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -2887,12 +2921,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -2900,7 +2934,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2914,7 +2948,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -2925,7 +2959,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -2936,7 +2970,7 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2953,7 +2987,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -2970,7 +3004,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -2987,7 +3021,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -3004,7 +3038,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3018,7 +3052,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3032,7 +3066,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>813</v>
       </c>
@@ -3043,7 +3077,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -3057,7 +3091,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -3074,7 +3108,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -3088,7 +3122,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -3102,7 +3136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -3113,7 +3147,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -3124,7 +3158,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -3135,7 +3169,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -3149,7 +3183,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -3163,7 +3197,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C31">
         <v>1793</v>
       </c>
@@ -3174,7 +3208,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -3188,7 +3222,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -3202,7 +3236,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -3216,7 +3250,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -3230,7 +3264,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C36">
         <v>1046</v>
       </c>
@@ -3238,7 +3272,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -3252,7 +3286,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -3269,7 +3303,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -3283,7 +3317,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -3297,7 +3331,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -3311,7 +3345,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -3325,7 +3359,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -3339,7 +3373,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -3350,7 +3384,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -3361,7 +3395,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -3372,7 +3406,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -3383,7 +3417,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C48">
         <v>514</v>
       </c>
@@ -3391,7 +3425,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -3402,7 +3436,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -3416,7 +3450,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -3430,7 +3464,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -3444,7 +3478,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -3455,7 +3489,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -3466,7 +3500,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -3477,7 +3511,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -3488,7 +3522,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -3499,7 +3533,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -3513,7 +3547,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -3530,7 +3564,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -3547,7 +3581,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -3561,7 +3595,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -3572,7 +3606,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -3586,7 +3620,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -3597,7 +3631,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -3608,7 +3642,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>715</v>
       </c>
@@ -3619,7 +3653,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C67">
         <v>171</v>
       </c>
@@ -3627,7 +3661,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C68">
         <v>250</v>
       </c>
@@ -3651,14 +3685,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="98.85546875" customWidth="1"/>
-    <col min="3" max="3" width="85.85546875" customWidth="1"/>
+    <col min="2" max="2" width="98.81640625" customWidth="1"/>
+    <col min="3" max="3" width="85.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3669,7 +3703,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45462</v>
       </c>
@@ -3677,7 +3711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45463</v>
       </c>
@@ -3685,7 +3719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45470</v>
       </c>
@@ -3693,7 +3727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45491</v>
       </c>
@@ -3701,7 +3735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45499</v>
       </c>
@@ -3709,7 +3743,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45502</v>
       </c>
@@ -3717,7 +3751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45513</v>
       </c>
@@ -3725,7 +3759,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45931</v>
       </c>
@@ -3733,7 +3767,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>225</v>
       </c>
@@ -3752,13 +3786,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.5703125" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="70.54296875" customWidth="1"/>
+    <col min="2" max="2" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -3766,17 +3800,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -3795,14 +3829,14 @@
       <selection activeCell="B35" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="119.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="119.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3813,7 +3847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3824,18 +3858,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="232.35" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="232.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3846,7 +3880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -3865,13 +3899,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="108.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="108.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -3879,7 +3913,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45555</v>
       </c>
@@ -3887,7 +3921,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45568</v>
       </c>
@@ -3895,7 +3929,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45572</v>
       </c>
@@ -3903,7 +3937,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45573</v>
       </c>
@@ -3911,7 +3945,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45652</v>
       </c>
@@ -3919,7 +3953,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45653</v>
       </c>
@@ -3940,12 +3974,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="73.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="73.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3965,7 +3999,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45654</v>
       </c>
@@ -3976,7 +4010,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45670</v>
       </c>
@@ -3984,7 +4018,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45671</v>
       </c>
@@ -3992,7 +4026,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45672</v>
       </c>
@@ -4000,7 +4034,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45673</v>
       </c>
@@ -4008,7 +4042,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45674</v>
       </c>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E92C09A-47A5-496A-AB95-9F58BF31F1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C561AA3-6934-4CC7-A12D-3F7AD795A3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="231">
   <si>
     <t>Day</t>
   </si>
@@ -732,6 +732,9 @@
   </si>
   <si>
     <t xml:space="preserve">Trade was according to my plan well executed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">still I need little more patience to hit my target as at least 1:2 ratio I have to wait </t>
   </si>
 </sst>
 </file>
@@ -1278,24 +1281,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="68" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="2" width="123.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="255.54296875" customWidth="1"/>
-    <col min="6" max="6" width="133.453125" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="123.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="255.5703125" customWidth="1"/>
+    <col min="6" max="6" width="133.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45454</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45455</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45456</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45457</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45461</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45461</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45461</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45462</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45462</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45462</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45462</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45463</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45463</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45463</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45469</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45470</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45470</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45470</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45475</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45475</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45476</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45476</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45477</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45488</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45489</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45489</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45491</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45491</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45492</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45495</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45496</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45496</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45496</v>
       </c>
@@ -1983,7 +1986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45497</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45498</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45499</v>
       </c>
@@ -2031,7 +2034,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45502</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>0.41041666666666665</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45502</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45503</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45503</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45504</v>
       </c>
@@ -2107,7 +2110,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45505</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45506</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45509</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45510</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45511</v>
       </c>
@@ -2191,7 +2194,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45512</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45512</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45516</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45517</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45518</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45520</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45523</v>
       </c>
@@ -2292,7 +2295,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45621</v>
       </c>
@@ -2303,7 +2306,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45622</v>
       </c>
@@ -2317,7 +2320,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45623</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45628</v>
       </c>
@@ -2348,7 +2351,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45629</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45630</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45631</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45632</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45635</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45636</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45642</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45643</v>
       </c>
@@ -2460,7 +2463,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45644</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45645</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45646</v>
       </c>
@@ -2502,7 +2505,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45649</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45650</v>
       </c>
@@ -2530,7 +2533,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45652</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45653</v>
       </c>
@@ -2558,12 +2561,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45656</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45657</v>
       </c>
@@ -2591,12 +2594,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45658</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45663</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45664</v>
       </c>
@@ -2644,7 +2647,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45665</v>
       </c>
@@ -2658,7 +2661,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45666</v>
       </c>
@@ -2672,15 +2675,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45667</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45670</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>208</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45671</v>
       </c>
@@ -2733,7 +2736,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45672</v>
       </c>
@@ -2750,7 +2753,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>1262</v>
       </c>
@@ -2761,7 +2764,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45674</v>
       </c>
@@ -2775,7 +2778,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45677</v>
       </c>
@@ -2789,12 +2792,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45678</v>
       </c>
@@ -2808,7 +2811,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45679</v>
       </c>
@@ -2820,6 +2823,20 @@
       </c>
       <c r="E97" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B98">
+        <v>688</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2835,17 +2852,17 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="146.54296875" customWidth="1"/>
-    <col min="2" max="2" width="40.1796875" customWidth="1"/>
-    <col min="3" max="3" width="79.1796875" customWidth="1"/>
-    <col min="4" max="4" width="65.1796875" customWidth="1"/>
-    <col min="5" max="5" width="156.453125" customWidth="1"/>
-    <col min="6" max="6" width="64.54296875" customWidth="1"/>
+    <col min="1" max="1" width="146.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" customWidth="1"/>
+    <col min="5" max="5" width="156.42578125" customWidth="1"/>
+    <col min="6" max="6" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2859,7 +2876,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2870,7 +2887,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2881,7 +2898,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -2889,12 +2906,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -2902,7 +2919,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2913,7 +2930,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -2921,12 +2938,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -2934,7 +2951,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2948,7 +2965,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -2959,7 +2976,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -2970,7 +2987,7 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2987,7 +3004,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -3004,7 +3021,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -3021,7 +3038,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -3038,7 +3055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3052,7 +3069,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3066,7 +3083,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>813</v>
       </c>
@@ -3077,7 +3094,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -3091,7 +3108,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -3108,7 +3125,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -3122,7 +3139,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -3136,7 +3153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -3147,7 +3164,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -3158,7 +3175,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -3169,7 +3186,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -3183,7 +3200,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -3197,7 +3214,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>1793</v>
       </c>
@@ -3208,7 +3225,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -3222,7 +3239,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -3236,7 +3253,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -3250,7 +3267,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -3264,7 +3281,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>1046</v>
       </c>
@@ -3272,7 +3289,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -3286,7 +3303,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -3303,7 +3320,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -3317,7 +3334,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -3331,7 +3348,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -3345,7 +3362,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -3359,7 +3376,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -3373,7 +3390,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -3384,7 +3401,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -3395,7 +3412,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -3406,7 +3423,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -3417,7 +3434,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>514</v>
       </c>
@@ -3425,7 +3442,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -3436,7 +3453,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -3450,7 +3467,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -3464,7 +3481,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -3478,7 +3495,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -3489,7 +3506,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -3500,7 +3517,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -3511,7 +3528,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -3522,7 +3539,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -3533,7 +3550,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -3547,7 +3564,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -3564,7 +3581,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -3581,7 +3598,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -3595,7 +3612,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -3606,7 +3623,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -3620,7 +3637,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -3631,7 +3648,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -3642,7 +3659,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>715</v>
       </c>
@@ -3653,7 +3670,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>171</v>
       </c>
@@ -3661,7 +3678,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>250</v>
       </c>
@@ -3685,14 +3702,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="98.81640625" customWidth="1"/>
-    <col min="3" max="3" width="85.81640625" customWidth="1"/>
+    <col min="2" max="2" width="98.85546875" customWidth="1"/>
+    <col min="3" max="3" width="85.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3703,7 +3720,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45462</v>
       </c>
@@ -3711,7 +3728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45463</v>
       </c>
@@ -3719,7 +3736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45470</v>
       </c>
@@ -3727,7 +3744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45491</v>
       </c>
@@ -3735,7 +3752,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45499</v>
       </c>
@@ -3743,7 +3760,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45502</v>
       </c>
@@ -3751,7 +3768,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45513</v>
       </c>
@@ -3759,7 +3776,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45931</v>
       </c>
@@ -3767,7 +3784,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>225</v>
       </c>
@@ -3786,13 +3803,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.54296875" customWidth="1"/>
-    <col min="2" max="2" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -3800,17 +3817,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -3829,14 +3846,14 @@
       <selection activeCell="B35" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="119.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" customWidth="1"/>
+    <col min="1" max="1" width="119.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3847,7 +3864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3858,18 +3875,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="232.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="232.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3880,7 +3897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -3899,13 +3916,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="108.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="108.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -3913,7 +3930,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45555</v>
       </c>
@@ -3921,7 +3938,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45568</v>
       </c>
@@ -3929,7 +3946,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45572</v>
       </c>
@@ -3937,7 +3954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45573</v>
       </c>
@@ -3945,7 +3962,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45652</v>
       </c>
@@ -3953,7 +3970,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45653</v>
       </c>
@@ -3974,12 +3991,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="73.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="73.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3999,7 +4016,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45654</v>
       </c>
@@ -4010,7 +4027,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45670</v>
       </c>
@@ -4018,7 +4035,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45671</v>
       </c>
@@ -4026,7 +4043,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45672</v>
       </c>
@@ -4034,7 +4051,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45673</v>
       </c>
@@ -4042,7 +4059,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45674</v>
       </c>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C561AA3-6934-4CC7-A12D-3F7AD795A3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6EC340-9D05-4E32-8B8A-26747CF12349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="232">
   <si>
     <t>Day</t>
   </si>
@@ -735,6 +735,9 @@
   </si>
   <si>
     <t xml:space="preserve">still I need little more patience to hit my target as at least 1:2 ratio I have to wait </t>
+  </si>
+  <si>
+    <t xml:space="preserve">first trade went aginst me and the second trade was perfect but due ti small amount couldn't book good profit </t>
   </si>
 </sst>
 </file>
@@ -1281,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="68" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2837,6 +2840,20 @@
       </c>
       <c r="E98" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B99">
+        <v>375</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6EC340-9D05-4E32-8B8A-26747CF12349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2985158-8A1B-452F-955B-17F543CEA7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="233">
   <si>
     <t>Day</t>
   </si>
@@ -738,6 +738,9 @@
   </si>
   <si>
     <t xml:space="preserve">first trade went aginst me and the second trade was perfect but due ti small amount couldn't book good profit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First trade is always against my price action and that is because of random entry so avoid it as much as possibel </t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="68" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="68" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2854,6 +2857,20 @@
       </c>
       <c r="E99" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B100">
+        <v>817</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2985158-8A1B-452F-955B-17F543CEA7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B6F6AA-C824-4354-91A4-D863F41EA736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="234">
   <si>
     <t>Day</t>
   </si>
@@ -741,6 +741,9 @@
   </si>
   <si>
     <t xml:space="preserve">First trade is always against my price action and that is because of random entry so avoid it as much as possibel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">never ever trade without a plan this is the result of random entry  try to be calm you will get enough opportunity in life  and never ever trade without SL as today 600 premium went to zero </t>
   </si>
 </sst>
 </file>
@@ -1287,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="C70" zoomScale="68" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2871,6 +2874,20 @@
       </c>
       <c r="E100" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45685</v>
+      </c>
+      <c r="C101">
+        <v>782</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B6F6AA-C824-4354-91A4-D863F41EA736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7D5DE5-C1D8-43A2-9226-18F0CDE0AB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="235">
   <si>
     <t>Day</t>
   </si>
@@ -744,6 +744,9 @@
   </si>
   <si>
     <t xml:space="preserve">never ever trade without a plan this is the result of random entry  try to be calm you will get enough opportunity in life  and never ever trade without SL as today 600 premium went to zero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I missed a big profitable trade today so never ever fear to place trigger price according to your setup </t>
   </si>
 </sst>
 </file>
@@ -1290,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C70" zoomScale="68" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,6 +2891,20 @@
       </c>
       <c r="E101" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45686</v>
+      </c>
+      <c r="C102">
+        <v>1096</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7D5DE5-C1D8-43A2-9226-18F0CDE0AB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24C4763-529E-4C71-8B33-0AD445EE0DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="236">
   <si>
     <t>Day</t>
   </si>
@@ -747,6 +747,9 @@
   </si>
   <si>
     <t xml:space="preserve">I missed a big profitable trade today so never ever fear to place trigger price according to your setup </t>
+  </si>
+  <si>
+    <t>both trade were perfect as in second trade I had recovered loss as well but I waited for gib move so will start trading only from Monday again no more before budget</t>
   </si>
 </sst>
 </file>
@@ -1293,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="68" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2905,6 +2908,20 @@
       </c>
       <c r="E102" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45687</v>
+      </c>
+      <c r="C103">
+        <v>1153</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24C4763-529E-4C71-8B33-0AD445EE0DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC374B8F-0707-47DD-AD05-905850C00422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="237">
   <si>
     <t>Day</t>
   </si>
@@ -750,6 +750,9 @@
   </si>
   <si>
     <t>both trade were perfect as in second trade I had recovered loss as well but I waited for gib move so will start trading only from Monday again no more before budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I still need to be more patience as first trade I took big SL and second trade was perfect but I waited to cover loss of first trade so be more patience to trade trda capital is the king not the profit </t>
   </si>
 </sst>
 </file>
@@ -1296,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="68" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,6 +2925,20 @@
       </c>
       <c r="E103" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45691</v>
+      </c>
+      <c r="C104">
+        <v>966</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC374B8F-0707-47DD-AD05-905850C00422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA56DC4-8EF6-45B7-96A0-F37C44FEEFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="238">
   <si>
     <t>Day</t>
   </si>
@@ -753,6 +753,9 @@
   </si>
   <si>
     <t xml:space="preserve">I still need to be more patience as first trade I took big SL and second trade was perfect but I waited to cover loss of first trade so be more patience to trade trda capital is the king not the profit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">booked a big loss today  but in second trade I recovered all my loss but due to my own mistake I booked big loss no worry </t>
   </si>
 </sst>
 </file>
@@ -1299,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="68" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="68" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2939,6 +2942,20 @@
       </c>
       <c r="E104" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45692</v>
+      </c>
+      <c r="C105">
+        <v>2100</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA56DC4-8EF6-45B7-96A0-F37C44FEEFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0616C07E-09C9-4840-815C-92D16E96FD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="239">
   <si>
     <t>Day</t>
   </si>
@@ -756,13 +756,16 @@
   </si>
   <si>
     <t xml:space="preserve">booked a big loss today  but in second trade I recovered all my loss but due to my own mistake I booked big loss no worry </t>
+  </si>
+  <si>
+    <t>I have promised from today that I will trade one 1 trade per day to learn not to earn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,6 +775,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -827,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -836,6 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1302,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="68" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2956,6 +2966,11 @@
       </c>
       <c r="E105" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="8" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0616C07E-09C9-4840-815C-92D16E96FD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D53D50-D0CF-4AB2-B61F-B24EF902DEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="240">
   <si>
     <t>Day</t>
   </si>
@@ -759,6 +759,9 @@
   </si>
   <si>
     <t>I have promised from today that I will trade one 1 trade per day to learn not to earn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single trade per day and that's it but I have to wait for at least 1:2 ratio in any trade </t>
   </si>
 </sst>
 </file>
@@ -1312,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,6 +2974,20 @@
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45693</v>
+      </c>
+      <c r="B107">
+        <v>407</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D53D50-D0CF-4AB2-B61F-B24EF902DEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1BF563-E0CA-4BB8-BFA2-6A12D537A0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="241">
   <si>
     <t>Day</t>
   </si>
@@ -761,7 +761,10 @@
     <t>I have promised from today that I will trade one 1 trade per day to learn not to earn</t>
   </si>
   <si>
-    <t xml:space="preserve">Single trade per day and that's it but I have to wait for at least 1:2 ratio in any trade </t>
+    <t>Single trade per day and that's it but I have to wait for at least 1:2 ratio in any trade  so I waited for 1:2 ration in second trade good approach</t>
+  </si>
+  <si>
+    <t>I have taken risk on second trade as I have booked prodit in first so again loss both but that's fine if was on my direction I would have gained much more</t>
   </si>
 </sst>
 </file>
@@ -1315,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="68" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,13 +2984,27 @@
         <v>45693</v>
       </c>
       <c r="B107">
-        <v>407</v>
+        <v>50</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45694</v>
+      </c>
+      <c r="C108">
+        <v>18</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1BF563-E0CA-4BB8-BFA2-6A12D537A0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C346F406-EC17-4441-BF19-DF1653A54400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="242">
   <si>
     <t>Day</t>
   </si>
@@ -765,6 +765,9 @@
   </si>
   <si>
     <t>I have taken risk on second trade as I have booked prodit in first so again loss both but that's fine if was on my direction I would have gained much more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Promise one trade per day if I trade twice I will never ever success in life and this promise is on puja day </t>
   </si>
 </sst>
 </file>
@@ -792,7 +795,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -829,6 +832,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -842,7 +851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -852,6 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1321,7 +1331,7 @@
   <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2996,6 +3006,9 @@
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45694</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="C108">
         <v>18</v>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C346F406-EC17-4441-BF19-DF1653A54400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16C25C8-A59D-4548-B40F-08AEA46BAB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="243">
   <si>
     <t>Day</t>
   </si>
@@ -768,6 +768,9 @@
   </si>
   <si>
     <t xml:space="preserve">Final Promise one trade per day if I trade twice I will never ever success in life and this promise is on puja day </t>
+  </si>
+  <si>
+    <t>just made entry for small scalp and my price section was good</t>
   </si>
 </sst>
 </file>
@@ -1328,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="68" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3018,6 +3021,20 @@
       </c>
       <c r="E108" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45694</v>
+      </c>
+      <c r="B109">
+        <v>409</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16C25C8-A59D-4548-B40F-08AEA46BAB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF858CB2-FF98-42AF-B14B-DC177F7FC4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="245">
   <si>
     <t>Day</t>
   </si>
@@ -771,6 +771,12 @@
   </si>
   <si>
     <t>just made entry for small scalp and my price section was good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was a good trade as per my price action </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I waited long and captured a good trade but I need to be patience always in trading but if 2 lot need to sell one and wait for other </t>
   </si>
 </sst>
 </file>
@@ -1331,24 +1337,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="123.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="255.5703125" customWidth="1"/>
-    <col min="6" max="6" width="133.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="123.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="255.54296875" customWidth="1"/>
+    <col min="6" max="6" width="133.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45454</v>
       </c>
@@ -1411,7 +1417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45455</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45456</v>
       </c>
@@ -1451,7 +1457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45457</v>
       </c>
@@ -1471,7 +1477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45461</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45461</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45461</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45462</v>
       </c>
@@ -1551,7 +1557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45462</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45462</v>
       </c>
@@ -1591,7 +1597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45462</v>
       </c>
@@ -1611,7 +1617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45463</v>
       </c>
@@ -1631,7 +1637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45463</v>
       </c>
@@ -1651,7 +1657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45463</v>
       </c>
@@ -1671,7 +1677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45469</v>
       </c>
@@ -1691,7 +1697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45470</v>
       </c>
@@ -1711,7 +1717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45470</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45470</v>
       </c>
@@ -1751,7 +1757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45475</v>
       </c>
@@ -1768,7 +1774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45475</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45476</v>
       </c>
@@ -1805,7 +1811,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45476</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45477</v>
       </c>
@@ -1839,7 +1845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45488</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45489</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45489</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45491</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45491</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45492</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45495</v>
       </c>
@@ -1976,7 +1982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45496</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45496</v>
       </c>
@@ -2016,7 +2022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45496</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45497</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45498</v>
       </c>
@@ -2070,7 +2076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45499</v>
       </c>
@@ -2084,7 +2090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45502</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>0.41041666666666665</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45502</v>
       </c>
@@ -2118,7 +2124,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45503</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45503</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45504</v>
       </c>
@@ -2160,7 +2166,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -2174,7 +2180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45505</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45506</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45509</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45510</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45511</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45512</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45512</v>
       </c>
@@ -2272,7 +2278,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45516</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45517</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45518</v>
       </c>
@@ -2314,7 +2320,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45520</v>
       </c>
@@ -2328,7 +2334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45523</v>
       </c>
@@ -2345,7 +2351,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45621</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45622</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45623</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45628</v>
       </c>
@@ -2401,7 +2407,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45629</v>
       </c>
@@ -2415,7 +2421,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45630</v>
       </c>
@@ -2429,7 +2435,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45631</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45632</v>
       </c>
@@ -2457,7 +2463,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45635</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45636</v>
       </c>
@@ -2485,7 +2491,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45642</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45643</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>45644</v>
       </c>
@@ -2527,7 +2533,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45645</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>45646</v>
       </c>
@@ -2555,7 +2561,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>45649</v>
       </c>
@@ -2569,7 +2575,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>45650</v>
       </c>
@@ -2583,7 +2589,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>45652</v>
       </c>
@@ -2597,7 +2603,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>45653</v>
       </c>
@@ -2611,12 +2617,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>45656</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>45657</v>
       </c>
@@ -2644,12 +2650,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>45658</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>45663</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>45664</v>
       </c>
@@ -2697,7 +2703,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>45665</v>
       </c>
@@ -2711,7 +2717,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>45666</v>
       </c>
@@ -2725,15 +2731,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>45667</v>
       </c>
@@ -2747,7 +2753,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>45670</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B89" s="5" t="s">
         <v>208</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>45671</v>
       </c>
@@ -2786,7 +2792,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>45672</v>
       </c>
@@ -2803,7 +2809,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>1262</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>45674</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>45677</v>
       </c>
@@ -2842,12 +2848,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B95" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>45678</v>
       </c>
@@ -2861,7 +2867,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>45679</v>
       </c>
@@ -2875,7 +2881,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>45680</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>45681</v>
       </c>
@@ -2903,7 +2909,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>45684</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>45685</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>45686</v>
       </c>
@@ -2945,7 +2951,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>45687</v>
       </c>
@@ -2959,7 +2965,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>45691</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>45692</v>
       </c>
@@ -2987,12 +2993,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B106" s="8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>45693</v>
       </c>
@@ -3006,7 +3012,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>45694</v>
       </c>
@@ -3023,9 +3029,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>45694</v>
+        <v>45695</v>
       </c>
       <c r="B109">
         <v>409</v>
@@ -3035,6 +3041,34 @@
       </c>
       <c r="E109" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B110">
+        <v>1117</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>45699</v>
+      </c>
+      <c r="B111">
+        <v>2042</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3050,17 +3084,17 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="146.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="79.140625" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" customWidth="1"/>
-    <col min="5" max="5" width="156.42578125" customWidth="1"/>
-    <col min="6" max="6" width="64.5703125" customWidth="1"/>
+    <col min="1" max="1" width="146.54296875" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" customWidth="1"/>
+    <col min="3" max="3" width="79.1796875" customWidth="1"/>
+    <col min="4" max="4" width="65.1796875" customWidth="1"/>
+    <col min="5" max="5" width="156.453125" customWidth="1"/>
+    <col min="6" max="6" width="64.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -3074,7 +3108,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3085,7 +3119,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -3096,7 +3130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3104,12 +3138,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -3117,7 +3151,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -3128,7 +3162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -3136,12 +3170,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3149,7 +3183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -3163,7 +3197,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -3174,7 +3208,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -3185,7 +3219,7 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -3202,7 +3236,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -3219,7 +3253,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -3236,7 +3270,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -3253,7 +3287,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3267,7 +3301,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3281,7 +3315,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>813</v>
       </c>
@@ -3292,7 +3326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -3306,7 +3340,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -3323,7 +3357,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -3337,7 +3371,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -3351,7 +3385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -3362,7 +3396,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -3373,7 +3407,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -3384,7 +3418,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -3398,7 +3432,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -3412,7 +3446,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C31">
         <v>1793</v>
       </c>
@@ -3423,7 +3457,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -3437,7 +3471,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -3451,7 +3485,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -3465,7 +3499,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -3479,7 +3513,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C36">
         <v>1046</v>
       </c>
@@ -3487,7 +3521,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -3501,7 +3535,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -3518,7 +3552,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -3532,7 +3566,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -3546,7 +3580,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -3560,7 +3594,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -3574,7 +3608,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -3588,7 +3622,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -3599,7 +3633,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -3610,7 +3644,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -3621,7 +3655,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -3632,7 +3666,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C48">
         <v>514</v>
       </c>
@@ -3640,7 +3674,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -3651,7 +3685,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -3665,7 +3699,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -3679,7 +3713,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -3693,7 +3727,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -3704,7 +3738,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -3715,7 +3749,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -3726,7 +3760,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -3737,7 +3771,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -3748,7 +3782,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -3762,7 +3796,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -3779,7 +3813,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -3796,7 +3830,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -3810,7 +3844,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -3821,7 +3855,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -3835,7 +3869,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -3846,7 +3880,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -3857,7 +3891,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>715</v>
       </c>
@@ -3868,7 +3902,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C67">
         <v>171</v>
       </c>
@@ -3876,7 +3910,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C68">
         <v>250</v>
       </c>
@@ -3900,14 +3934,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="98.85546875" customWidth="1"/>
-    <col min="3" max="3" width="85.85546875" customWidth="1"/>
+    <col min="2" max="2" width="98.81640625" customWidth="1"/>
+    <col min="3" max="3" width="85.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3918,7 +3952,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45462</v>
       </c>
@@ -3926,7 +3960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45463</v>
       </c>
@@ -3934,7 +3968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45470</v>
       </c>
@@ -3942,7 +3976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45491</v>
       </c>
@@ -3950,7 +3984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45499</v>
       </c>
@@ -3958,7 +3992,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45502</v>
       </c>
@@ -3966,7 +4000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45513</v>
       </c>
@@ -3974,7 +4008,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45931</v>
       </c>
@@ -3982,7 +4016,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>225</v>
       </c>
@@ -4001,13 +4035,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.5703125" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="70.54296875" customWidth="1"/>
+    <col min="2" max="2" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -4015,17 +4049,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -4044,14 +4078,14 @@
       <selection activeCell="B35" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="119.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="119.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -4062,7 +4096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -4073,18 +4107,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="232.35" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="232.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -4095,7 +4129,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -4114,13 +4148,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="108.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="108.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -4128,7 +4162,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45555</v>
       </c>
@@ -4136,7 +4170,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45568</v>
       </c>
@@ -4144,7 +4178,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45572</v>
       </c>
@@ -4152,7 +4186,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45573</v>
       </c>
@@ -4160,7 +4194,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45652</v>
       </c>
@@ -4168,7 +4202,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45653</v>
       </c>
@@ -4189,12 +4223,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="73.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="73.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4214,7 +4248,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45654</v>
       </c>
@@ -4225,7 +4259,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45670</v>
       </c>
@@ -4233,7 +4267,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45671</v>
       </c>
@@ -4241,7 +4275,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45672</v>
       </c>
@@ -4249,7 +4283,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45673</v>
       </c>
@@ -4257,7 +4291,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45674</v>
       </c>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF858CB2-FF98-42AF-B14B-DC177F7FC4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F611863B-841D-48E7-AF4B-B35FDBE298AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="246">
   <si>
     <t>Day</t>
   </si>
@@ -777,6 +777,9 @@
   </si>
   <si>
     <t xml:space="preserve">I waited long and captured a good trade but I need to be patience always in trading but if 2 lot need to sell one and wait for other </t>
+  </si>
+  <si>
+    <t>urgency and discipline less trade was the first trade so always control your capital</t>
   </si>
 </sst>
 </file>
@@ -1337,24 +1340,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="B87" zoomScale="68" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="2" width="123.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="255.54296875" customWidth="1"/>
-    <col min="6" max="6" width="133.453125" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="123.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="255.5703125" customWidth="1"/>
+    <col min="6" max="6" width="133.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45454</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45455</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45456</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45457</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45461</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45461</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45461</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45462</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45462</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45462</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45462</v>
       </c>
@@ -1617,7 +1620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45463</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45463</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45463</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45469</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45470</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45470</v>
       </c>
@@ -1737,7 +1740,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45470</v>
       </c>
@@ -1757,7 +1760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45475</v>
       </c>
@@ -1774,7 +1777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45475</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45476</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45476</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45477</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45488</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45489</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45489</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45491</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45491</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45492</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45495</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45496</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45496</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45496</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45497</v>
       </c>
@@ -2059,7 +2062,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45498</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45499</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45502</v>
       </c>
@@ -2107,7 +2110,7 @@
         <v>0.41041666666666665</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45502</v>
       </c>
@@ -2124,7 +2127,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45503</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45503</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45504</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45505</v>
       </c>
@@ -2194,7 +2197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45506</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45509</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45510</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45511</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45512</v>
       </c>
@@ -2264,7 +2267,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45512</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45516</v>
       </c>
@@ -2292,7 +2295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45517</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45518</v>
       </c>
@@ -2320,7 +2323,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45520</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45523</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45621</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45622</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45623</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45628</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45629</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45630</v>
       </c>
@@ -2435,7 +2438,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45631</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45632</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45635</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45636</v>
       </c>
@@ -2491,7 +2494,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45642</v>
       </c>
@@ -2505,7 +2508,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45643</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45644</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45645</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45646</v>
       </c>
@@ -2561,7 +2564,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45649</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45650</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45652</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45653</v>
       </c>
@@ -2617,12 +2620,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45656</v>
       </c>
@@ -2636,7 +2639,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45657</v>
       </c>
@@ -2650,12 +2653,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45658</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45663</v>
       </c>
@@ -2686,7 +2689,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45664</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45665</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45666</v>
       </c>
@@ -2731,15 +2734,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45667</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45670</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>208</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45671</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45672</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>1262</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45674</v>
       </c>
@@ -2834,7 +2837,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45677</v>
       </c>
@@ -2848,12 +2851,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45678</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45679</v>
       </c>
@@ -2881,7 +2884,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45680</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45681</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45684</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45685</v>
       </c>
@@ -2937,7 +2940,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45686</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45687</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45691</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45692</v>
       </c>
@@ -2993,12 +2996,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45693</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45694</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45695</v>
       </c>
@@ -3043,7 +3046,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45698</v>
       </c>
@@ -3057,7 +3060,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45699</v>
       </c>
@@ -3069,6 +3072,20 @@
       </c>
       <c r="E111" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45700</v>
+      </c>
+      <c r="C112">
+        <v>1000</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3084,17 +3101,17 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="146.54296875" customWidth="1"/>
-    <col min="2" max="2" width="40.1796875" customWidth="1"/>
-    <col min="3" max="3" width="79.1796875" customWidth="1"/>
-    <col min="4" max="4" width="65.1796875" customWidth="1"/>
-    <col min="5" max="5" width="156.453125" customWidth="1"/>
-    <col min="6" max="6" width="64.54296875" customWidth="1"/>
+    <col min="1" max="1" width="146.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" customWidth="1"/>
+    <col min="5" max="5" width="156.42578125" customWidth="1"/>
+    <col min="6" max="6" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -3108,7 +3125,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3119,7 +3136,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -3130,7 +3147,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3138,12 +3155,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -3151,7 +3168,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -3162,7 +3179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -3170,12 +3187,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3183,7 +3200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -3197,7 +3214,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -3208,7 +3225,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -3219,7 +3236,7 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -3236,7 +3253,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -3253,7 +3270,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -3270,7 +3287,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -3287,7 +3304,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3301,7 +3318,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3315,7 +3332,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>813</v>
       </c>
@@ -3326,7 +3343,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -3340,7 +3357,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -3357,7 +3374,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -3371,7 +3388,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -3385,7 +3402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -3396,7 +3413,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -3407,7 +3424,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -3418,7 +3435,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -3432,7 +3449,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -3446,7 +3463,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>1793</v>
       </c>
@@ -3457,7 +3474,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -3471,7 +3488,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -3485,7 +3502,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -3499,7 +3516,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -3513,7 +3530,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>1046</v>
       </c>
@@ -3521,7 +3538,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -3535,7 +3552,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -3552,7 +3569,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -3566,7 +3583,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -3580,7 +3597,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -3594,7 +3611,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -3608,7 +3625,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -3622,7 +3639,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -3633,7 +3650,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -3644,7 +3661,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -3655,7 +3672,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -3666,7 +3683,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>514</v>
       </c>
@@ -3674,7 +3691,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -3685,7 +3702,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -3699,7 +3716,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -3713,7 +3730,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -3727,7 +3744,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -3738,7 +3755,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -3749,7 +3766,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -3760,7 +3777,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -3771,7 +3788,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -3782,7 +3799,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -3796,7 +3813,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -3813,7 +3830,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -3830,7 +3847,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -3844,7 +3861,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -3855,7 +3872,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -3869,7 +3886,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -3880,7 +3897,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -3891,7 +3908,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>715</v>
       </c>
@@ -3902,7 +3919,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>171</v>
       </c>
@@ -3910,7 +3927,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>250</v>
       </c>
@@ -3934,14 +3951,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="98.81640625" customWidth="1"/>
-    <col min="3" max="3" width="85.81640625" customWidth="1"/>
+    <col min="2" max="2" width="98.85546875" customWidth="1"/>
+    <col min="3" max="3" width="85.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3952,7 +3969,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45462</v>
       </c>
@@ -3960,7 +3977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45463</v>
       </c>
@@ -3968,7 +3985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45470</v>
       </c>
@@ -3976,7 +3993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45491</v>
       </c>
@@ -3984,7 +4001,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45499</v>
       </c>
@@ -3992,7 +4009,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45502</v>
       </c>
@@ -4000,7 +4017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45513</v>
       </c>
@@ -4008,7 +4025,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45931</v>
       </c>
@@ -4016,7 +4033,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>225</v>
       </c>
@@ -4035,13 +4052,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.54296875" customWidth="1"/>
-    <col min="2" max="2" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -4049,17 +4066,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -4078,14 +4095,14 @@
       <selection activeCell="B35" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="119.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" customWidth="1"/>
+    <col min="1" max="1" width="119.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -4096,7 +4113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -4107,18 +4124,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="232.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="232.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -4129,7 +4146,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -4148,13 +4165,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="108.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="108.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -4162,7 +4179,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45555</v>
       </c>
@@ -4170,7 +4187,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45568</v>
       </c>
@@ -4178,7 +4195,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45572</v>
       </c>
@@ -4186,7 +4203,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45573</v>
       </c>
@@ -4194,7 +4211,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45652</v>
       </c>
@@ -4202,7 +4219,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45653</v>
       </c>
@@ -4223,12 +4240,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="73.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="73.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4248,7 +4265,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45654</v>
       </c>
@@ -4259,7 +4276,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45670</v>
       </c>
@@ -4267,7 +4284,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45671</v>
       </c>
@@ -4275,7 +4292,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45672</v>
       </c>
@@ -4283,7 +4300,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45673</v>
       </c>
@@ -4291,7 +4308,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45674</v>
       </c>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F611863B-841D-48E7-AF4B-B35FDBE298AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BE5CBA-790A-45F2-B491-A390CBBAD98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="248">
   <si>
     <t>Day</t>
   </si>
@@ -758,18 +758,12 @@
     <t xml:space="preserve">booked a big loss today  but in second trade I recovered all my loss but due to my own mistake I booked big loss no worry </t>
   </si>
   <si>
-    <t>I have promised from today that I will trade one 1 trade per day to learn not to earn</t>
-  </si>
-  <si>
     <t>Single trade per day and that's it but I have to wait for at least 1:2 ratio in any trade  so I waited for 1:2 ration in second trade good approach</t>
   </si>
   <si>
     <t>I have taken risk on second trade as I have booked prodit in first so again loss both but that's fine if was on my direction I would have gained much more</t>
   </si>
   <si>
-    <t xml:space="preserve">Final Promise one trade per day if I trade twice I will never ever success in life and this promise is on puja day </t>
-  </si>
-  <si>
     <t>just made entry for small scalp and my price section was good</t>
   </si>
   <si>
@@ -780,6 +774,18 @@
   </si>
   <si>
     <t>urgency and discipline less trade was the first trade so always control your capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Never ever be in hurry to trade better to wait then to book loss/if no trade as per your setup too that’s completely fine </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> be strict to yourself</t>
+  </si>
+  <si>
+    <t>follow the price action and never ever in hurry to trade ////</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was a per trade as per my entry so single trade today until I don't find next support breaking point </t>
   </si>
 </sst>
 </file>
@@ -1340,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B87" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="B91" zoomScale="68" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,7 +3004,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3012,7 +3018,7 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3020,7 +3026,7 @@
         <v>45694</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C108">
         <v>18</v>
@@ -3029,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3043,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3057,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3071,7 +3077,7 @@
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3085,7 +3091,21 @@
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>246</v>
+      </c>
+      <c r="C113">
+        <v>532</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BE5CBA-790A-45F2-B491-A390CBBAD98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0B52FF-8E1C-448B-92C4-B3C98BAD7F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="255">
   <si>
     <t>Day</t>
   </si>
@@ -786,6 +786,27 @@
   </si>
   <si>
     <t xml:space="preserve">was a per trade as per my entry so single trade today until I don't find next support breaking point </t>
+  </si>
+  <si>
+    <t xml:space="preserve">always wait for two candle stick of one minute when you took trade </t>
+  </si>
+  <si>
+    <t>both trade were perfect first trade took my SL and moved up and second trade was also based on price action//                   635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Trade as I didn't find perfect setup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Trade </t>
+  </si>
+  <si>
+    <t>I still need to be more patience in trading ///                                                                                                                                                                              744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">before trading always check your journal so that you will get good idea and emotional control </t>
+  </si>
+  <si>
+    <t xml:space="preserve">again I missed big move so never ever in hurry before taking any trade </t>
   </si>
 </sst>
 </file>
@@ -1346,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="68" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3094,7 +3115,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>246</v>
       </c>
@@ -3106,6 +3127,76 @@
       </c>
       <c r="E113" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B114">
+        <v>779</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45707</v>
+      </c>
+      <c r="B115" t="s">
+        <v>249</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45708</v>
+      </c>
+      <c r="B116" t="s">
+        <v>250</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45709</v>
+      </c>
+      <c r="B117" t="s">
+        <v>252</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45713</v>
+      </c>
+      <c r="B118">
+        <v>592</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0B52FF-8E1C-448B-92C4-B3C98BAD7F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0487B5-4210-43BB-B5FC-D4BB494FFF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="256">
   <si>
     <t>Day</t>
   </si>
@@ -807,6 +807,9 @@
   </si>
   <si>
     <t xml:space="preserve">again I missed big move so never ever in hurry before taking any trade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">again today I would have captured big move but I always ends up with small profit so I have to always check my journel and control my emotions </t>
   </si>
 </sst>
 </file>
@@ -1367,24 +1370,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="68" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="B109" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="123.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="255.5703125" customWidth="1"/>
-    <col min="6" max="6" width="133.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="123.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="255.54296875" customWidth="1"/>
+    <col min="6" max="6" width="133.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45454</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45455</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45456</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45457</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45461</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45461</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45461</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45462</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45462</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45462</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45462</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45463</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45463</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45463</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45469</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45470</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45470</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45470</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45475</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45475</v>
       </c>
@@ -1821,7 +1824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45476</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45476</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45477</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45488</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45489</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45489</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45491</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45491</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45492</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45495</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45496</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45496</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45496</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45497</v>
       </c>
@@ -2089,7 +2092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45498</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45499</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45502</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>0.41041666666666665</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45502</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45503</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45503</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45504</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45505</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45506</v>
       </c>
@@ -2238,7 +2241,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45509</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45510</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45511</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45512</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45512</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45516</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45517</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45518</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45520</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45523</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45621</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45622</v>
       </c>
@@ -2406,7 +2409,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45623</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45628</v>
       </c>
@@ -2437,7 +2440,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45629</v>
       </c>
@@ -2451,7 +2454,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45630</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45631</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45632</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45635</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45636</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45642</v>
       </c>
@@ -2535,7 +2538,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45643</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>45644</v>
       </c>
@@ -2563,7 +2566,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45645</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>45646</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>45649</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>45650</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>45652</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>45653</v>
       </c>
@@ -2647,12 +2650,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>45656</v>
       </c>
@@ -2666,7 +2669,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>45657</v>
       </c>
@@ -2680,12 +2683,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>45658</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>45663</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>45664</v>
       </c>
@@ -2733,7 +2736,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>45665</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>45666</v>
       </c>
@@ -2761,15 +2764,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>45667</v>
       </c>
@@ -2783,7 +2786,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>45670</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B89" s="5" t="s">
         <v>208</v>
       </c>
@@ -2808,7 +2811,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>45671</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>45672</v>
       </c>
@@ -2839,7 +2842,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>1262</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>45674</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>45677</v>
       </c>
@@ -2878,12 +2881,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B95" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>45678</v>
       </c>
@@ -2897,7 +2900,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>45679</v>
       </c>
@@ -2911,7 +2914,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>45680</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>45681</v>
       </c>
@@ -2939,7 +2942,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>45684</v>
       </c>
@@ -2953,7 +2956,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>45685</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>45686</v>
       </c>
@@ -2981,7 +2984,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>45687</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>45691</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>45692</v>
       </c>
@@ -3023,12 +3026,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B106" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>45693</v>
       </c>
@@ -3042,7 +3045,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>45694</v>
       </c>
@@ -3059,7 +3062,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>45695</v>
       </c>
@@ -3073,7 +3076,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>45698</v>
       </c>
@@ -3087,7 +3090,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>45699</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>45700</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>246</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>45705</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>45707</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>45708</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>45709</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>45713</v>
       </c>
@@ -3197,6 +3200,20 @@
       </c>
       <c r="E118" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B119">
+        <v>389</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3212,17 +3229,17 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="146.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="79.140625" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" customWidth="1"/>
-    <col min="5" max="5" width="156.42578125" customWidth="1"/>
-    <col min="6" max="6" width="64.5703125" customWidth="1"/>
+    <col min="1" max="1" width="146.54296875" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" customWidth="1"/>
+    <col min="3" max="3" width="79.1796875" customWidth="1"/>
+    <col min="4" max="4" width="65.1796875" customWidth="1"/>
+    <col min="5" max="5" width="156.453125" customWidth="1"/>
+    <col min="6" max="6" width="64.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -3236,7 +3253,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3247,7 +3264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -3258,7 +3275,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3266,12 +3283,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -3279,7 +3296,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -3290,7 +3307,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -3298,12 +3315,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3311,7 +3328,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -3325,7 +3342,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -3336,7 +3353,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -3347,7 +3364,7 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -3364,7 +3381,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -3381,7 +3398,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -3398,7 +3415,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -3415,7 +3432,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3429,7 +3446,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3443,7 +3460,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>813</v>
       </c>
@@ -3454,7 +3471,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -3468,7 +3485,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -3485,7 +3502,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -3499,7 +3516,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -3513,7 +3530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -3524,7 +3541,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -3535,7 +3552,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -3546,7 +3563,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -3560,7 +3577,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -3574,7 +3591,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C31">
         <v>1793</v>
       </c>
@@ -3585,7 +3602,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -3599,7 +3616,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -3613,7 +3630,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -3627,7 +3644,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -3641,7 +3658,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C36">
         <v>1046</v>
       </c>
@@ -3649,7 +3666,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -3663,7 +3680,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -3680,7 +3697,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -3694,7 +3711,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -3708,7 +3725,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -3722,7 +3739,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -3736,7 +3753,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -3750,7 +3767,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -3761,7 +3778,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -3772,7 +3789,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -3783,7 +3800,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -3794,7 +3811,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C48">
         <v>514</v>
       </c>
@@ -3802,7 +3819,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -3813,7 +3830,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -3827,7 +3844,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -3841,7 +3858,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -3855,7 +3872,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -3866,7 +3883,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -3877,7 +3894,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -3888,7 +3905,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -3899,7 +3916,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -3910,7 +3927,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -3924,7 +3941,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -3941,7 +3958,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -3958,7 +3975,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -3972,7 +3989,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -3983,7 +4000,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -3997,7 +4014,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -4008,7 +4025,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -4019,7 +4036,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>715</v>
       </c>
@@ -4030,7 +4047,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C67">
         <v>171</v>
       </c>
@@ -4038,7 +4055,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C68">
         <v>250</v>
       </c>
@@ -4062,14 +4079,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="98.85546875" customWidth="1"/>
-    <col min="3" max="3" width="85.85546875" customWidth="1"/>
+    <col min="2" max="2" width="98.81640625" customWidth="1"/>
+    <col min="3" max="3" width="85.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4080,7 +4097,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45462</v>
       </c>
@@ -4088,7 +4105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45463</v>
       </c>
@@ -4096,7 +4113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45470</v>
       </c>
@@ -4104,7 +4121,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45491</v>
       </c>
@@ -4112,7 +4129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45499</v>
       </c>
@@ -4120,7 +4137,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45502</v>
       </c>
@@ -4128,7 +4145,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45513</v>
       </c>
@@ -4136,7 +4153,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45931</v>
       </c>
@@ -4144,7 +4161,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>225</v>
       </c>
@@ -4163,13 +4180,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.5703125" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="70.54296875" customWidth="1"/>
+    <col min="2" max="2" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -4177,17 +4194,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -4206,14 +4223,14 @@
       <selection activeCell="B35" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="119.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="119.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -4224,7 +4241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -4235,18 +4252,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="232.35" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="232.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -4257,7 +4274,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -4276,13 +4293,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="108.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="108.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -4290,7 +4307,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45555</v>
       </c>
@@ -4298,7 +4315,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45568</v>
       </c>
@@ -4306,7 +4323,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45572</v>
       </c>
@@ -4314,7 +4331,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45573</v>
       </c>
@@ -4322,7 +4339,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45652</v>
       </c>
@@ -4330,7 +4347,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45653</v>
       </c>
@@ -4351,12 +4368,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="73.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="73.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4376,7 +4393,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45654</v>
       </c>
@@ -4387,7 +4404,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45670</v>
       </c>
@@ -4395,7 +4412,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45671</v>
       </c>
@@ -4403,7 +4420,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45672</v>
       </c>
@@ -4411,7 +4428,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45673</v>
       </c>
@@ -4419,7 +4436,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45674</v>
       </c>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0487B5-4210-43BB-B5FC-D4BB494FFF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB3A11C-8033-4631-936A-199EE6E0E973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="258">
   <si>
     <t>Day</t>
   </si>
@@ -810,6 +810,12 @@
   </si>
   <si>
     <t xml:space="preserve">again today I would have captured big move but I always ends up with small profit so I have to always check my journel and control my emotions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">always follow your level don't be hurry to make entry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">little bit early entry and booked loss so again be discipline </t>
   </si>
 </sst>
 </file>
@@ -1370,24 +1376,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B109" zoomScale="84" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="84" workbookViewId="0">
       <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="2" width="123.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="255.54296875" customWidth="1"/>
-    <col min="6" max="6" width="133.453125" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="123.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="255.5703125" customWidth="1"/>
+    <col min="6" max="6" width="133.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1410,7 +1416,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45454</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45455</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45456</v>
       </c>
@@ -1490,7 +1496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45457</v>
       </c>
@@ -1510,7 +1516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45461</v>
       </c>
@@ -1530,7 +1536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45461</v>
       </c>
@@ -1550,7 +1556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45461</v>
       </c>
@@ -1570,7 +1576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45462</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45462</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45462</v>
       </c>
@@ -1630,7 +1636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45462</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45463</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45463</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45463</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45469</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45470</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45470</v>
       </c>
@@ -1770,7 +1776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45470</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45475</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45475</v>
       </c>
@@ -1824,7 +1830,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45476</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45476</v>
       </c>
@@ -1861,7 +1867,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45477</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45488</v>
       </c>
@@ -1898,7 +1904,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45489</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45489</v>
       </c>
@@ -1938,7 +1944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45491</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45491</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45492</v>
       </c>
@@ -1995,7 +2001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45495</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45496</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45496</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45496</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45497</v>
       </c>
@@ -2092,7 +2098,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45498</v>
       </c>
@@ -2109,7 +2115,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45499</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45502</v>
       </c>
@@ -2140,7 +2146,7 @@
         <v>0.41041666666666665</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45502</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45503</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45503</v>
       </c>
@@ -2185,7 +2191,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45504</v>
       </c>
@@ -2199,7 +2205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45505</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45506</v>
       </c>
@@ -2241,7 +2247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45509</v>
       </c>
@@ -2255,7 +2261,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45510</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45511</v>
       </c>
@@ -2283,7 +2289,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45512</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45512</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45516</v>
       </c>
@@ -2325,7 +2331,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45517</v>
       </c>
@@ -2339,7 +2345,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45518</v>
       </c>
@@ -2353,7 +2359,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45520</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45523</v>
       </c>
@@ -2384,7 +2390,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45621</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45622</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45623</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45628</v>
       </c>
@@ -2440,7 +2446,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45629</v>
       </c>
@@ -2454,7 +2460,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45630</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45631</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45632</v>
       </c>
@@ -2496,7 +2502,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45635</v>
       </c>
@@ -2510,7 +2516,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45636</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45642</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45643</v>
       </c>
@@ -2552,7 +2558,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45644</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45645</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45646</v>
       </c>
@@ -2594,7 +2600,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45649</v>
       </c>
@@ -2608,7 +2614,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45650</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45652</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45653</v>
       </c>
@@ -2650,12 +2656,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45656</v>
       </c>
@@ -2669,7 +2675,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45657</v>
       </c>
@@ -2683,12 +2689,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45658</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45663</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45664</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45665</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45666</v>
       </c>
@@ -2764,15 +2770,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45667</v>
       </c>
@@ -2786,7 +2792,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45670</v>
       </c>
@@ -2803,7 +2809,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>208</v>
       </c>
@@ -2811,7 +2817,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45671</v>
       </c>
@@ -2825,7 +2831,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45672</v>
       </c>
@@ -2842,7 +2848,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>1262</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45674</v>
       </c>
@@ -2867,7 +2873,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45677</v>
       </c>
@@ -2881,12 +2887,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45678</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45679</v>
       </c>
@@ -2914,7 +2920,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45680</v>
       </c>
@@ -2928,7 +2934,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45681</v>
       </c>
@@ -2942,7 +2948,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45684</v>
       </c>
@@ -2956,7 +2962,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45685</v>
       </c>
@@ -2970,7 +2976,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45686</v>
       </c>
@@ -2984,7 +2990,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45687</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45691</v>
       </c>
@@ -3012,7 +3018,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45692</v>
       </c>
@@ -3026,12 +3032,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45693</v>
       </c>
@@ -3045,7 +3051,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45694</v>
       </c>
@@ -3062,7 +3068,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45695</v>
       </c>
@@ -3076,7 +3082,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45698</v>
       </c>
@@ -3090,7 +3096,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45699</v>
       </c>
@@ -3104,7 +3110,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45700</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>246</v>
       </c>
@@ -3132,7 +3138,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45705</v>
       </c>
@@ -3146,7 +3152,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45707</v>
       </c>
@@ -3157,7 +3163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45708</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45709</v>
       </c>
@@ -3188,7 +3194,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45713</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45719</v>
       </c>
@@ -3214,6 +3220,20 @@
       </c>
       <c r="E119" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45720</v>
+      </c>
+      <c r="C120">
+        <v>366</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3229,17 +3249,17 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="146.54296875" customWidth="1"/>
-    <col min="2" max="2" width="40.1796875" customWidth="1"/>
-    <col min="3" max="3" width="79.1796875" customWidth="1"/>
-    <col min="4" max="4" width="65.1796875" customWidth="1"/>
-    <col min="5" max="5" width="156.453125" customWidth="1"/>
-    <col min="6" max="6" width="64.54296875" customWidth="1"/>
+    <col min="1" max="1" width="146.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" customWidth="1"/>
+    <col min="5" max="5" width="156.42578125" customWidth="1"/>
+    <col min="6" max="6" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -3253,7 +3273,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3264,7 +3284,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -3275,7 +3295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3283,12 +3303,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -3296,7 +3316,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -3307,7 +3327,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -3315,12 +3335,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3328,7 +3348,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -3342,7 +3362,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -3353,7 +3373,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -3364,7 +3384,7 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -3381,7 +3401,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -3398,7 +3418,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -3415,7 +3435,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -3432,7 +3452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3446,7 +3466,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3460,7 +3480,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>813</v>
       </c>
@@ -3471,7 +3491,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -3485,7 +3505,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -3502,7 +3522,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -3516,7 +3536,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -3530,7 +3550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -3541,7 +3561,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -3552,7 +3572,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -3563,7 +3583,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -3577,7 +3597,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -3591,7 +3611,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>1793</v>
       </c>
@@ -3602,7 +3622,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -3616,7 +3636,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -3630,7 +3650,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -3644,7 +3664,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -3658,7 +3678,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>1046</v>
       </c>
@@ -3666,7 +3686,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -3680,7 +3700,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -3697,7 +3717,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -3711,7 +3731,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -3725,7 +3745,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -3739,7 +3759,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -3753,7 +3773,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -3767,7 +3787,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -3778,7 +3798,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -3789,7 +3809,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -3800,7 +3820,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -3811,7 +3831,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>514</v>
       </c>
@@ -3819,7 +3839,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -3830,7 +3850,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -3844,7 +3864,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -3858,7 +3878,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -3872,7 +3892,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -3883,7 +3903,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -3894,7 +3914,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -3905,7 +3925,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -3916,7 +3936,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -3927,7 +3947,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -3941,7 +3961,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -3958,7 +3978,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -3975,7 +3995,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -3989,7 +4009,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -4000,7 +4020,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -4014,7 +4034,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -4025,7 +4045,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -4036,7 +4056,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>715</v>
       </c>
@@ -4047,7 +4067,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>171</v>
       </c>
@@ -4055,7 +4075,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>250</v>
       </c>
@@ -4079,14 +4099,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="98.81640625" customWidth="1"/>
-    <col min="3" max="3" width="85.81640625" customWidth="1"/>
+    <col min="2" max="2" width="98.85546875" customWidth="1"/>
+    <col min="3" max="3" width="85.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4097,7 +4117,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45462</v>
       </c>
@@ -4105,7 +4125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45463</v>
       </c>
@@ -4113,7 +4133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45470</v>
       </c>
@@ -4121,7 +4141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45491</v>
       </c>
@@ -4129,7 +4149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45499</v>
       </c>
@@ -4137,7 +4157,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45502</v>
       </c>
@@ -4145,7 +4165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45513</v>
       </c>
@@ -4153,7 +4173,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45931</v>
       </c>
@@ -4161,7 +4181,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>225</v>
       </c>
@@ -4174,19 +4194,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95138E30-1029-4C6F-9821-9A3DF913F049}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.54296875" customWidth="1"/>
-    <col min="2" max="2" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -4194,19 +4214,24 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4223,14 +4248,14 @@
       <selection activeCell="B35" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="119.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" customWidth="1"/>
+    <col min="1" max="1" width="119.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -4241,7 +4266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -4252,18 +4277,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="232.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="232.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -4274,7 +4299,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -4293,13 +4318,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="108.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="108.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -4307,7 +4332,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45555</v>
       </c>
@@ -4315,7 +4340,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45568</v>
       </c>
@@ -4323,7 +4348,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45572</v>
       </c>
@@ -4331,7 +4356,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45573</v>
       </c>
@@ -4339,7 +4364,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45652</v>
       </c>
@@ -4347,7 +4372,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45653</v>
       </c>
@@ -4368,12 +4393,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="73.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="73.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4393,7 +4418,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45654</v>
       </c>
@@ -4404,7 +4429,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45670</v>
       </c>
@@ -4412,7 +4437,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45671</v>
       </c>
@@ -4420,7 +4445,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45672</v>
       </c>
@@ -4428,7 +4453,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45673</v>
       </c>
@@ -4436,7 +4461,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45674</v>
       </c>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB3A11C-8033-4631-936A-199EE6E0E973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F127985B-C6C5-45CE-AE0A-FBC96AF65145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="259">
   <si>
     <t>Day</t>
   </si>
@@ -816,6 +816,9 @@
   </si>
   <si>
     <t xml:space="preserve">little bit early entry and booked loss so again be discipline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I perfectly know where to make entry but still I have to wait to capture big profit </t>
   </si>
 </sst>
 </file>
@@ -1376,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="84" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3234,6 +3237,20 @@
       </c>
       <c r="E120" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45721</v>
+      </c>
+      <c r="B121">
+        <v>878</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F127985B-C6C5-45CE-AE0A-FBC96AF65145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98294BD3-C9FB-4056-9C68-78630C85955B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="260">
   <si>
     <t>Day</t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t xml:space="preserve">I perfectly know where to make entry but still I have to wait to capture big profit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The biggest fear I have to concure is to hold a trade a bit longer </t>
   </si>
 </sst>
 </file>
@@ -1381,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="84" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView topLeftCell="A94" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4211,10 +4214,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95138E30-1029-4C6F-9821-9A3DF913F049}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4249,6 +4252,11 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98294BD3-C9FB-4056-9C68-78630C85955B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B55070D-4052-4DED-AD44-757AB4F9F16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="261">
   <si>
     <t>Day</t>
   </si>
@@ -822,6 +822,9 @@
   </si>
   <si>
     <t xml:space="preserve">The biggest fear I have to concure is to hold a trade a bit longer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I aimed for big profit so booked loss in two trade not an issue at all </t>
   </si>
 </sst>
 </file>
@@ -1382,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3254,6 +3257,20 @@
       </c>
       <c r="E121" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45722</v>
+      </c>
+      <c r="C122">
+        <v>761</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4216,7 +4233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95138E30-1029-4C6F-9821-9A3DF913F049}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B55070D-4052-4DED-AD44-757AB4F9F16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A05E66A-C068-4968-8EEE-8C4E2B74ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1388,7 +1388,7 @@
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3264,10 +3264,10 @@
         <v>45722</v>
       </c>
       <c r="C122">
-        <v>761</v>
+        <v>1150</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E122" t="s">
         <v>260</v>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A05E66A-C068-4968-8EEE-8C4E2B74ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECEC4B8-75AB-4243-8AC1-EA89CF964881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="264">
   <si>
     <t>Day</t>
   </si>
@@ -824,7 +824,16 @@
     <t xml:space="preserve">The biggest fear I have to concure is to hold a trade a bit longer </t>
   </si>
   <si>
-    <t xml:space="preserve">I aimed for big profit so booked loss in two trade not an issue at all </t>
+    <t xml:space="preserve">I aimed for big profit so booked loss in two trade not an issue at all /// two trade are because of over trading </t>
+  </si>
+  <si>
+    <t>I should have waited for my level to cross and trade so don't go against your level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no regret this is your own result and if I would have not modified second trade SL then I would have made 1600 </t>
+  </si>
+  <si>
+    <t>I have promised to myself that I will plan single trade from today until I make 20k from this amount</t>
   </si>
 </sst>
 </file>
@@ -1385,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="84" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,6 +3280,37 @@
       </c>
       <c r="E122" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45723</v>
+      </c>
+      <c r="C123">
+        <v>719</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45726</v>
+      </c>
+      <c r="B124" t="s">
+        <v>263</v>
+      </c>
+      <c r="C124">
+        <v>1352</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECEC4B8-75AB-4243-8AC1-EA89CF964881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC847A9-3402-4AF1-9354-4EC4CBCFF867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="265">
   <si>
     <t>Day</t>
   </si>
@@ -834,6 +834,9 @@
   </si>
   <si>
     <t>I have promised to myself that I will plan single trade from today until I make 20k from this amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">again started so trade by yourself don't look at others video you have enough knowledge </t>
   </si>
 </sst>
 </file>
@@ -1394,24 +1397,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="60" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="123.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="255.5703125" customWidth="1"/>
-    <col min="6" max="6" width="133.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="123.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="255.54296875" customWidth="1"/>
+    <col min="6" max="6" width="133.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45454</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45455</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45456</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45457</v>
       </c>
@@ -1534,7 +1537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45461</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45461</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45461</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45462</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45462</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45462</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45462</v>
       </c>
@@ -1674,7 +1677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45463</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45463</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45463</v>
       </c>
@@ -1734,7 +1737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45469</v>
       </c>
@@ -1754,7 +1757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45470</v>
       </c>
@@ -1774,7 +1777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45470</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45470</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45475</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45475</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45476</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45476</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45477</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45488</v>
       </c>
@@ -1922,7 +1925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45489</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45489</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45491</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45491</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45492</v>
       </c>
@@ -2019,7 +2022,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45495</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45496</v>
       </c>
@@ -2059,7 +2062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45496</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45496</v>
       </c>
@@ -2099,7 +2102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45497</v>
       </c>
@@ -2116,7 +2119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45498</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45499</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45502</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>0.41041666666666665</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45502</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45503</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45503</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45504</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45505</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45506</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45509</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45510</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45511</v>
       </c>
@@ -2307,7 +2310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45512</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45512</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45516</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45517</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45518</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45520</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45523</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45621</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45622</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45623</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45628</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45629</v>
       </c>
@@ -2478,7 +2481,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45630</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45631</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45632</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45635</v>
       </c>
@@ -2534,7 +2537,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45636</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45642</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45643</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>45644</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45645</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>45646</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>45649</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>45650</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>45652</v>
       </c>
@@ -2660,7 +2663,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>45653</v>
       </c>
@@ -2674,12 +2677,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>45656</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>45657</v>
       </c>
@@ -2707,12 +2710,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>45658</v>
       </c>
@@ -2726,7 +2729,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>45663</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>45664</v>
       </c>
@@ -2760,7 +2763,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>45665</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>45666</v>
       </c>
@@ -2788,15 +2791,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>45667</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>45670</v>
       </c>
@@ -2827,7 +2830,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B89" s="5" t="s">
         <v>208</v>
       </c>
@@ -2835,7 +2838,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>45671</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>45672</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>1262</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>45674</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>45677</v>
       </c>
@@ -2905,12 +2908,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B95" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>45678</v>
       </c>
@@ -2924,7 +2927,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>45679</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>45680</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>45681</v>
       </c>
@@ -2966,7 +2969,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>45684</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>45685</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>45686</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>45687</v>
       </c>
@@ -3022,7 +3025,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>45691</v>
       </c>
@@ -3036,7 +3039,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>45692</v>
       </c>
@@ -3050,12 +3053,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B106" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>45693</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>45694</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>45695</v>
       </c>
@@ -3100,7 +3103,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>45698</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>45699</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>45700</v>
       </c>
@@ -3142,7 +3145,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>246</v>
       </c>
@@ -3156,7 +3159,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>45705</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>45707</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>45708</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>45709</v>
       </c>
@@ -3212,7 +3215,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>45713</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>45719</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>45720</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>45721</v>
       </c>
@@ -3268,7 +3271,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>45722</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>45723</v>
       </c>
@@ -3296,7 +3299,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>45726</v>
       </c>
@@ -3311,6 +3314,34 @@
       </c>
       <c r="E124" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>45727</v>
+      </c>
+      <c r="B125">
+        <v>453</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C126">
+        <v>1356</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3326,17 +3357,17 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="146.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="79.140625" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" customWidth="1"/>
-    <col min="5" max="5" width="156.42578125" customWidth="1"/>
-    <col min="6" max="6" width="64.5703125" customWidth="1"/>
+    <col min="1" max="1" width="146.54296875" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" customWidth="1"/>
+    <col min="3" max="3" width="79.1796875" customWidth="1"/>
+    <col min="4" max="4" width="65.1796875" customWidth="1"/>
+    <col min="5" max="5" width="156.453125" customWidth="1"/>
+    <col min="6" max="6" width="64.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -3350,7 +3381,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3361,7 +3392,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -3372,7 +3403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3380,12 +3411,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -3393,7 +3424,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -3404,7 +3435,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -3412,12 +3443,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3425,7 +3456,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -3439,7 +3470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -3450,7 +3481,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -3461,7 +3492,7 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -3478,7 +3509,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -3495,7 +3526,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -3512,7 +3543,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -3529,7 +3560,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3543,7 +3574,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3557,7 +3588,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>813</v>
       </c>
@@ -3568,7 +3599,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -3582,7 +3613,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -3599,7 +3630,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -3613,7 +3644,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -3627,7 +3658,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -3638,7 +3669,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -3649,7 +3680,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -3660,7 +3691,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -3674,7 +3705,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -3688,7 +3719,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C31">
         <v>1793</v>
       </c>
@@ -3699,7 +3730,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -3713,7 +3744,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -3727,7 +3758,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -3741,7 +3772,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -3755,7 +3786,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C36">
         <v>1046</v>
       </c>
@@ -3763,7 +3794,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -3777,7 +3808,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -3794,7 +3825,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -3808,7 +3839,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -3822,7 +3853,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -3836,7 +3867,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -3850,7 +3881,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -3864,7 +3895,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -3875,7 +3906,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -3886,7 +3917,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -3897,7 +3928,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -3908,7 +3939,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C48">
         <v>514</v>
       </c>
@@ -3916,7 +3947,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -3927,7 +3958,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -3941,7 +3972,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -3955,7 +3986,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -3969,7 +4000,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -3980,7 +4011,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -3991,7 +4022,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -4002,7 +4033,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -4013,7 +4044,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -4024,7 +4055,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -4038,7 +4069,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -4055,7 +4086,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -4072,7 +4103,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -4086,7 +4117,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -4097,7 +4128,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -4111,7 +4142,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -4122,7 +4153,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -4133,7 +4164,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>715</v>
       </c>
@@ -4144,7 +4175,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C67">
         <v>171</v>
       </c>
@@ -4152,7 +4183,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C68">
         <v>250</v>
       </c>
@@ -4176,14 +4207,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="98.85546875" customWidth="1"/>
-    <col min="3" max="3" width="85.85546875" customWidth="1"/>
+    <col min="2" max="2" width="98.81640625" customWidth="1"/>
+    <col min="3" max="3" width="85.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4194,7 +4225,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45462</v>
       </c>
@@ -4202,7 +4233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45463</v>
       </c>
@@ -4210,7 +4241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45470</v>
       </c>
@@ -4218,7 +4249,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45491</v>
       </c>
@@ -4226,7 +4257,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45499</v>
       </c>
@@ -4234,7 +4265,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45502</v>
       </c>
@@ -4242,7 +4273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45513</v>
       </c>
@@ -4250,7 +4281,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45931</v>
       </c>
@@ -4258,7 +4289,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>225</v>
       </c>
@@ -4277,13 +4308,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.5703125" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="70.54296875" customWidth="1"/>
+    <col min="2" max="2" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -4291,27 +4322,27 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>259</v>
       </c>
@@ -4330,14 +4361,14 @@
       <selection activeCell="B35" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="119.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="119.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -4348,7 +4379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -4359,18 +4390,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="232.35" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="232.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -4381,7 +4412,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -4400,13 +4431,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="108.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="108.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -4414,7 +4445,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45555</v>
       </c>
@@ -4422,7 +4453,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45568</v>
       </c>
@@ -4430,7 +4461,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45572</v>
       </c>
@@ -4438,7 +4469,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45573</v>
       </c>
@@ -4446,7 +4477,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45652</v>
       </c>
@@ -4454,7 +4485,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45653</v>
       </c>
@@ -4475,12 +4506,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="73.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="73.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4500,7 +4531,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45654</v>
       </c>
@@ -4511,7 +4542,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45670</v>
       </c>
@@ -4519,7 +4550,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45671</v>
       </c>
@@ -4527,7 +4558,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45672</v>
       </c>
@@ -4535,7 +4566,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45673</v>
       </c>
@@ -4543,7 +4574,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45674</v>
       </c>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC847A9-3402-4AF1-9354-4EC4CBCFF867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50F6D70-9901-4EC9-AAF9-0F2D2E4B59E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="271">
   <si>
     <t>Day</t>
   </si>
@@ -837,6 +837,24 @@
   </si>
   <si>
     <t xml:space="preserve">again started so trade by yourself don't look at others video you have enough knowledge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trade was according to my setup but it went up after hitting my SL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trade was according to my setup so went well 1:2.5 risk to reqard I captured </t>
+  </si>
+  <si>
+    <t xml:space="preserve">was a good trade as per my setup but due to time issue I exited early and trade gave amlost 80 points </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you took trade after 3pm wait till 3:25 that works in option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No trade as I didn't find any move in market </t>
+  </si>
+  <si>
+    <t xml:space="preserve">perfect trade as per gap up and  captured small profit in 1 min setup </t>
   </si>
 </sst>
 </file>
@@ -1397,24 +1415,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="60" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="60" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="2" width="123.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="255.54296875" customWidth="1"/>
-    <col min="6" max="6" width="133.453125" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="123.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="255.5703125" customWidth="1"/>
+    <col min="6" max="6" width="133.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1457,7 +1475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45454</v>
       </c>
@@ -1477,7 +1495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45455</v>
       </c>
@@ -1497,7 +1515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45456</v>
       </c>
@@ -1517,7 +1535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45457</v>
       </c>
@@ -1537,7 +1555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45461</v>
       </c>
@@ -1557,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45461</v>
       </c>
@@ -1577,7 +1595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45461</v>
       </c>
@@ -1597,7 +1615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45462</v>
       </c>
@@ -1617,7 +1635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45462</v>
       </c>
@@ -1637,7 +1655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45462</v>
       </c>
@@ -1657,7 +1675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45462</v>
       </c>
@@ -1677,7 +1695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45463</v>
       </c>
@@ -1697,7 +1715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45463</v>
       </c>
@@ -1717,7 +1735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45463</v>
       </c>
@@ -1737,7 +1755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45469</v>
       </c>
@@ -1757,7 +1775,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45470</v>
       </c>
@@ -1777,7 +1795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45470</v>
       </c>
@@ -1797,7 +1815,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45470</v>
       </c>
@@ -1817,7 +1835,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45475</v>
       </c>
@@ -1834,7 +1852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45475</v>
       </c>
@@ -1851,7 +1869,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45476</v>
       </c>
@@ -1871,7 +1889,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45476</v>
       </c>
@@ -1888,7 +1906,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45477</v>
       </c>
@@ -1905,7 +1923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45488</v>
       </c>
@@ -1925,7 +1943,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45489</v>
       </c>
@@ -1945,7 +1963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45489</v>
       </c>
@@ -1965,7 +1983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45491</v>
       </c>
@@ -1985,7 +2003,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45491</v>
       </c>
@@ -2005,7 +2023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45492</v>
       </c>
@@ -2022,7 +2040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45495</v>
       </c>
@@ -2042,7 +2060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45496</v>
       </c>
@@ -2062,7 +2080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45496</v>
       </c>
@@ -2082,7 +2100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45496</v>
       </c>
@@ -2102,7 +2120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45497</v>
       </c>
@@ -2119,7 +2137,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45498</v>
       </c>
@@ -2136,7 +2154,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45499</v>
       </c>
@@ -2150,7 +2168,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45502</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>0.41041666666666665</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45502</v>
       </c>
@@ -2184,7 +2202,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45503</v>
       </c>
@@ -2198,7 +2216,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45503</v>
       </c>
@@ -2212,7 +2230,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45504</v>
       </c>
@@ -2226,7 +2244,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -2240,7 +2258,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45505</v>
       </c>
@@ -2254,7 +2272,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45506</v>
       </c>
@@ -2268,7 +2286,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45509</v>
       </c>
@@ -2282,7 +2300,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45510</v>
       </c>
@@ -2296,7 +2314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45511</v>
       </c>
@@ -2310,7 +2328,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45512</v>
       </c>
@@ -2324,7 +2342,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45512</v>
       </c>
@@ -2338,7 +2356,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45516</v>
       </c>
@@ -2352,7 +2370,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45517</v>
       </c>
@@ -2366,7 +2384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45518</v>
       </c>
@@ -2380,7 +2398,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45520</v>
       </c>
@@ -2394,7 +2412,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45523</v>
       </c>
@@ -2411,7 +2429,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45621</v>
       </c>
@@ -2422,7 +2440,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45622</v>
       </c>
@@ -2436,7 +2454,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45623</v>
       </c>
@@ -2453,7 +2471,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45628</v>
       </c>
@@ -2467,7 +2485,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45629</v>
       </c>
@@ -2481,7 +2499,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45630</v>
       </c>
@@ -2495,7 +2513,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45631</v>
       </c>
@@ -2509,7 +2527,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45632</v>
       </c>
@@ -2523,7 +2541,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45635</v>
       </c>
@@ -2537,7 +2555,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45636</v>
       </c>
@@ -2551,7 +2569,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45642</v>
       </c>
@@ -2565,7 +2583,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45643</v>
       </c>
@@ -2579,7 +2597,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45644</v>
       </c>
@@ -2593,7 +2611,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45645</v>
       </c>
@@ -2607,7 +2625,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45646</v>
       </c>
@@ -2621,7 +2639,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45649</v>
       </c>
@@ -2635,7 +2653,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45650</v>
       </c>
@@ -2649,7 +2667,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45652</v>
       </c>
@@ -2663,7 +2681,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45653</v>
       </c>
@@ -2677,12 +2695,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45656</v>
       </c>
@@ -2696,7 +2714,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45657</v>
       </c>
@@ -2710,12 +2728,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45658</v>
       </c>
@@ -2729,7 +2747,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45663</v>
       </c>
@@ -2746,7 +2764,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45664</v>
       </c>
@@ -2763,7 +2781,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45665</v>
       </c>
@@ -2777,7 +2795,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45666</v>
       </c>
@@ -2791,15 +2809,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45667</v>
       </c>
@@ -2813,7 +2831,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45670</v>
       </c>
@@ -2830,7 +2848,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>208</v>
       </c>
@@ -2838,7 +2856,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45671</v>
       </c>
@@ -2852,7 +2870,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45672</v>
       </c>
@@ -2869,7 +2887,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>1262</v>
       </c>
@@ -2880,7 +2898,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45674</v>
       </c>
@@ -2894,7 +2912,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45677</v>
       </c>
@@ -2908,12 +2926,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45678</v>
       </c>
@@ -2927,7 +2945,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45679</v>
       </c>
@@ -2941,7 +2959,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45680</v>
       </c>
@@ -2955,7 +2973,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45681</v>
       </c>
@@ -2969,7 +2987,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45684</v>
       </c>
@@ -2983,7 +3001,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45685</v>
       </c>
@@ -2997,7 +3015,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45686</v>
       </c>
@@ -3011,7 +3029,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45687</v>
       </c>
@@ -3025,7 +3043,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45691</v>
       </c>
@@ -3039,7 +3057,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45692</v>
       </c>
@@ -3053,12 +3071,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45693</v>
       </c>
@@ -3072,7 +3090,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45694</v>
       </c>
@@ -3089,7 +3107,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45695</v>
       </c>
@@ -3103,7 +3121,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45698</v>
       </c>
@@ -3117,7 +3135,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45699</v>
       </c>
@@ -3131,7 +3149,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45700</v>
       </c>
@@ -3145,7 +3163,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>246</v>
       </c>
@@ -3159,7 +3177,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45705</v>
       </c>
@@ -3173,7 +3191,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45707</v>
       </c>
@@ -3184,7 +3202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45708</v>
       </c>
@@ -3201,7 +3219,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45709</v>
       </c>
@@ -3215,7 +3233,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45713</v>
       </c>
@@ -3229,7 +3247,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45719</v>
       </c>
@@ -3243,7 +3261,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45720</v>
       </c>
@@ -3257,7 +3275,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45721</v>
       </c>
@@ -3271,7 +3289,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45722</v>
       </c>
@@ -3285,7 +3303,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45723</v>
       </c>
@@ -3299,7 +3317,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45726</v>
       </c>
@@ -3316,7 +3334,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45727</v>
       </c>
@@ -3330,7 +3348,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45728</v>
       </c>
@@ -3342,6 +3360,84 @@
       </c>
       <c r="E126" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B127" t="s">
+        <v>57</v>
+      </c>
+      <c r="C127">
+        <v>473</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B128">
+        <v>509</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45734</v>
+      </c>
+      <c r="B129">
+        <v>23</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45735</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B132">
+        <v>745</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3357,17 +3453,17 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="146.54296875" customWidth="1"/>
-    <col min="2" max="2" width="40.1796875" customWidth="1"/>
-    <col min="3" max="3" width="79.1796875" customWidth="1"/>
-    <col min="4" max="4" width="65.1796875" customWidth="1"/>
-    <col min="5" max="5" width="156.453125" customWidth="1"/>
-    <col min="6" max="6" width="64.54296875" customWidth="1"/>
+    <col min="1" max="1" width="146.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" customWidth="1"/>
+    <col min="5" max="5" width="156.42578125" customWidth="1"/>
+    <col min="6" max="6" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -3381,7 +3477,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3392,7 +3488,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -3403,7 +3499,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3411,12 +3507,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -3424,7 +3520,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -3435,7 +3531,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -3443,12 +3539,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3456,7 +3552,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -3470,7 +3566,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -3481,7 +3577,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -3492,7 +3588,7 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -3509,7 +3605,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -3526,7 +3622,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -3543,7 +3639,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -3560,7 +3656,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3574,7 +3670,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3588,7 +3684,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>813</v>
       </c>
@@ -3599,7 +3695,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -3613,7 +3709,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -3630,7 +3726,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -3644,7 +3740,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -3658,7 +3754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -3669,7 +3765,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -3680,7 +3776,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -3691,7 +3787,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -3705,7 +3801,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -3719,7 +3815,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>1793</v>
       </c>
@@ -3730,7 +3826,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -3744,7 +3840,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -3758,7 +3854,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -3772,7 +3868,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -3786,7 +3882,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>1046</v>
       </c>
@@ -3794,7 +3890,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -3808,7 +3904,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -3825,7 +3921,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -3839,7 +3935,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -3853,7 +3949,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -3867,7 +3963,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -3881,7 +3977,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -3895,7 +3991,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -3906,7 +4002,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -3917,7 +4013,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -3928,7 +4024,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -3939,7 +4035,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>514</v>
       </c>
@@ -3947,7 +4043,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -3958,7 +4054,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -3972,7 +4068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -3986,7 +4082,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -4000,7 +4096,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -4011,7 +4107,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -4022,7 +4118,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -4033,7 +4129,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -4044,7 +4140,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -4055,7 +4151,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -4069,7 +4165,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -4086,7 +4182,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -4103,7 +4199,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -4117,7 +4213,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -4128,7 +4224,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -4142,7 +4238,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -4153,7 +4249,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -4164,7 +4260,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>715</v>
       </c>
@@ -4175,7 +4271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>171</v>
       </c>
@@ -4183,7 +4279,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>250</v>
       </c>
@@ -4207,14 +4303,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="98.81640625" customWidth="1"/>
-    <col min="3" max="3" width="85.81640625" customWidth="1"/>
+    <col min="2" max="2" width="98.85546875" customWidth="1"/>
+    <col min="3" max="3" width="85.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4225,7 +4321,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45462</v>
       </c>
@@ -4233,7 +4329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45463</v>
       </c>
@@ -4241,7 +4337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45470</v>
       </c>
@@ -4249,7 +4345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45491</v>
       </c>
@@ -4257,7 +4353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45499</v>
       </c>
@@ -4265,7 +4361,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45502</v>
       </c>
@@ -4273,7 +4369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45513</v>
       </c>
@@ -4281,7 +4377,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45931</v>
       </c>
@@ -4289,7 +4385,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>225</v>
       </c>
@@ -4308,13 +4404,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.54296875" customWidth="1"/>
-    <col min="2" max="2" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -4322,27 +4418,27 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>259</v>
       </c>
@@ -4361,14 +4457,14 @@
       <selection activeCell="B35" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="119.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" customWidth="1"/>
+    <col min="1" max="1" width="119.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -4379,7 +4475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -4390,18 +4486,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="232.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="232.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -4412,7 +4508,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -4431,13 +4527,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="108.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="108.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -4445,7 +4541,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45555</v>
       </c>
@@ -4453,7 +4549,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45568</v>
       </c>
@@ -4461,7 +4557,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45572</v>
       </c>
@@ -4469,7 +4565,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45573</v>
       </c>
@@ -4477,7 +4573,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45652</v>
       </c>
@@ -4485,7 +4581,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45653</v>
       </c>
@@ -4506,12 +4602,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="73.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="73.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4531,7 +4627,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45654</v>
       </c>
@@ -4542,7 +4638,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45670</v>
       </c>
@@ -4550,7 +4646,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45671</v>
       </c>
@@ -4558,7 +4654,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45672</v>
       </c>
@@ -4566,7 +4662,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45673</v>
       </c>
@@ -4574,7 +4670,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45674</v>
       </c>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50F6D70-9901-4EC9-AAF9-0F2D2E4B59E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708106FE-4BA0-43F0-AB12-F7DF26B6AF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="275">
   <si>
     <t>Day</t>
   </si>
@@ -855,6 +855,18 @@
   </si>
   <si>
     <t xml:space="preserve">perfect trade as per gap up and  captured small profit in 1 min setup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I aimed for big move so captured small if this was a big one then I could have made good one so good apporach as no loss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I missed big move as I put sl 20 points if would have hold made big profit biken check your journel and hold it </t>
+  </si>
+  <si>
+    <t>I have captured big move today but as per my view I have to wait for one retracement and trade as it happens three time that market has taken my SL and moved</t>
+  </si>
+  <si>
+    <t>if market rally continues make an entry after one retest</t>
   </si>
 </sst>
 </file>
@@ -1415,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="60" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="60" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3438,6 +3450,53 @@
       </c>
       <c r="E132" t="s">
         <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B133">
+        <v>120</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B134">
+        <v>642</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B135">
+        <v>1327</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708106FE-4BA0-43F0-AB12-F7DF26B6AF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B689AEE6-39F4-4149-B29A-175B4DDE7CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="277">
   <si>
     <t>Day</t>
   </si>
@@ -867,6 +867,12 @@
   </si>
   <si>
     <t>if market rally continues make an entry after one retest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overtrqading is dangerous again don't come to square 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you don't know the market direction don't trade wait for perfect time </t>
   </si>
 </sst>
 </file>
@@ -894,7 +900,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,6 +943,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -950,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -961,6 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1427,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="60" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="60" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3497,6 +3510,25 @@
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>45742</v>
+      </c>
+      <c r="C137">
+        <v>1280</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="10" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B689AEE6-39F4-4149-B29A-175B4DDE7CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633C90B8-8BC9-47C4-B77F-5EEFC923B676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="279">
   <si>
     <t>Day</t>
   </si>
@@ -873,13 +873,19 @@
   </si>
   <si>
     <t xml:space="preserve">If you don't know the market direction don't trade wait for perfect time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take 1 trade per day for next 100 trade and see the result </t>
+  </si>
+  <si>
+    <t xml:space="preserve">taken risk in the middle of market and after hitting my SL market moved up  and this is a random trade so never trade randomly 1 rupee is also valuable </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,8 +905,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -949,6 +962,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -962,7 +981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -974,6 +993,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1440,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="60" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="65" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3529,6 +3549,25 @@
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45743</v>
+      </c>
+      <c r="C140">
+        <v>430</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633C90B8-8BC9-47C4-B77F-5EEFC923B676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D619CE2E-3633-4CA7-A6AE-E7A29FC63A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="281">
   <si>
     <t>Day</t>
   </si>
@@ -879,6 +879,12 @@
   </si>
   <si>
     <t xml:space="preserve">taken risk in the middle of market and after hitting my SL market moved up  and this is a random trade so never trade randomly 1 rupee is also valuable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">my initial 250 entry was perfect but I tried to modify my entry due to which I booked loss and second trade was perfect and went good as well I decided to hold to get 1:2 so again went cTC </t>
+  </si>
+  <si>
+    <t>Never ever plan due to emotion in trade see and trade not think and trade</t>
   </si>
 </sst>
 </file>
@@ -1460,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="65" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="65" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3568,6 +3574,20 @@
       </c>
       <c r="E140" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>280</v>
+      </c>
+      <c r="C141">
+        <v>1250</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D619CE2E-3633-4CA7-A6AE-E7A29FC63A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150E51D5-DD0F-4714-999D-0F12751F5689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="281">
   <si>
     <t>Day</t>
   </si>
@@ -875,9 +875,6 @@
     <t xml:space="preserve">If you don't know the market direction don't trade wait for perfect time </t>
   </si>
   <si>
-    <t xml:space="preserve">Take 1 trade per day for next 100 trade and see the result </t>
-  </si>
-  <si>
     <t xml:space="preserve">taken risk in the middle of market and after hitting my SL market moved up  and this is a random trade so never trade randomly 1 rupee is also valuable </t>
   </si>
   <si>
@@ -885,6 +882,9 @@
   </si>
   <si>
     <t>Never ever plan due to emotion in trade see and trade not think and trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Today I took promise holding my hand placing in my daughter head that for next 100 trade I will trade 1 per day and if I break this promise I will never ever succeed in trading </t>
   </si>
 </sst>
 </file>
@@ -1466,16 +1466,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A114" zoomScale="65" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="123.28515625" customWidth="1"/>
+    <col min="2" max="2" width="184" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="255.5703125" customWidth="1"/>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B139" s="11" t="s">
-        <v>277</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3573,12 +3573,15 @@
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45744</v>
+      </c>
       <c r="B141" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C141">
         <v>1250</v>
@@ -3587,7 +3590,12 @@
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150E51D5-DD0F-4714-999D-0F12751F5689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56DAC35-2976-40D0-9FB4-D8ABFD93718B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="285">
   <si>
     <t>Day</t>
   </si>
@@ -885,6 +885,18 @@
   </si>
   <si>
     <t xml:space="preserve">From Today I took promise holding my hand placing in my daughter head that for next 100 trade I will trade 1 per day and if I break this promise I will never ever succeed in trading </t>
+  </si>
+  <si>
+    <t>Missed big holding trade as I went to play cricket in Westbengal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single trade and logic behind this trade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No trade found as per my setup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">early exit due to panic and it gave big return  don't panic in life when you took trade </t>
   </si>
 </sst>
 </file>
@@ -1466,24 +1478,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="65" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="69" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
     <col min="2" max="2" width="184" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="255.5703125" customWidth="1"/>
-    <col min="6" max="6" width="133.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="255.54296875" customWidth="1"/>
+    <col min="6" max="6" width="133.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1518,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1526,7 +1538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45454</v>
       </c>
@@ -1546,7 +1558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45455</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45456</v>
       </c>
@@ -1586,7 +1598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45457</v>
       </c>
@@ -1606,7 +1618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45461</v>
       </c>
@@ -1626,7 +1638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45461</v>
       </c>
@@ -1646,7 +1658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45461</v>
       </c>
@@ -1666,7 +1678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45462</v>
       </c>
@@ -1686,7 +1698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45462</v>
       </c>
@@ -1706,7 +1718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45462</v>
       </c>
@@ -1726,7 +1738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45462</v>
       </c>
@@ -1746,7 +1758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45463</v>
       </c>
@@ -1766,7 +1778,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45463</v>
       </c>
@@ -1786,7 +1798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45463</v>
       </c>
@@ -1806,7 +1818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45469</v>
       </c>
@@ -1826,7 +1838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45470</v>
       </c>
@@ -1846,7 +1858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45470</v>
       </c>
@@ -1866,7 +1878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45470</v>
       </c>
@@ -1886,7 +1898,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45475</v>
       </c>
@@ -1903,7 +1915,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45475</v>
       </c>
@@ -1920,7 +1932,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45476</v>
       </c>
@@ -1940,7 +1952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45476</v>
       </c>
@@ -1957,7 +1969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45477</v>
       </c>
@@ -1974,7 +1986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45488</v>
       </c>
@@ -1994,7 +2006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45489</v>
       </c>
@@ -2014,7 +2026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45489</v>
       </c>
@@ -2034,7 +2046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45491</v>
       </c>
@@ -2054,7 +2066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45491</v>
       </c>
@@ -2074,7 +2086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45492</v>
       </c>
@@ -2091,7 +2103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45495</v>
       </c>
@@ -2111,7 +2123,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45496</v>
       </c>
@@ -2131,7 +2143,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45496</v>
       </c>
@@ -2151,7 +2163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45496</v>
       </c>
@@ -2171,7 +2183,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45497</v>
       </c>
@@ -2188,7 +2200,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45498</v>
       </c>
@@ -2205,7 +2217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45499</v>
       </c>
@@ -2219,7 +2231,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45502</v>
       </c>
@@ -2236,7 +2248,7 @@
         <v>0.41041666666666665</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45502</v>
       </c>
@@ -2253,7 +2265,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45503</v>
       </c>
@@ -2267,7 +2279,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45503</v>
       </c>
@@ -2281,7 +2293,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45504</v>
       </c>
@@ -2295,7 +2307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -2309,7 +2321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45505</v>
       </c>
@@ -2323,7 +2335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45506</v>
       </c>
@@ -2337,7 +2349,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45509</v>
       </c>
@@ -2351,7 +2363,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45510</v>
       </c>
@@ -2365,7 +2377,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45511</v>
       </c>
@@ -2379,7 +2391,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45512</v>
       </c>
@@ -2393,7 +2405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45512</v>
       </c>
@@ -2407,7 +2419,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45516</v>
       </c>
@@ -2421,7 +2433,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45517</v>
       </c>
@@ -2435,7 +2447,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45518</v>
       </c>
@@ -2449,7 +2461,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45520</v>
       </c>
@@ -2463,7 +2475,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45523</v>
       </c>
@@ -2480,7 +2492,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45621</v>
       </c>
@@ -2491,7 +2503,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45622</v>
       </c>
@@ -2505,7 +2517,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45623</v>
       </c>
@@ -2522,7 +2534,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45628</v>
       </c>
@@ -2536,7 +2548,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45629</v>
       </c>
@@ -2550,7 +2562,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45630</v>
       </c>
@@ -2564,7 +2576,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45631</v>
       </c>
@@ -2578,7 +2590,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45632</v>
       </c>
@@ -2592,7 +2604,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45635</v>
       </c>
@@ -2606,7 +2618,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45636</v>
       </c>
@@ -2620,7 +2632,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45642</v>
       </c>
@@ -2634,7 +2646,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45643</v>
       </c>
@@ -2648,7 +2660,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>45644</v>
       </c>
@@ -2662,7 +2674,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45645</v>
       </c>
@@ -2676,7 +2688,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>45646</v>
       </c>
@@ -2690,7 +2702,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>45649</v>
       </c>
@@ -2704,7 +2716,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>45650</v>
       </c>
@@ -2718,7 +2730,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>45652</v>
       </c>
@@ -2732,7 +2744,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>45653</v>
       </c>
@@ -2746,12 +2758,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>45656</v>
       </c>
@@ -2765,7 +2777,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>45657</v>
       </c>
@@ -2779,12 +2791,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>45658</v>
       </c>
@@ -2798,7 +2810,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>45663</v>
       </c>
@@ -2815,7 +2827,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>45664</v>
       </c>
@@ -2832,7 +2844,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>45665</v>
       </c>
@@ -2846,7 +2858,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>45666</v>
       </c>
@@ -2860,15 +2872,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>45667</v>
       </c>
@@ -2882,7 +2894,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>45670</v>
       </c>
@@ -2899,7 +2911,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B89" s="5" t="s">
         <v>208</v>
       </c>
@@ -2907,7 +2919,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>45671</v>
       </c>
@@ -2921,7 +2933,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>45672</v>
       </c>
@@ -2938,7 +2950,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>1262</v>
       </c>
@@ -2949,7 +2961,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>45674</v>
       </c>
@@ -2963,7 +2975,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>45677</v>
       </c>
@@ -2977,12 +2989,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B95" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>45678</v>
       </c>
@@ -2996,7 +3008,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>45679</v>
       </c>
@@ -3010,7 +3022,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>45680</v>
       </c>
@@ -3024,7 +3036,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>45681</v>
       </c>
@@ -3038,7 +3050,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>45684</v>
       </c>
@@ -3052,7 +3064,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>45685</v>
       </c>
@@ -3066,7 +3078,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>45686</v>
       </c>
@@ -3080,7 +3092,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>45687</v>
       </c>
@@ -3094,7 +3106,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>45691</v>
       </c>
@@ -3108,7 +3120,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>45692</v>
       </c>
@@ -3122,12 +3134,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B106" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>45693</v>
       </c>
@@ -3141,7 +3153,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>45694</v>
       </c>
@@ -3158,7 +3170,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>45695</v>
       </c>
@@ -3172,7 +3184,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>45698</v>
       </c>
@@ -3186,7 +3198,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>45699</v>
       </c>
@@ -3200,7 +3212,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>45700</v>
       </c>
@@ -3214,7 +3226,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>246</v>
       </c>
@@ -3228,7 +3240,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>45705</v>
       </c>
@@ -3242,7 +3254,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>45707</v>
       </c>
@@ -3253,7 +3265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>45708</v>
       </c>
@@ -3270,7 +3282,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>45709</v>
       </c>
@@ -3284,7 +3296,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>45713</v>
       </c>
@@ -3298,7 +3310,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>45719</v>
       </c>
@@ -3312,7 +3324,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>45720</v>
       </c>
@@ -3326,7 +3338,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>45721</v>
       </c>
@@ -3340,7 +3352,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>45722</v>
       </c>
@@ -3354,7 +3366,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>45723</v>
       </c>
@@ -3368,7 +3380,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>45726</v>
       </c>
@@ -3385,7 +3397,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>45727</v>
       </c>
@@ -3399,7 +3411,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>45728</v>
       </c>
@@ -3413,7 +3425,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>45729</v>
       </c>
@@ -3430,7 +3442,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>45733</v>
       </c>
@@ -3444,7 +3456,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>45734</v>
       </c>
@@ -3458,12 +3470,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>45735</v>
       </c>
@@ -3477,7 +3489,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>45736</v>
       </c>
@@ -3491,7 +3503,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>45737</v>
       </c>
@@ -3505,7 +3517,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>45740</v>
       </c>
@@ -3519,7 +3531,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>45741</v>
       </c>
@@ -3533,12 +3545,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>45742</v>
       </c>
@@ -3552,17 +3564,17 @@
         <v>275</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B138" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B139" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>45743</v>
       </c>
@@ -3576,7 +3588,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>45744</v>
       </c>
@@ -3593,9 +3605,68 @@
         <v>278</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>45749</v>
+      </c>
+      <c r="B144">
+        <v>919</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>45750</v>
+      </c>
+      <c r="B145" t="s">
+        <v>57</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>45751</v>
+      </c>
+      <c r="B146">
+        <v>271</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3611,17 +3682,17 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="146.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="79.140625" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" customWidth="1"/>
-    <col min="5" max="5" width="156.42578125" customWidth="1"/>
-    <col min="6" max="6" width="64.5703125" customWidth="1"/>
+    <col min="1" max="1" width="146.54296875" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" customWidth="1"/>
+    <col min="3" max="3" width="79.1796875" customWidth="1"/>
+    <col min="4" max="4" width="65.1796875" customWidth="1"/>
+    <col min="5" max="5" width="156.453125" customWidth="1"/>
+    <col min="6" max="6" width="64.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -3635,7 +3706,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3646,7 +3717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -3657,7 +3728,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3665,12 +3736,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -3678,7 +3749,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -3689,7 +3760,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -3697,12 +3768,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3710,7 +3781,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -3724,7 +3795,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -3735,7 +3806,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -3746,7 +3817,7 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -3763,7 +3834,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -3780,7 +3851,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -3797,7 +3868,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -3814,7 +3885,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3828,7 +3899,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3842,7 +3913,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>813</v>
       </c>
@@ -3853,7 +3924,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -3867,7 +3938,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -3884,7 +3955,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -3898,7 +3969,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -3912,7 +3983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -3923,7 +3994,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -3934,7 +4005,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -3945,7 +4016,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -3959,7 +4030,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -3973,7 +4044,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C31">
         <v>1793</v>
       </c>
@@ -3984,7 +4055,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -3998,7 +4069,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -4012,7 +4083,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -4026,7 +4097,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -4040,7 +4111,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C36">
         <v>1046</v>
       </c>
@@ -4048,7 +4119,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -4062,7 +4133,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -4079,7 +4150,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -4093,7 +4164,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -4107,7 +4178,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -4121,7 +4192,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -4135,7 +4206,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -4149,7 +4220,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -4160,7 +4231,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -4171,7 +4242,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -4182,7 +4253,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -4193,7 +4264,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C48">
         <v>514</v>
       </c>
@@ -4201,7 +4272,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -4212,7 +4283,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -4226,7 +4297,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -4240,7 +4311,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -4254,7 +4325,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -4265,7 +4336,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -4276,7 +4347,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -4287,7 +4358,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -4298,7 +4369,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -4309,7 +4380,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -4323,7 +4394,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -4340,7 +4411,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -4357,7 +4428,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -4371,7 +4442,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -4382,7 +4453,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -4396,7 +4467,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -4407,7 +4478,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -4418,7 +4489,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>715</v>
       </c>
@@ -4429,7 +4500,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C67">
         <v>171</v>
       </c>
@@ -4437,7 +4508,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C68">
         <v>250</v>
       </c>
@@ -4461,14 +4532,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="98.85546875" customWidth="1"/>
-    <col min="3" max="3" width="85.85546875" customWidth="1"/>
+    <col min="2" max="2" width="98.81640625" customWidth="1"/>
+    <col min="3" max="3" width="85.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4479,7 +4550,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45462</v>
       </c>
@@ -4487,7 +4558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45463</v>
       </c>
@@ -4495,7 +4566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45470</v>
       </c>
@@ -4503,7 +4574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45491</v>
       </c>
@@ -4511,7 +4582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45499</v>
       </c>
@@ -4519,7 +4590,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45502</v>
       </c>
@@ -4527,7 +4598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45513</v>
       </c>
@@ -4535,7 +4606,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45931</v>
       </c>
@@ -4543,7 +4614,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>225</v>
       </c>
@@ -4562,13 +4633,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.5703125" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="70.54296875" customWidth="1"/>
+    <col min="2" max="2" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -4576,27 +4647,27 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>259</v>
       </c>
@@ -4615,14 +4686,14 @@
       <selection activeCell="B35" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="119.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="119.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -4633,7 +4704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -4644,18 +4715,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="232.35" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="232.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -4666,7 +4737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -4685,13 +4756,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="108.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="108.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -4699,7 +4770,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45555</v>
       </c>
@@ -4707,7 +4778,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45568</v>
       </c>
@@ -4715,7 +4786,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45572</v>
       </c>
@@ -4723,7 +4794,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45573</v>
       </c>
@@ -4731,7 +4802,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45652</v>
       </c>
@@ -4739,7 +4810,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45653</v>
       </c>
@@ -4760,12 +4831,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="73.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="73.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4785,7 +4856,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45654</v>
       </c>
@@ -4796,7 +4867,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45670</v>
       </c>
@@ -4804,7 +4875,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45671</v>
       </c>
@@ -4812,7 +4883,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45672</v>
       </c>
@@ -4820,7 +4891,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45673</v>
       </c>
@@ -4828,7 +4899,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45674</v>
       </c>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56DAC35-2976-40D0-9FB4-D8ABFD93718B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F2F61A-2065-4F11-966F-640E25E5CE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="286">
   <si>
     <t>Day</t>
   </si>
@@ -897,6 +897,9 @@
   </si>
   <si>
     <t xml:space="preserve">early exit due to panic and it gave big return  don't panic in life when you took trade </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> so never ever compromised with SL because if you have capital you will win one day and never ever be in hurry to make entry as market moved 100 points after I see my first entry</t>
   </si>
 </sst>
 </file>
@@ -1478,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="69" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="B130" zoomScale="69" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3667,6 +3670,20 @@
       </c>
       <c r="E146" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C147">
+        <v>1118</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F2F61A-2065-4F11-966F-640E25E5CE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C318A24-886C-434E-8BC0-FDC911FBB7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="287">
   <si>
     <t>Day</t>
   </si>
@@ -900,6 +900,9 @@
   </si>
   <si>
     <t xml:space="preserve"> so never ever compromised with SL because if you have capital you will win one day and never ever be in hurry to make entry as market moved 100 points after I see my first entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I waited for my entry this is called as real trading </t>
   </si>
 </sst>
 </file>
@@ -1481,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B130" zoomScale="69" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" topLeftCell="E128" zoomScale="69" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3684,6 +3687,20 @@
       </c>
       <c r="E147" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>45755</v>
+      </c>
+      <c r="B148">
+        <v>3301</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C318A24-886C-434E-8BC0-FDC911FBB7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F482864-8B3A-4EFB-A1A6-79ABC9393A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="289">
   <si>
     <t>Day</t>
   </si>
@@ -903,6 +903,12 @@
   </si>
   <si>
     <t xml:space="preserve">I waited for my entry this is called as real trading </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I maintend my risk to reward ratio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I missed one entry where I saw potential reward but I missed completely </t>
   </si>
 </sst>
 </file>
@@ -1484,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E128" zoomScale="69" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" topLeftCell="B131" zoomScale="69" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3701,6 +3707,34 @@
       </c>
       <c r="E148" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C149">
+        <v>374</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C150">
+        <v>374</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F482864-8B3A-4EFB-A1A6-79ABC9393A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313EA53C-EE03-471D-852E-A3F12FDEFDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="289">
   <si>
     <t>Day</t>
   </si>
@@ -1490,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B131" zoomScale="69" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3735,6 +3735,23 @@
       </c>
       <c r="E150" t="s">
         <v>288</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>45762</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313EA53C-EE03-471D-852E-A3F12FDEFDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9943C5-44C7-4AC7-8555-1BB88D7EFBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="290">
   <si>
     <t>Day</t>
   </si>
@@ -909,6 +909,9 @@
   </si>
   <si>
     <t xml:space="preserve">I missed one entry where I saw potential reward but I missed completely </t>
+  </si>
+  <si>
+    <t>only today taken one extra trade first went up after taking my SL and second trade recovered my loss but I waited for move perfect but trade only one as promised</t>
   </si>
 </sst>
 </file>
@@ -1490,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B131" zoomScale="69" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" topLeftCell="B134" zoomScale="69" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3752,6 +3755,20 @@
       </c>
       <c r="E151" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>45763</v>
+      </c>
+      <c r="C152">
+        <v>780</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9943C5-44C7-4AC7-8555-1BB88D7EFBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA31A59B-88B1-4412-B1D4-EEEE1252C1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="291">
   <si>
     <t>Day</t>
   </si>
@@ -912,6 +912,9 @@
   </si>
   <si>
     <t>only today taken one extra trade first went up after taking my SL and second trade recovered my loss but I waited for move perfect but trade only one as promised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you know where to make entry but greed has made to enter early so never ever blindly make entry see the support and resisteance and trade </t>
   </si>
 </sst>
 </file>
@@ -1493,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B134" zoomScale="69" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3769,6 +3772,20 @@
       </c>
       <c r="E152" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>45764</v>
+      </c>
+      <c r="C153">
+        <v>470</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA31A59B-88B1-4412-B1D4-EEEE1252C1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD007B5-9DBE-4F23-945D-1B7F5E49C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="292">
   <si>
     <t>Day</t>
   </si>
@@ -914,7 +914,10 @@
     <t>only today taken one extra trade first went up after taking my SL and second trade recovered my loss but I waited for move perfect but trade only one as promised</t>
   </si>
   <si>
-    <t xml:space="preserve">you know where to make entry but greed has made to enter early so never ever blindly make entry see the support and resisteance and trade </t>
+    <t>you know where to make entry but greed has made to enter early so never ever blindly make entry see the support and resisteance and trade and I missed big move as market moved so much in one way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first trade was according to my setup but second trade I knowingly entered but no premium movement so booked loss </t>
   </si>
 </sst>
 </file>
@@ -1496,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B134" zoomScale="69" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" topLeftCell="B138" zoomScale="69" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3786,6 +3789,20 @@
       </c>
       <c r="E153" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C154">
+        <v>900</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNEPAL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://e2open-my.sharepoint.com/personal/biken_nepal_e2open_com/Documents/Desktop/premilafolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD007B5-9DBE-4F23-945D-1B7F5E49C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{DFD007B5-9DBE-4F23-945D-1B7F5E49C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156432B0-8618-437A-B8FE-FA8BAA283E46}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="294">
   <si>
     <t>Day</t>
   </si>
@@ -918,6 +918,12 @@
   </si>
   <si>
     <t xml:space="preserve">first trade was according to my setup but second trade I knowingly entered but no premium movement so booked loss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Today I am trading on the basis of one retracement and making an entry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't know how I will make money when I don't maintain risk to reward thing in my trading again same mistak due to fear loss big move in bank nifty </t>
   </si>
 </sst>
 </file>
@@ -952,7 +958,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1007,6 +1013,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1020,7 +1032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1033,6 +1045,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1234,6 +1247,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1499,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B138" zoomScale="69" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView tabSelected="1" topLeftCell="B139" zoomScale="69" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3795,6 +3812,9 @@
       <c r="A154" s="1">
         <v>45768</v>
       </c>
+      <c r="B154" s="12" t="s">
+        <v>292</v>
+      </c>
       <c r="C154">
         <v>900</v>
       </c>
@@ -3803,6 +3823,20 @@
       </c>
       <c r="E154" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B155">
+        <v>217</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://e2open-my.sharepoint.com/personal/biken_nepal_e2open_com/Documents/Desktop/premilafolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{DFD007B5-9DBE-4F23-945D-1B7F5E49C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156432B0-8618-437A-B8FE-FA8BAA283E46}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{DFD007B5-9DBE-4F23-945D-1B7F5E49C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3FEC55B-6A91-4714-99AC-DFD5BB2B8909}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,7 @@
     <sheet name="swing_strategy" sheetId="4" r:id="rId2"/>
     <sheet name="learnings" sheetId="2" r:id="rId3"/>
     <sheet name="market_psyco" sheetId="6" r:id="rId4"/>
-    <sheet name="Technicals_learning" sheetId="3" r:id="rId5"/>
-    <sheet name="index tracking" sheetId="5" r:id="rId6"/>
-    <sheet name="market_sR" sheetId="7" r:id="rId7"/>
+    <sheet name="retracement_example" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="270">
   <si>
     <t>Day</t>
   </si>
@@ -104,27 +102,6 @@
     <t>Never exit in fear take proper stoploss and never be in hurry to take profit as well as it may give 1:2 profit as well</t>
   </si>
   <si>
-    <t>Technical_learning for improving and using in trade</t>
-  </si>
-  <si>
-    <t>SMA,EMA,DMA,WMA,MAA/SMA and EMA are the two moving average that is widely used for building a strategy</t>
-  </si>
-  <si>
-    <t>Fast Ema</t>
-  </si>
-  <si>
-    <t>Slow Ema</t>
-  </si>
-  <si>
-    <t>7,21,50,50</t>
-  </si>
-  <si>
-    <t>21,50,100,200</t>
-  </si>
-  <si>
-    <t>use 7,21 for intraday trading and use 50,200 for stock trading</t>
-  </si>
-  <si>
     <t>The trade went against my rule but I followed my rule</t>
   </si>
   <si>
@@ -137,9 +114,6 @@
     <t>Take only one trade per day for next 20 days</t>
   </si>
   <si>
-    <t>Try to know exact entr in premium charts as it is little confusing</t>
-  </si>
-  <si>
     <t>The strategy perfectly worked</t>
   </si>
   <si>
@@ -185,12 +159,6 @@
     <t>I didn't use my trading setup rule so resulted in loss</t>
   </si>
   <si>
-    <t>Total capital as of 7/26/2024</t>
-  </si>
-  <si>
-    <t>only principle amount no profit included</t>
-  </si>
-  <si>
     <t>This day was my big profit day but due to groww error I haven't be profited</t>
   </si>
   <si>
@@ -326,9 +294,6 @@
     <t>I haven't followed by rule so I loss/This is 5th time that you broke you r rule so pls don't break it again ever</t>
   </si>
   <si>
-    <t>This Is what you need to wait for</t>
-  </si>
-  <si>
     <t>I made loss because I didn't follow my rule</t>
   </si>
   <si>
@@ -389,15 +354,6 @@
     <t>nonsense biken why to trade with emotion/Try ti take trade after 950 alwasys</t>
   </si>
   <si>
-    <t>Index analysis and observation</t>
-  </si>
-  <si>
-    <t>obesrvation</t>
-  </si>
-  <si>
-    <t>all index has moved up by 1% tht is 300 +  point</t>
-  </si>
-  <si>
     <t>just wait for abit small sl and do trade</t>
   </si>
   <si>
@@ -416,9 +372,6 @@
     <t>Index has fallan nearly 500 points so taken one trade and made good profit</t>
   </si>
   <si>
-    <t>Index has fallen nearly 500 points  so I am keeping eye</t>
-  </si>
-  <si>
     <t>I would have waited and seen some other stocks as today index was no that good but still I would have made 600 but waited bit so resulted in loss</t>
   </si>
   <si>
@@ -431,12 +384,6 @@
     <t>my trade was bit early so I faced loss today and the index as well moved well and was bit volitle/did you check the support level of stock</t>
   </si>
   <si>
-    <t xml:space="preserve">market was bit volitle </t>
-  </si>
-  <si>
-    <t>market has recovered 200 + points</t>
-  </si>
-  <si>
     <t xml:space="preserve">overtradin as resulted in big loss so only max two trade </t>
   </si>
   <si>
@@ -620,18 +567,6 @@
     <t>In Trading risk management is the biggest and biggest capital and learning ever you will know till the end career so never ever forget</t>
   </si>
   <si>
-    <t>market was in a compressed zone so day after it there was a breakout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">market was In a bit breakout in the morning session but again was consolidating in day time no move/wait and watch for next day </t>
-  </si>
-  <si>
-    <t>Day-time frame</t>
-  </si>
-  <si>
-    <t>23600 as per three days support and 23800 as per 1 day support</t>
-  </si>
-  <si>
     <t>try to hold your trade for at least 1:3 reward and plan accordingly as this time I booked 1:1.8 profit</t>
   </si>
   <si>
@@ -674,12 +609,6 @@
     <t xml:space="preserve">Never ever be in hurry to take trade as per your thinking alwasys wait for setup and support and resistence to break </t>
   </si>
   <si>
-    <t xml:space="preserve">market opened gap down and it moved abit up and again fell down later </t>
-  </si>
-  <si>
-    <t xml:space="preserve">market opened gap up and moved abit up and down again </t>
-  </si>
-  <si>
     <t>it was perfect setup as per my thinking</t>
   </si>
   <si>
@@ -689,36 +618,12 @@
     <t>I placed SL perfectly but I always missed to book big profit so try to hold trade abit longer                                                    165</t>
   </si>
   <si>
-    <t xml:space="preserve">maket opengap up and went abit up and moved down again </t>
-  </si>
-  <si>
-    <t xml:space="preserve">market open gap up and went abit up and moved down again </t>
-  </si>
-  <si>
     <t>patience is the key and level of support and resistence is also important</t>
   </si>
   <si>
     <t xml:space="preserve">patience is the key and level of support and resistence is also important/always mark market support and resistence well ahead of market </t>
   </si>
   <si>
-    <t>market open gap down and went abit up and went down again</t>
-  </si>
-  <si>
-    <t>future support and resistent</t>
-  </si>
-  <si>
-    <t>20/01/2025</t>
-  </si>
-  <si>
-    <t>Nifty</t>
-  </si>
-  <si>
-    <t>sensex</t>
-  </si>
-  <si>
-    <t>BankNifty</t>
-  </si>
-  <si>
     <t>if you see this end patter keep in mind</t>
   </si>
   <si>
@@ -924,6 +829,27 @@
   </si>
   <si>
     <t xml:space="preserve">I don't know how I will make money when I don't maintain risk to reward thing in my trading again same mistak due to fear loss big move in bank nifty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">always follow your level don't be hurry to make entry This happens more time why to deviate from your point </t>
+  </si>
+  <si>
+    <t>stick to you plan as market moved so well if you have waited a little bit wow see how your early entry has ruined you and second trade did recovered loss but I waite at least 1:2 but it didn't gave me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why I am failing in trading is because of early entry as I said trade with retracement </t>
+  </si>
+  <si>
+    <t>Evert mistake can be corrected  and every early entry can be corrected see next page retracement chart</t>
+  </si>
+  <si>
+    <t>uptrend</t>
+  </si>
+  <si>
+    <t>downtrend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stick to my plan and it worked perfectely so always wait for our setup and trade you will be greatest trader one day </t>
   </si>
 </sst>
 </file>
@@ -1118,21 +1044,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2034540</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2384031</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>527308</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31846</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A48570-181C-E43E-1F3F-FE50B6FE219C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D504F3-210A-AE50-9CD9-5A3851D906B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1148,8 +1074,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="358140"/>
-          <a:ext cx="2034540" cy="2384031"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5023108" cy="1873346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1160,23 +1086,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4066667</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>17006</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19114</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95302</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E2EE9C-D80B-97D3-0CA6-89C18A565D5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A8A2D7-BFB9-EB57-FFA4-1429FBA2DE4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,8 +1118,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5501640"/>
-          <a:ext cx="4066667" cy="1114286"/>
+          <a:off x="8153400" y="920750"/>
+          <a:ext cx="1238314" cy="1016052"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1204,23 +1130,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>873329</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>129030</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>292178</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177838</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CE7787-3B8C-E2EA-6100-FA5C37392E01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE05E93-E057-4950-FA48-DABA43D8C82F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1236,8 +1162,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="541020" y="6675120"/>
-          <a:ext cx="8523809" cy="4076190"/>
+          <a:off x="8763000" y="2393950"/>
+          <a:ext cx="1511378" cy="730288"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1516,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B139" zoomScale="69" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1553,7 +1479,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1813,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1833,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1853,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1873,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1893,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1913,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1933,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1950,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1967,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1987,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -2004,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -2021,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -2041,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -2061,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -2081,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -2101,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -2121,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -2138,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -2158,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2178,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -2198,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2218,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2235,7 +2161,7 @@
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2252,7 +2178,7 @@
         <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -2266,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -2280,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G39" s="2">
         <v>0.41041666666666665</v>
@@ -2297,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G40" s="2">
         <v>0.42708333333333331</v>
@@ -2314,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2328,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2342,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2356,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2364,13 +2290,13 @@
         <v>45505</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2384,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2398,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2412,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -2426,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -2440,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -2454,7 +2380,7 @@
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -2468,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -2482,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -2496,7 +2422,7 @@
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -2510,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -2524,10 +2450,10 @@
         <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -2538,7 +2464,7 @@
         <v>268</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -2549,10 +2475,10 @@
         <v>256</v>
       </c>
       <c r="E58" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="F58" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -2566,10 +2492,10 @@
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F59" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -2583,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -2597,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -2611,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -2625,7 +2551,7 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -2639,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -2653,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -2667,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -2681,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -2695,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -2709,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -2723,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -2737,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -2751,7 +2677,7 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -2765,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -2779,7 +2705,7 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -2793,12 +2719,12 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -2812,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -2826,12 +2752,12 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -2845,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -2856,13 +2782,13 @@
         <v>510</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -2873,13 +2799,13 @@
         <v>1317</v>
       </c>
       <c r="C82" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D82">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -2893,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -2907,7 +2833,7 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -2915,7 +2841,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -2929,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -2940,21 +2866,21 @@
         <v>200</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D88">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B89" s="5" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="E89" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -2968,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -2976,16 +2902,16 @@
         <v>45672</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="C91" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D91">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -2996,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -3010,7 +2936,7 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -3024,12 +2950,12 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B95" s="7" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -3043,7 +2969,7 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -3057,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -3071,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -3085,7 +3011,7 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -3099,7 +3025,7 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -3113,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -3127,7 +3053,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -3141,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -3155,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -3169,12 +3095,12 @@
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B106" s="8" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -3188,7 +3114,7 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -3196,7 +3122,7 @@
         <v>45694</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="C108">
         <v>18</v>
@@ -3205,7 +3131,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -3219,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -3233,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -3247,7 +3173,7 @@
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -3261,12 +3187,12 @@
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="C113">
         <v>532</v>
@@ -3275,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -3289,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -3297,7 +3223,7 @@
         <v>45707</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -3308,7 +3234,7 @@
         <v>45708</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -3317,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -3325,13 +3251,13 @@
         <v>45709</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="D117">
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -3345,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -3359,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -3373,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -3387,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
@@ -3401,7 +3327,7 @@
         <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -3415,7 +3341,7 @@
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -3423,7 +3349,7 @@
         <v>45726</v>
       </c>
       <c r="B124" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="C124">
         <v>1352</v>
@@ -3432,7 +3358,7 @@
         <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -3446,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -3460,7 +3386,7 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -3468,7 +3394,7 @@
         <v>45729</v>
       </c>
       <c r="B127" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C127">
         <v>473</v>
@@ -3477,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -3491,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -3505,12 +3431,12 @@
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -3524,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -3538,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
@@ -3552,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -3566,7 +3492,7 @@
         <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -3580,12 +3506,12 @@
         <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
@@ -3599,17 +3525,17 @@
         <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B138" s="10" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B139" s="11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -3623,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -3631,7 +3557,7 @@
         <v>45744</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C141">
         <v>1250</v>
@@ -3640,12 +3566,12 @@
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -3659,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -3673,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -3681,7 +3607,7 @@
         <v>45750</v>
       </c>
       <c r="B145" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3690,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -3704,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -3718,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -3732,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
@@ -3746,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
@@ -3760,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
@@ -3777,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -3791,7 +3717,7 @@
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -3805,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -3813,7 +3739,7 @@
         <v>45768</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="C154">
         <v>900</v>
@@ -3822,7 +3748,7 @@
         <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
@@ -3836,7 +3762,38 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B156" t="s">
+        <v>266</v>
+      </c>
+      <c r="C156">
+        <v>1007</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B157">
+        <v>383</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3864,96 +3821,96 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C2">
         <v>7990</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C3">
         <v>4600</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -3962,12 +3919,12 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <v>270</v>
@@ -3978,7 +3935,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C14">
         <v>560</v>
@@ -3989,27 +3946,27 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <v>1124</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1">
         <v>45526</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C16">
         <v>1600</v>
@@ -4018,12 +3975,12 @@
         <v>45527</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B17">
         <v>2800</v>
@@ -4032,32 +3989,32 @@
         <v>45530</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1">
         <v>45531</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C19">
         <v>5266</v>
@@ -4066,12 +4023,12 @@
         <v>45532</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <v>260</v>
@@ -4080,7 +4037,7 @@
         <v>45533</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -4091,12 +4048,12 @@
         <v>45533</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B22">
         <v>704</v>
@@ -4105,15 +4062,15 @@
         <v>45537</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>677</v>
@@ -4122,12 +4079,12 @@
         <v>45538</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B24">
         <v>993</v>
@@ -4136,12 +4093,12 @@
         <v>45539</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C25">
         <v>1160</v>
@@ -4150,12 +4107,12 @@
         <v>45540</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C26">
         <v>455</v>
@@ -4166,7 +4123,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C27">
         <v>608</v>
@@ -4177,7 +4134,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B28">
         <v>633</v>
@@ -4188,7 +4145,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C29">
         <v>240</v>
@@ -4197,12 +4154,12 @@
         <v>45546</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C30">
         <v>1134</v>
@@ -4211,7 +4168,7 @@
         <v>45547</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -4222,12 +4179,12 @@
         <v>45548</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B32">
         <v>380</v>
@@ -4236,15 +4193,15 @@
         <v>45551</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>800</v>
@@ -4255,7 +4212,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B34">
         <v>993</v>
@@ -4264,12 +4221,12 @@
         <v>45553</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B35">
         <v>1800</v>
@@ -4278,7 +4235,7 @@
         <v>45554</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -4291,7 +4248,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B37">
         <v>1219</v>
@@ -4300,12 +4257,12 @@
         <v>45558</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B38">
         <v>350</v>
@@ -4317,26 +4274,26 @@
         <v>45559</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D39" s="1">
         <v>45560</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C40">
         <v>1800</v>
@@ -4345,12 +4302,12 @@
         <v>45568</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B41">
         <v>500</v>
@@ -4359,12 +4316,12 @@
         <v>45572</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B42">
         <v>1200</v>
@@ -4373,12 +4330,12 @@
         <v>45573</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B43">
         <v>2000</v>
@@ -4387,12 +4344,12 @@
         <v>45574</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C44">
         <v>450</v>
@@ -4403,7 +4360,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B45">
         <v>1122</v>
@@ -4414,7 +4371,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C46">
         <v>802</v>
@@ -4425,7 +4382,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C47">
         <v>958</v>
@@ -4444,7 +4401,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B49">
         <v>900</v>
@@ -4455,7 +4412,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B50">
         <v>1300</v>
@@ -4464,18 +4421,18 @@
         <v>45586</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B51">
         <v>350</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D51" s="1">
         <v>45587</v>
@@ -4483,7 +4440,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C52">
         <v>448</v>
@@ -4492,12 +4449,12 @@
         <v>45588</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C53">
         <v>668</v>
@@ -4508,7 +4465,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C54">
         <v>266</v>
@@ -4519,7 +4476,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B55">
         <v>1400</v>
@@ -4530,7 +4487,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C56">
         <v>491</v>
@@ -4541,7 +4498,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C57">
         <v>477</v>
@@ -4552,13 +4509,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B58">
         <v>2000</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D58" s="1">
         <v>45596</v>
@@ -4566,10 +4523,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C59">
         <v>1004</v>
@@ -4578,35 +4535,35 @@
         <v>45603</v>
       </c>
       <c r="E59" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B60">
         <v>932</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D60" s="1">
         <v>45607</v>
       </c>
       <c r="E60" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B61">
         <v>774</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D61" s="1">
         <v>45608</v>
@@ -4614,18 +4571,18 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B62">
         <v>888</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C63">
         <v>254</v>
@@ -4634,12 +4591,12 @@
         <v>45615</v>
       </c>
       <c r="E63" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C64">
         <v>208</v>
@@ -4650,7 +4607,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B65">
         <v>110</v>
@@ -4667,7 +4624,7 @@
         <v>45618</v>
       </c>
       <c r="E66" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -4686,7 +4643,7 @@
         <v>45621</v>
       </c>
       <c r="E68" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4698,7 +4655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF633CDF-D15F-4F5C-A64D-BD056690D8FA}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -4717,7 +4674,7 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4733,7 +4690,7 @@
         <v>45463</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4741,7 +4698,7 @@
         <v>45470</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4749,7 +4706,7 @@
         <v>45491</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4757,7 +4714,7 @@
         <v>45499</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4765,7 +4722,7 @@
         <v>45502</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4773,7 +4730,7 @@
         <v>45513</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4781,12 +4738,12 @@
         <v>45931</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4797,49 +4754,59 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95138E30-1029-4C6F-9821-9A3DF913F049}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.54296875" customWidth="1"/>
+    <col min="1" max="1" width="105.26953125" customWidth="1"/>
     <col min="2" max="2" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -4849,235 +4816,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE0C9B5-2CDA-4C01-BA3F-667004FCD6E8}">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A0336B-8855-410D-B57E-240C1FAA1CAB}">
+  <dimension ref="M8:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B33:B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="119.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" customWidth="1"/>
+    <col min="1" max="1" width="46.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="232.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>265992</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>94</v>
+    <row r="8" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="M8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="N15" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8CB6FB-2336-466F-BD38-F2C1925A24AA}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="108.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>45555</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>45568</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>45572</v>
-      </c>
-      <c r="B4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>45573</v>
-      </c>
-      <c r="B5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>45652</v>
-      </c>
-      <c r="B6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>45653</v>
-      </c>
-      <c r="B7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53559BB9-016E-4ABB-B04F-8399F5CB9506}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="73.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="37.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>45654</v>
-      </c>
-      <c r="B2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>45670</v>
-      </c>
-      <c r="B3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>45671</v>
-      </c>
-      <c r="B4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>45672</v>
-      </c>
-      <c r="B5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>45673</v>
-      </c>
-      <c r="B6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>45674</v>
-      </c>
-      <c r="B7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://e2open-my.sharepoint.com/personal/biken_nepal_e2open_com/Documents/Desktop/premilafolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{DFD007B5-9DBE-4F23-945D-1B7F5E49C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3FEC55B-6A91-4714-99AC-DFD5BB2B8909}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{DFD007B5-9DBE-4F23-945D-1B7F5E49C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8A38909-5124-4FDA-A176-149A8D1C4DB0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="271">
   <si>
     <t>Day</t>
   </si>
@@ -850,6 +850,9 @@
   </si>
   <si>
     <t xml:space="preserve">I stick to my plan and it worked perfectely so always wait for our setup and trade you will be greatest trader one day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My approach was perfect but market took my SL and went up to 90 points </t>
   </si>
 </sst>
 </file>
@@ -1442,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B139" zoomScale="69" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="69" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3794,6 +3797,20 @@
       </c>
       <c r="E157" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>45772</v>
+      </c>
+      <c r="C158">
+        <v>438</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://e2open-my.sharepoint.com/personal/biken_nepal_e2open_com/Documents/Desktop/premilafolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{DFD007B5-9DBE-4F23-945D-1B7F5E49C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8A38909-5124-4FDA-A176-149A8D1C4DB0}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{DFD007B5-9DBE-4F23-945D-1B7F5E49C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB104DD5-7579-4F35-A146-AF8F2E6BBC1E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="273">
   <si>
     <t>Day</t>
   </si>
@@ -840,9 +840,6 @@
     <t xml:space="preserve">Why I am failing in trading is because of early entry as I said trade with retracement </t>
   </si>
   <si>
-    <t>Evert mistake can be corrected  and every early entry can be corrected see next page retracement chart</t>
-  </si>
-  <si>
     <t>uptrend</t>
   </si>
   <si>
@@ -852,7 +849,16 @@
     <t xml:space="preserve">I stick to my plan and it worked perfectely so always wait for our setup and trade you will be greatest trader one day </t>
   </si>
   <si>
-    <t xml:space="preserve">My approach was perfect but market took my SL and went up to 90 points </t>
+    <t>check OI and IV and ORB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My approach was perfect but market took my SL and went up to 400 points </t>
+  </si>
+  <si>
+    <t>My Trade was perfect as per my setup and gave me 1:2 reward but this time I waited least 40 point and later market gave after hitting my SL 100 poinst</t>
+  </si>
+  <si>
+    <t>Evert mistake can be corrected  and every early entry can be corrected see next page retracement chart and from here I am considering 100 trade as 1 per day</t>
   </si>
 </sst>
 </file>
@@ -1445,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="69" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="B140" zoomScale="69" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3773,7 +3779,7 @@
         <v>45770</v>
       </c>
       <c r="B156" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C156">
         <v>1007</v>
@@ -3796,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
@@ -3811,6 +3817,20 @@
       </c>
       <c r="E158" t="s">
         <v>270</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C159">
+        <v>374</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4670,10 +4690,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF633CDF-D15F-4F5C-A64D-BD056690D8FA}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4761,6 +4781,11 @@
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4847,12 +4872,12 @@
   <sheetData>
     <row r="8" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="13:14" x14ac:dyDescent="0.35">
       <c r="N15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://e2open-my.sharepoint.com/personal/biken_nepal_e2open_com/Documents/Desktop/premilafolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{DFD007B5-9DBE-4F23-945D-1B7F5E49C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB104DD5-7579-4F35-A146-AF8F2E6BBC1E}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{DFD007B5-9DBE-4F23-945D-1B7F5E49C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE3B101F-0EC4-45B7-8CA1-D3B04C891A60}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="learnings" sheetId="2" r:id="rId3"/>
     <sheet name="market_psyco" sheetId="6" r:id="rId4"/>
     <sheet name="retracement_example" sheetId="7" r:id="rId5"/>
+    <sheet name="Days" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="282">
   <si>
     <t>Day</t>
   </si>
@@ -859,6 +860,33 @@
   </si>
   <si>
     <t>Evert mistake can be corrected  and every early entry can be corrected see next page retracement chart and from here I am considering 100 trade as 1 per day</t>
+  </si>
+  <si>
+    <t>I missed one big trade and againg taken two trade later both hit my SL so it's a good try anyway</t>
+  </si>
+  <si>
+    <t>first trade was ok but second trade is gambling so no gambling  if you trade too always follow your rule</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">again I made two mistake first one was ok as per risk but second trade is not that satisfying control your psychology my marking was perfect in second trade but I entered lately as per chart comparison so try to enter at same point as market move 80 points down </t>
+  </si>
+  <si>
+    <t xml:space="preserve">only single trade no more two trade again don't break rule </t>
   </si>
 </sst>
 </file>
@@ -1451,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B140" zoomScale="69" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="69" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3831,6 +3859,40 @@
       </c>
       <c r="E159" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B160" t="s">
+        <v>274</v>
+      </c>
+      <c r="C160">
+        <v>640</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B161" t="s">
+        <v>281</v>
+      </c>
+      <c r="C161">
+        <v>655</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4862,7 +4924,7 @@
   <dimension ref="M8:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4884,4 +4946,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5BE058-9EDD-429C-B7EA-C488490DAF6D}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://e2open-my.sharepoint.com/personal/biken_nepal_e2open_com/Documents/Desktop/premilafolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{DFD007B5-9DBE-4F23-945D-1B7F5E49C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE3B101F-0EC4-45B7-8CA1-D3B04C891A60}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{DFD007B5-9DBE-4F23-945D-1B7F5E49C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C48272C-811E-4EEC-BF9D-4E3C8A5C9440}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="290">
   <si>
     <t>Day</t>
   </si>
@@ -887,6 +887,30 @@
   </si>
   <si>
     <t xml:space="preserve">only single trade no more two trade again don't break rule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the first trade should be of put side and I am observing the market </t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>market holiday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>I traded as per mysetup and it did work today as there was no hurdle</t>
+  </si>
+  <si>
+    <t>this is call trading don't chase setup let it comes to you</t>
+  </si>
+  <si>
+    <t>I traded as per my emotion fuck again why biken why</t>
+  </si>
+  <si>
+    <t>same mistake again chasing trade instead of coming trade your wau fuck man when you will control all these emoitions you can never be a trader if you do all these small mistake again and again don't regret alter saying why emotional trade so be careful as it may give pain if not traded as per pplan</t>
   </si>
 </sst>
 </file>
@@ -1479,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="69" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView tabSelected="1" topLeftCell="B141" zoomScale="69" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3893,6 +3917,34 @@
       </c>
       <c r="E161" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>45779</v>
+      </c>
+      <c r="B162">
+        <v>832</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>45782</v>
+      </c>
+      <c r="C163">
+        <v>503</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4950,10 +5002,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5BE058-9EDD-429C-B7EA-C488490DAF6D}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4961,9 +5013,10 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12.36328125" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="68.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>275</v>
       </c>
@@ -4977,7 +5030,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -4991,7 +5044,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>278</v>
       </c>
@@ -5005,7 +5058,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>279</v>
       </c>
@@ -5017,6 +5070,57 @@
       </c>
       <c r="D4">
         <v>655</v>
+      </c>
+      <c r="F4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45662</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45693</v>
+      </c>
+      <c r="C6">
+        <v>832</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45782</v>
+      </c>
+      <c r="D8">
+        <v>503</v>
+      </c>
+      <c r="F8" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://e2open-my.sharepoint.com/personal/biken_nepal_e2open_com/Documents/Desktop/premilafolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{DFD007B5-9DBE-4F23-945D-1B7F5E49C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C48272C-811E-4EEC-BF9D-4E3C8A5C9440}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="13_ncr:1_{DFD007B5-9DBE-4F23-945D-1B7F5E49C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36E1A84B-7BB1-442F-8BCC-428A4B7FE119}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intraday" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="318">
   <si>
     <t>Day</t>
   </si>
@@ -911,6 +911,90 @@
   </si>
   <si>
     <t>same mistake again chasing trade instead of coming trade your wau fuck man when you will control all these emoitions you can never be a trader if you do all these small mistake again and again don't regret alter saying why emotional trade so be careful as it may give pain if not traded as per pplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taken small risk but I should have taken 5 min before at the resistance level my strategy was perfect but made wrong execution timing so check that as well </t>
+  </si>
+  <si>
+    <t>I should have check the resistance and support zone but traded seeing other video so it's bad day no worry biken</t>
+  </si>
+  <si>
+    <t>Thurdsay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I waited for my setup from morning but market didn't hit that point later gave 200 move I missed it </t>
+  </si>
+  <si>
+    <t>I waited for my setup and it didn't hit my entry point later I took small risk to downside that went worng // when evere you see near to resistance point just make entry  as per my obesrvation market is not hiting that point often and other point is if it' breaking resistance or previous candle wait for closing of candle if that candles goes big let it go don't regret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I traded well as per my setup follow this rule in long run </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sometime you see trade with small SL why don't you take those trade when you know there is potential of moving up so try to see those opportunity  if you loss you will loss smal but if win big win as today if I would have made entry I would have made 8k  in second trade as well i see 5 point sl still took when market reach top </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I saw big profit trade but frear has taken place and later given big SL and it went against me when there is smal SL try to take trade there itself remember </t>
+  </si>
+  <si>
+    <t>The only reason these trade went against me is because of wrong enty I know wehre to make entry but fear has let me enter way above  so when ever you are trying to make tnery see the support point in both</t>
+  </si>
+  <si>
+    <t>13/05/2025</t>
+  </si>
+  <si>
+    <t>First trade was completely failure from your end but second trade went well but I waited for longer</t>
+  </si>
+  <si>
+    <t>13/5/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one was abit confusing trade as I was looking something but I failed again </t>
+  </si>
+  <si>
+    <t>Tuesday I won't trade on sensex</t>
+  </si>
+  <si>
+    <t>14/5/2025</t>
+  </si>
+  <si>
+    <t>14/05/2025</t>
+  </si>
+  <si>
+    <t>it was one resistance zone put entry</t>
+  </si>
+  <si>
+    <t>15/05/2025</t>
+  </si>
+  <si>
+    <t>market may open abit high as per gift nifty and may come down/// market open just below of previous day closing and moved down so know the perspective</t>
+  </si>
+  <si>
+    <t>15/5/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I did missed big and big trades because of my mindset as promised will not trade later again tried one trade went agianst me///before too saw good trade but wanted to make mistake later so did made </t>
+  </si>
+  <si>
+    <t>16/5/2025</t>
+  </si>
+  <si>
+    <t>was a risky trade but I did in slow market</t>
+  </si>
+  <si>
+    <t>19/5/2025</t>
+  </si>
+  <si>
+    <t>I saw big holding trade so just make entry when market is sideway and try to see magic</t>
+  </si>
+  <si>
+    <t>16/05/2025</t>
+  </si>
+  <si>
+    <t>19/05/2025</t>
+  </si>
+  <si>
+    <t>taken small risk with big reward</t>
   </si>
 </sst>
 </file>
@@ -1233,6 +1317,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209623</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>108031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7CAE7D-64A3-C8C2-89FF-29B34D6BBDC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="3314700"/>
+          <a:ext cx="1428823" cy="1581231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1503,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B141" zoomScale="69" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView topLeftCell="A147" zoomScale="65" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3945,6 +4073,149 @@
       </c>
       <c r="E163" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>45813</v>
+      </c>
+      <c r="C164">
+        <v>205</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>45843</v>
+      </c>
+      <c r="C165">
+        <v>363</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>45874</v>
+      </c>
+      <c r="C166">
+        <v>386</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>45905</v>
+      </c>
+      <c r="B167">
+        <v>873</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>45996</v>
+      </c>
+      <c r="B168" t="s">
+        <v>298</v>
+      </c>
+      <c r="C168">
+        <v>826</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C169">
+        <v>877</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B170">
+        <v>522</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C171">
+        <v>378</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B172">
+        <v>577</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C173">
+        <v>321</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4975,8 +5246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A0336B-8855-410D-B57E-240C1FAA1CAB}">
   <dimension ref="M8:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5002,10 +5273,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5BE058-9EDD-429C-B7EA-C488490DAF6D}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5013,7 +5284,7 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12.36328125" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="68.54296875" customWidth="1"/>
+    <col min="6" max="6" width="132.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -5123,6 +5394,137 @@
         <v>288</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45813</v>
+      </c>
+      <c r="D9">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45843</v>
+      </c>
+      <c r="D10">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45874</v>
+      </c>
+      <c r="D11">
+        <v>386</v>
+      </c>
+      <c r="F11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45905</v>
+      </c>
+      <c r="C12">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>826</v>
+      </c>
+      <c r="F15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16">
+        <v>877</v>
+      </c>
+      <c r="F16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17">
+        <v>522</v>
+      </c>
+      <c r="F17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18">
+        <v>378</v>
+      </c>
+      <c r="F18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21">
+        <v>321</v>
+      </c>
+      <c r="F21" t="s">
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
